--- a/output/farmaceuticos sin fronteras.xlsx
+++ b/output/farmaceuticos sin fronteras.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="237">
   <si>
     <t>Pais-Año</t>
   </si>
@@ -25,46 +25,46 @@
     <t>Gross_National_Income</t>
   </si>
   <si>
-    <t>Subvencion_publica</t>
+    <t>Public_Grant</t>
   </si>
   <si>
-    <t>dinero_anyo_anterior_en_proyectos</t>
+    <t>NGO_Country_Budget_Previous_Year</t>
   </si>
   <si>
-    <t>Vision_ONGD_Latinoamerica</t>
+    <t>Vision_ONGD_LatinAmerica</t>
   </si>
   <si>
     <t>Vision_ONGD_Africa</t>
   </si>
   <si>
-    <t>Vision_ONGD_Confesional</t>
+    <t>Vision_ONGD_Confessional</t>
   </si>
   <si>
     <t>Vision_ONGD_Universal</t>
   </si>
   <si>
-    <t>Fondos_Publicos_MAE</t>
+    <t>Public_Funds_MAE</t>
   </si>
   <si>
-    <t>Fondos_Publicos_Descentralizada</t>
+    <t>Public_Funds_Decentralized</t>
   </si>
   <si>
-    <t>Fondos_Publicos_Internacional</t>
+    <t>Public_Funds_Internacional</t>
   </si>
   <si>
-    <t>Fondos_Publicos_Otros</t>
+    <t>Public_Funds_Other</t>
   </si>
   <si>
-    <t>Fondos_Publicos_Total</t>
+    <t>Public_Funds_Total</t>
   </si>
   <si>
-    <t>Fondos_Privados_Cuotas</t>
+    <t>Private_Funds_Cuotas</t>
   </si>
   <si>
-    <t>Fondos_Privados_Donaciones</t>
+    <t>Public_Funds_Donations</t>
   </si>
   <si>
-    <t>Fondos_Privados_Empresas</t>
+    <t>Public_Funds_Companies</t>
   </si>
   <si>
     <t>Fondos_Privados_Venta</t>
@@ -116,6 +116,15 @@
   </si>
   <si>
     <t>Proporcion_Fondos_Privados</t>
+  </si>
+  <si>
+    <t>Anyo_ONG</t>
+  </si>
+  <si>
+    <t>Internacional</t>
+  </si>
+  <si>
+    <t>Colony</t>
   </si>
   <si>
     <t>Visitado</t>
@@ -1056,7 +1065,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ198"/>
+  <dimension ref="A1:AM198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1065,7 +1074,7 @@
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:39">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1174,10 +1183,19 @@
       <c r="AJ1" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:39">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1276,15 +1294,24 @@
         <v>0.3301409296564389</v>
       </c>
       <c r="AI2">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>1</v>
+      </c>
+      <c r="AL2">
+        <v>1</v>
+      </c>
+      <c r="AM2">
         <v>13645.95833333333</v>
       </c>
     </row>
-    <row r="3" spans="1:36">
+    <row r="3" spans="1:39">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1383,15 +1410,24 @@
         <v>0.3301409296564389</v>
       </c>
       <c r="AI3">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>1</v>
+      </c>
+      <c r="AL3">
+        <v>1</v>
+      </c>
+      <c r="AM3">
         <v>13645.95833333333</v>
       </c>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:39">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1490,15 +1526,24 @@
         <v>0.3301409296564389</v>
       </c>
       <c r="AI4">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>1</v>
+      </c>
+      <c r="AL4">
+        <v>1</v>
+      </c>
+      <c r="AM4">
         <v>133400</v>
       </c>
     </row>
-    <row r="5" spans="1:36">
+    <row r="5" spans="1:39">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1597,15 +1642,24 @@
         <v>0.3301409296564389</v>
       </c>
       <c r="AI5">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>1</v>
+      </c>
+      <c r="AM5">
         <v>13645.95833333333</v>
       </c>
     </row>
-    <row r="6" spans="1:36">
+    <row r="6" spans="1:39">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1704,15 +1758,24 @@
         <v>0.3301409296564389</v>
       </c>
       <c r="AI6">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>1</v>
+      </c>
+      <c r="AM6">
         <v>13645.95833333333</v>
       </c>
     </row>
-    <row r="7" spans="1:36">
+    <row r="7" spans="1:39">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1811,15 +1874,24 @@
         <v>0.3301409296564389</v>
       </c>
       <c r="AI7">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>1</v>
+      </c>
+      <c r="AM7">
         <v>13645.95833333333</v>
       </c>
     </row>
-    <row r="8" spans="1:36">
+    <row r="8" spans="1:39">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1918,15 +1990,24 @@
         <v>0.3301409296564389</v>
       </c>
       <c r="AI8">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <v>1</v>
+      </c>
+      <c r="AL8">
+        <v>1</v>
+      </c>
+      <c r="AM8">
         <v>13645.95833333333</v>
       </c>
     </row>
-    <row r="9" spans="1:36">
+    <row r="9" spans="1:39">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2025,15 +2106,24 @@
         <v>0.3301409296564389</v>
       </c>
       <c r="AI9">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <v>1</v>
+      </c>
+      <c r="AL9">
+        <v>1</v>
+      </c>
+      <c r="AM9">
         <v>13645.95833333333</v>
       </c>
     </row>
-    <row r="10" spans="1:36">
+    <row r="10" spans="1:39">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2132,15 +2222,24 @@
         <v>0.3301409296564389</v>
       </c>
       <c r="AI10">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <v>1</v>
+      </c>
+      <c r="AL10">
+        <v>1</v>
+      </c>
+      <c r="AM10">
         <v>13645.95833333333</v>
       </c>
     </row>
-    <row r="11" spans="1:36">
+    <row r="11" spans="1:39">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2239,15 +2338,24 @@
         <v>0.3301409296564389</v>
       </c>
       <c r="AI11">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ11">
+        <v>0</v>
+      </c>
+      <c r="AK11">
+        <v>1</v>
+      </c>
+      <c r="AL11">
+        <v>1</v>
+      </c>
+      <c r="AM11">
         <v>13645.95833333333</v>
       </c>
     </row>
-    <row r="12" spans="1:36">
+    <row r="12" spans="1:39">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -2346,15 +2454,24 @@
         <v>0.3301409296564389</v>
       </c>
       <c r="AI12">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ12">
+        <v>0</v>
+      </c>
+      <c r="AK12">
+        <v>1</v>
+      </c>
+      <c r="AL12">
+        <v>1</v>
+      </c>
+      <c r="AM12">
         <v>13645.95833333333</v>
       </c>
     </row>
-    <row r="13" spans="1:36">
+    <row r="13" spans="1:39">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2453,15 +2570,24 @@
         <v>0.3301409296564389</v>
       </c>
       <c r="AI13">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ13">
+        <v>0</v>
+      </c>
+      <c r="AK13">
+        <v>0</v>
+      </c>
+      <c r="AL13">
+        <v>1</v>
+      </c>
+      <c r="AM13">
         <v>13645.95833333333</v>
       </c>
     </row>
-    <row r="14" spans="1:36">
+    <row r="14" spans="1:39">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -2560,15 +2686,24 @@
         <v>0.3301409296564389</v>
       </c>
       <c r="AI14">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ14">
+        <v>0</v>
+      </c>
+      <c r="AK14">
+        <v>1</v>
+      </c>
+      <c r="AL14">
+        <v>1</v>
+      </c>
+      <c r="AM14">
         <v>13645.95833333333</v>
       </c>
     </row>
-    <row r="15" spans="1:36">
+    <row r="15" spans="1:39">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -2667,15 +2802,24 @@
         <v>0.3301409296564389</v>
       </c>
       <c r="AI15">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ15">
+        <v>0</v>
+      </c>
+      <c r="AK15">
+        <v>1</v>
+      </c>
+      <c r="AL15">
+        <v>1</v>
+      </c>
+      <c r="AM15">
         <v>13645.95833333333</v>
       </c>
     </row>
-    <row r="16" spans="1:36">
+    <row r="16" spans="1:39">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -2774,15 +2918,24 @@
         <v>0.3301409296564389</v>
       </c>
       <c r="AI16">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ16">
+        <v>0</v>
+      </c>
+      <c r="AK16">
+        <v>0</v>
+      </c>
+      <c r="AL16">
+        <v>1</v>
+      </c>
+      <c r="AM16">
         <v>13645.95833333333</v>
       </c>
     </row>
-    <row r="17" spans="1:36">
+    <row r="17" spans="1:39">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -2881,15 +3034,24 @@
         <v>0.3301409296564389</v>
       </c>
       <c r="AI17">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ17">
+        <v>0</v>
+      </c>
+      <c r="AK17">
+        <v>0</v>
+      </c>
+      <c r="AL17">
+        <v>1</v>
+      </c>
+      <c r="AM17">
         <v>13645.95833333333</v>
       </c>
     </row>
-    <row r="18" spans="1:36">
+    <row r="18" spans="1:39">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -2988,15 +3150,24 @@
         <v>0.3301409296564389</v>
       </c>
       <c r="AI18">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ18">
+        <v>0</v>
+      </c>
+      <c r="AK18">
+        <v>0</v>
+      </c>
+      <c r="AL18">
+        <v>1</v>
+      </c>
+      <c r="AM18">
         <v>13645.95833333333</v>
       </c>
     </row>
-    <row r="19" spans="1:36">
+    <row r="19" spans="1:39">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -3095,15 +3266,24 @@
         <v>0.3301409296564389</v>
       </c>
       <c r="AI19">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ19">
+        <v>0</v>
+      </c>
+      <c r="AK19">
+        <v>1</v>
+      </c>
+      <c r="AL19">
+        <v>1</v>
+      </c>
+      <c r="AM19">
         <v>13645.95833333333</v>
       </c>
     </row>
-    <row r="20" spans="1:36">
+    <row r="20" spans="1:39">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -3202,15 +3382,24 @@
         <v>0.3301409296564389</v>
       </c>
       <c r="AI20">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ20">
+        <v>0</v>
+      </c>
+      <c r="AK20">
+        <v>0</v>
+      </c>
+      <c r="AL20">
+        <v>1</v>
+      </c>
+      <c r="AM20">
         <v>13645.95833333333</v>
       </c>
     </row>
-    <row r="21" spans="1:36">
+    <row r="21" spans="1:39">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -3309,15 +3498,24 @@
         <v>0.3301409296564389</v>
       </c>
       <c r="AI21">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ21">
+        <v>0</v>
+      </c>
+      <c r="AK21">
+        <v>0</v>
+      </c>
+      <c r="AL21">
+        <v>1</v>
+      </c>
+      <c r="AM21">
         <v>13645.95833333333</v>
       </c>
     </row>
-    <row r="22" spans="1:36">
+    <row r="22" spans="1:39">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -3416,15 +3614,24 @@
         <v>0.3301409296564389</v>
       </c>
       <c r="AI22">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ22">
+        <v>0</v>
+      </c>
+      <c r="AK22">
+        <v>1</v>
+      </c>
+      <c r="AL22">
+        <v>1</v>
+      </c>
+      <c r="AM22">
         <v>13645.95833333333</v>
       </c>
     </row>
-    <row r="23" spans="1:36">
+    <row r="23" spans="1:39">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -3523,15 +3730,24 @@
         <v>0.3301409296564389</v>
       </c>
       <c r="AI23">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ23">
+        <v>0</v>
+      </c>
+      <c r="AK23">
+        <v>1</v>
+      </c>
+      <c r="AL23">
+        <v>1</v>
+      </c>
+      <c r="AM23">
         <v>13645.95833333333</v>
       </c>
     </row>
-    <row r="24" spans="1:36">
+    <row r="24" spans="1:39">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -3630,15 +3846,24 @@
         <v>0.3301409296564389</v>
       </c>
       <c r="AI24">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ24">
+        <v>0</v>
+      </c>
+      <c r="AK24">
+        <v>0</v>
+      </c>
+      <c r="AL24">
+        <v>1</v>
+      </c>
+      <c r="AM24">
         <v>13645.95833333333</v>
       </c>
     </row>
-    <row r="25" spans="1:36">
+    <row r="25" spans="1:39">
       <c r="A25" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -3737,15 +3962,24 @@
         <v>0.3301409296564389</v>
       </c>
       <c r="AI25">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ25">
+        <v>0</v>
+      </c>
+      <c r="AK25">
+        <v>0</v>
+      </c>
+      <c r="AL25">
+        <v>1</v>
+      </c>
+      <c r="AM25">
         <v>13645.95833333333</v>
       </c>
     </row>
-    <row r="26" spans="1:36">
+    <row r="26" spans="1:39">
       <c r="A26" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -3844,15 +4078,24 @@
         <v>0.3301409296564389</v>
       </c>
       <c r="AI26">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ26">
+        <v>0</v>
+      </c>
+      <c r="AK26">
+        <v>0</v>
+      </c>
+      <c r="AL26">
+        <v>1</v>
+      </c>
+      <c r="AM26">
         <v>13645.95833333333</v>
       </c>
     </row>
-    <row r="27" spans="1:36">
+    <row r="27" spans="1:39">
       <c r="A27" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -3951,15 +4194,24 @@
         <v>0.9790898924163204</v>
       </c>
       <c r="AI27">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ27">
+        <v>0</v>
+      </c>
+      <c r="AK27">
+        <v>0</v>
+      </c>
+      <c r="AL27">
+        <v>1</v>
+      </c>
+      <c r="AM27">
         <v>1893</v>
       </c>
     </row>
-    <row r="28" spans="1:36">
+    <row r="28" spans="1:39">
       <c r="A28" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -4058,15 +4310,24 @@
         <v>0.9790898924163204</v>
       </c>
       <c r="AI28">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ28">
+        <v>0</v>
+      </c>
+      <c r="AK28">
+        <v>0</v>
+      </c>
+      <c r="AL28">
+        <v>1</v>
+      </c>
+      <c r="AM28">
         <v>5224</v>
       </c>
     </row>
-    <row r="29" spans="1:36">
+    <row r="29" spans="1:39">
       <c r="A29" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -4165,15 +4426,24 @@
         <v>0.9790898924163204</v>
       </c>
       <c r="AI29">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ29">
+        <v>0</v>
+      </c>
+      <c r="AK29">
+        <v>0</v>
+      </c>
+      <c r="AL29">
+        <v>1</v>
+      </c>
+      <c r="AM29">
         <v>1211</v>
       </c>
     </row>
-    <row r="30" spans="1:36">
+    <row r="30" spans="1:39">
       <c r="A30" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -4272,15 +4542,24 @@
         <v>0.9790898924163204</v>
       </c>
       <c r="AI30">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ30">
+        <v>0</v>
+      </c>
+      <c r="AK30">
+        <v>0</v>
+      </c>
+      <c r="AL30">
+        <v>1</v>
+      </c>
+      <c r="AM30">
         <v>3702</v>
       </c>
     </row>
-    <row r="31" spans="1:36">
+    <row r="31" spans="1:39">
       <c r="A31" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -4379,15 +4658,24 @@
         <v>0.9790898924163204</v>
       </c>
       <c r="AI31">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ31">
+        <v>0</v>
+      </c>
+      <c r="AK31">
+        <v>0</v>
+      </c>
+      <c r="AL31">
+        <v>1</v>
+      </c>
+      <c r="AM31">
         <v>1213</v>
       </c>
     </row>
-    <row r="32" spans="1:36">
+    <row r="32" spans="1:39">
       <c r="A32" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -4486,15 +4774,24 @@
         <v>0.9790898924163204</v>
       </c>
       <c r="AI32">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ32">
+        <v>0</v>
+      </c>
+      <c r="AK32">
+        <v>1</v>
+      </c>
+      <c r="AL32">
+        <v>1</v>
+      </c>
+      <c r="AM32">
         <v>2776</v>
       </c>
     </row>
-    <row r="33" spans="1:36">
+    <row r="33" spans="1:39">
       <c r="A33" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -4593,15 +4890,24 @@
         <v>0.9790898924163204</v>
       </c>
       <c r="AI33">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ33">
+        <v>0</v>
+      </c>
+      <c r="AK33">
+        <v>1</v>
+      </c>
+      <c r="AL33">
+        <v>1</v>
+      </c>
+      <c r="AM33">
         <v>22569</v>
       </c>
     </row>
-    <row r="34" spans="1:36">
+    <row r="34" spans="1:39">
       <c r="A34" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -4700,15 +5006,24 @@
         <v>0.9790898924163204</v>
       </c>
       <c r="AI34">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ34">
+        <v>0</v>
+      </c>
+      <c r="AK34">
+        <v>1</v>
+      </c>
+      <c r="AL34">
+        <v>1</v>
+      </c>
+      <c r="AM34">
         <v>17009</v>
       </c>
     </row>
-    <row r="35" spans="1:36">
+    <row r="35" spans="1:39">
       <c r="A35" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -4807,15 +5122,24 @@
         <v>0.9790898924163204</v>
       </c>
       <c r="AI35">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ35">
+        <v>0</v>
+      </c>
+      <c r="AK35">
+        <v>0</v>
+      </c>
+      <c r="AL35">
+        <v>1</v>
+      </c>
+      <c r="AM35">
         <v>25369</v>
       </c>
     </row>
-    <row r="36" spans="1:36">
+    <row r="36" spans="1:39">
       <c r="A36" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -4914,15 +5238,24 @@
         <v>0.9790898924163204</v>
       </c>
       <c r="AI36">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ36">
+        <v>0</v>
+      </c>
+      <c r="AK36">
+        <v>0</v>
+      </c>
+      <c r="AL36">
+        <v>1</v>
+      </c>
+      <c r="AM36">
         <v>515</v>
       </c>
     </row>
-    <row r="37" spans="1:36">
+    <row r="37" spans="1:39">
       <c r="A37" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -5021,15 +5354,24 @@
         <v>0.9790898924163204</v>
       </c>
       <c r="AI37">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ37">
+        <v>0</v>
+      </c>
+      <c r="AK37">
+        <v>0</v>
+      </c>
+      <c r="AL37">
+        <v>1</v>
+      </c>
+      <c r="AM37">
         <v>17398</v>
       </c>
     </row>
-    <row r="38" spans="1:36">
+    <row r="38" spans="1:39">
       <c r="A38" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -5128,15 +5470,24 @@
         <v>0.9790898924163204</v>
       </c>
       <c r="AI38">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ38">
+        <v>0</v>
+      </c>
+      <c r="AK38">
+        <v>0</v>
+      </c>
+      <c r="AL38">
+        <v>1</v>
+      </c>
+      <c r="AM38">
         <v>2734</v>
       </c>
     </row>
-    <row r="39" spans="1:36">
+    <row r="39" spans="1:39">
       <c r="A39" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -5235,15 +5586,24 @@
         <v>0.9790898924163204</v>
       </c>
       <c r="AI39">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ39">
+        <v>0</v>
+      </c>
+      <c r="AK39">
+        <v>0</v>
+      </c>
+      <c r="AL39">
+        <v>1</v>
+      </c>
+      <c r="AM39">
         <v>983</v>
       </c>
     </row>
-    <row r="40" spans="1:36">
+    <row r="40" spans="1:39">
       <c r="A40" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -5342,15 +5702,24 @@
         <v>0.9790898924163204</v>
       </c>
       <c r="AI40">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ40">
+        <v>0</v>
+      </c>
+      <c r="AK40">
+        <v>0</v>
+      </c>
+      <c r="AL40">
+        <v>1</v>
+      </c>
+      <c r="AM40">
         <v>781</v>
       </c>
     </row>
-    <row r="41" spans="1:36">
+    <row r="41" spans="1:39">
       <c r="A41" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -5449,15 +5818,24 @@
         <v>0.9790898924163204</v>
       </c>
       <c r="AI41">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ41">
+        <v>0</v>
+      </c>
+      <c r="AK41">
+        <v>1</v>
+      </c>
+      <c r="AL41">
+        <v>1</v>
+      </c>
+      <c r="AM41">
         <v>1679</v>
       </c>
     </row>
-    <row r="42" spans="1:36">
+    <row r="42" spans="1:39">
       <c r="A42" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -5556,15 +5934,24 @@
         <v>0.9790898924163204</v>
       </c>
       <c r="AI42">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ42">
+        <v>0</v>
+      </c>
+      <c r="AK42">
+        <v>1</v>
+      </c>
+      <c r="AL42">
+        <v>1</v>
+      </c>
+      <c r="AM42">
         <v>3614</v>
       </c>
     </row>
-    <row r="43" spans="1:36">
+    <row r="43" spans="1:39">
       <c r="A43" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -5663,15 +6050,24 @@
         <v>0.9790898924163204</v>
       </c>
       <c r="AI43">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ43">
+        <v>0</v>
+      </c>
+      <c r="AK43">
+        <v>0</v>
+      </c>
+      <c r="AL43">
+        <v>1</v>
+      </c>
+      <c r="AM43">
         <v>258471</v>
       </c>
     </row>
-    <row r="44" spans="1:36">
+    <row r="44" spans="1:39">
       <c r="A44" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -5770,15 +6166,24 @@
         <v>0.9790898924163204</v>
       </c>
       <c r="AI44">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ44">
+        <v>0</v>
+      </c>
+      <c r="AK44">
+        <v>1</v>
+      </c>
+      <c r="AL44">
+        <v>1</v>
+      </c>
+      <c r="AM44">
         <v>37158</v>
       </c>
     </row>
-    <row r="45" spans="1:36">
+    <row r="45" spans="1:39">
       <c r="A45" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -5877,15 +6282,24 @@
         <v>0.9790898924163204</v>
       </c>
       <c r="AI45">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ45">
+        <v>0</v>
+      </c>
+      <c r="AK45">
+        <v>0</v>
+      </c>
+      <c r="AL45">
+        <v>1</v>
+      </c>
+      <c r="AM45">
         <v>3211</v>
       </c>
     </row>
-    <row r="46" spans="1:36">
+    <row r="46" spans="1:39">
       <c r="A46" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -5984,15 +6398,24 @@
         <v>0.9790898924163204</v>
       </c>
       <c r="AI46">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ46">
+        <v>0</v>
+      </c>
+      <c r="AK46">
+        <v>1</v>
+      </c>
+      <c r="AL46">
+        <v>1</v>
+      </c>
+      <c r="AM46">
         <v>8204</v>
       </c>
     </row>
-    <row r="47" spans="1:36">
+    <row r="47" spans="1:39">
       <c r="A47" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -6091,15 +6514,24 @@
         <v>0.9790898924163204</v>
       </c>
       <c r="AI47">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ47">
+        <v>0</v>
+      </c>
+      <c r="AK47">
+        <v>1</v>
+      </c>
+      <c r="AL47">
+        <v>1</v>
+      </c>
+      <c r="AM47">
         <v>11439</v>
       </c>
     </row>
-    <row r="48" spans="1:36">
+    <row r="48" spans="1:39">
       <c r="A48" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -6198,15 +6630,24 @@
         <v>0.9790898924163204</v>
       </c>
       <c r="AI48">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ48">
+        <v>0</v>
+      </c>
+      <c r="AK48">
+        <v>0</v>
+      </c>
+      <c r="AL48">
+        <v>1</v>
+      </c>
+      <c r="AM48">
         <v>4979</v>
       </c>
     </row>
-    <row r="49" spans="1:36">
+    <row r="49" spans="1:39">
       <c r="A49" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -6305,15 +6746,24 @@
         <v>0.9790898924163204</v>
       </c>
       <c r="AI49">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ49">
+        <v>0</v>
+      </c>
+      <c r="AK49">
+        <v>0</v>
+      </c>
+      <c r="AL49">
+        <v>1</v>
+      </c>
+      <c r="AM49">
         <v>74</v>
       </c>
     </row>
-    <row r="50" spans="1:36">
+    <row r="50" spans="1:39">
       <c r="A50" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -6412,15 +6862,24 @@
         <v>0.9790898924163204</v>
       </c>
       <c r="AI50">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ50">
+        <v>0</v>
+      </c>
+      <c r="AK50">
+        <v>0</v>
+      </c>
+      <c r="AL50">
+        <v>1</v>
+      </c>
+      <c r="AM50">
         <v>889</v>
       </c>
     </row>
-    <row r="51" spans="1:36">
+    <row r="51" spans="1:39">
       <c r="A51" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -6519,15 +6978,24 @@
         <v>0.8038938075774854</v>
       </c>
       <c r="AI51">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ51">
+        <v>0</v>
+      </c>
+      <c r="AK51">
+        <v>0</v>
+      </c>
+      <c r="AL51">
+        <v>1</v>
+      </c>
+      <c r="AM51">
         <v>4892</v>
       </c>
     </row>
-    <row r="52" spans="1:36">
+    <row r="52" spans="1:39">
       <c r="A52" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -6626,15 +7094,24 @@
         <v>0.8038938075774854</v>
       </c>
       <c r="AI52">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ52">
+        <v>0</v>
+      </c>
+      <c r="AK52">
+        <v>0</v>
+      </c>
+      <c r="AL52">
+        <v>1</v>
+      </c>
+      <c r="AM52">
         <v>3151</v>
       </c>
     </row>
-    <row r="53" spans="1:36">
+    <row r="53" spans="1:39">
       <c r="A53" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -6733,15 +7210,24 @@
         <v>0.8038938075774854</v>
       </c>
       <c r="AI53">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ53">
+        <v>0</v>
+      </c>
+      <c r="AK53">
+        <v>0</v>
+      </c>
+      <c r="AL53">
+        <v>1</v>
+      </c>
+      <c r="AM53">
         <v>753</v>
       </c>
     </row>
-    <row r="54" spans="1:36">
+    <row r="54" spans="1:39">
       <c r="A54" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -6840,15 +7326,24 @@
         <v>0.8038938075774854</v>
       </c>
       <c r="AI54">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ54">
+        <v>0</v>
+      </c>
+      <c r="AK54">
+        <v>0</v>
+      </c>
+      <c r="AL54">
+        <v>1</v>
+      </c>
+      <c r="AM54">
         <v>1175</v>
       </c>
     </row>
-    <row r="55" spans="1:36">
+    <row r="55" spans="1:39">
       <c r="A55" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -6947,15 +7442,24 @@
         <v>0.8038938075774854</v>
       </c>
       <c r="AI55">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ55">
+        <v>0</v>
+      </c>
+      <c r="AK55">
+        <v>0</v>
+      </c>
+      <c r="AL55">
+        <v>1</v>
+      </c>
+      <c r="AM55">
         <v>1106</v>
       </c>
     </row>
-    <row r="56" spans="1:36">
+    <row r="56" spans="1:39">
       <c r="A56" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -7054,15 +7558,24 @@
         <v>0.8038938075774854</v>
       </c>
       <c r="AI56">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ56">
+        <v>0</v>
+      </c>
+      <c r="AK56">
+        <v>1</v>
+      </c>
+      <c r="AL56">
+        <v>1</v>
+      </c>
+      <c r="AM56">
         <v>2006</v>
       </c>
     </row>
-    <row r="57" spans="1:36">
+    <row r="57" spans="1:39">
       <c r="A57" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -7161,15 +7674,24 @@
         <v>0.8038938075774854</v>
       </c>
       <c r="AI57">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ57">
+        <v>0</v>
+      </c>
+      <c r="AK57">
+        <v>1</v>
+      </c>
+      <c r="AL57">
+        <v>1</v>
+      </c>
+      <c r="AM57">
         <v>10246</v>
       </c>
     </row>
-    <row r="58" spans="1:36">
+    <row r="58" spans="1:39">
       <c r="A58" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -7268,15 +7790,24 @@
         <v>0.8038938075774854</v>
       </c>
       <c r="AI58">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ58">
+        <v>0</v>
+      </c>
+      <c r="AK58">
+        <v>1</v>
+      </c>
+      <c r="AL58">
+        <v>1</v>
+      </c>
+      <c r="AM58">
         <v>1519</v>
       </c>
     </row>
-    <row r="59" spans="1:36">
+    <row r="59" spans="1:39">
       <c r="A59" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -7375,15 +7906,24 @@
         <v>0.8038938075774854</v>
       </c>
       <c r="AI59">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ59">
+        <v>0</v>
+      </c>
+      <c r="AK59">
+        <v>0</v>
+      </c>
+      <c r="AL59">
+        <v>1</v>
+      </c>
+      <c r="AM59">
         <v>4733</v>
       </c>
     </row>
-    <row r="60" spans="1:36">
+    <row r="60" spans="1:39">
       <c r="A60" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -7482,15 +8022,24 @@
         <v>0.8038938075774854</v>
       </c>
       <c r="AI60">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ60">
+        <v>0</v>
+      </c>
+      <c r="AK60">
+        <v>0</v>
+      </c>
+      <c r="AL60">
+        <v>1</v>
+      </c>
+      <c r="AM60">
         <v>519</v>
       </c>
     </row>
-    <row r="61" spans="1:36">
+    <row r="61" spans="1:39">
       <c r="A61" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -7589,15 +8138,24 @@
         <v>0.8038938075774854</v>
       </c>
       <c r="AI61">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ61">
+        <v>0</v>
+      </c>
+      <c r="AK61">
+        <v>0</v>
+      </c>
+      <c r="AL61">
+        <v>1</v>
+      </c>
+      <c r="AM61">
         <v>5810</v>
       </c>
     </row>
-    <row r="62" spans="1:36">
+    <row r="62" spans="1:39">
       <c r="A62" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -7696,15 +8254,24 @@
         <v>0.8038938075774854</v>
       </c>
       <c r="AI62">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ62">
+        <v>0</v>
+      </c>
+      <c r="AK62">
+        <v>0</v>
+      </c>
+      <c r="AL62">
+        <v>1</v>
+      </c>
+      <c r="AM62">
         <v>1893</v>
       </c>
     </row>
-    <row r="63" spans="1:36">
+    <row r="63" spans="1:39">
       <c r="A63" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -7803,15 +8370,24 @@
         <v>0.8038938075774854</v>
       </c>
       <c r="AI63">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ63">
+        <v>0</v>
+      </c>
+      <c r="AK63">
+        <v>0</v>
+      </c>
+      <c r="AL63">
+        <v>1</v>
+      </c>
+      <c r="AM63">
         <v>1040</v>
       </c>
     </row>
-    <row r="64" spans="1:36">
+    <row r="64" spans="1:39">
       <c r="A64" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -7910,15 +8486,24 @@
         <v>0.8038938075774854</v>
       </c>
       <c r="AI64">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ64">
+        <v>0</v>
+      </c>
+      <c r="AK64">
+        <v>1</v>
+      </c>
+      <c r="AL64">
+        <v>1</v>
+      </c>
+      <c r="AM64">
         <v>1660</v>
       </c>
     </row>
-    <row r="65" spans="1:36">
+    <row r="65" spans="1:39">
       <c r="A65" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -8017,15 +8602,24 @@
         <v>0.8038938075774854</v>
       </c>
       <c r="AI65">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ65">
+        <v>0</v>
+      </c>
+      <c r="AK65">
+        <v>1</v>
+      </c>
+      <c r="AL65">
+        <v>1</v>
+      </c>
+      <c r="AM65">
         <v>2929</v>
       </c>
     </row>
-    <row r="66" spans="1:36">
+    <row r="66" spans="1:39">
       <c r="A66" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -8124,15 +8718,24 @@
         <v>0.8038938075774854</v>
       </c>
       <c r="AI66">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ66">
+        <v>0</v>
+      </c>
+      <c r="AK66">
+        <v>0</v>
+      </c>
+      <c r="AL66">
+        <v>1</v>
+      </c>
+      <c r="AM66">
         <v>38933</v>
       </c>
     </row>
-    <row r="67" spans="1:36">
+    <row r="67" spans="1:39">
       <c r="A67" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -8231,15 +8834,24 @@
         <v>0.8038938075774854</v>
       </c>
       <c r="AI67">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ67">
+        <v>0</v>
+      </c>
+      <c r="AK67">
+        <v>1</v>
+      </c>
+      <c r="AL67">
+        <v>1</v>
+      </c>
+      <c r="AM67">
         <v>9306</v>
       </c>
     </row>
-    <row r="68" spans="1:36">
+    <row r="68" spans="1:39">
       <c r="A68" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -8338,15 +8950,24 @@
         <v>0.8038938075774854</v>
       </c>
       <c r="AI68">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ68">
+        <v>0</v>
+      </c>
+      <c r="AK68">
+        <v>0</v>
+      </c>
+      <c r="AL68">
+        <v>1</v>
+      </c>
+      <c r="AM68">
         <v>30781</v>
       </c>
     </row>
-    <row r="69" spans="1:36">
+    <row r="69" spans="1:39">
       <c r="A69" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -8445,15 +9066,24 @@
         <v>0.8038938075774854</v>
       </c>
       <c r="AI69">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ69">
+        <v>0</v>
+      </c>
+      <c r="AK69">
+        <v>1</v>
+      </c>
+      <c r="AL69">
+        <v>1</v>
+      </c>
+      <c r="AM69">
         <v>174</v>
       </c>
     </row>
-    <row r="70" spans="1:36">
+    <row r="70" spans="1:39">
       <c r="A70" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -8552,15 +9182,24 @@
         <v>0.8038938075774854</v>
       </c>
       <c r="AI70">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ70">
+        <v>0</v>
+      </c>
+      <c r="AK70">
+        <v>1</v>
+      </c>
+      <c r="AL70">
+        <v>1</v>
+      </c>
+      <c r="AM70">
         <v>32830</v>
       </c>
     </row>
-    <row r="71" spans="1:36">
+    <row r="71" spans="1:39">
       <c r="A71" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -8659,15 +9298,24 @@
         <v>0.8038938075774854</v>
       </c>
       <c r="AI71">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ71">
+        <v>0</v>
+      </c>
+      <c r="AK71">
+        <v>1</v>
+      </c>
+      <c r="AL71">
+        <v>1</v>
+      </c>
+      <c r="AM71">
         <v>131335</v>
       </c>
     </row>
-    <row r="72" spans="1:36">
+    <row r="72" spans="1:39">
       <c r="A72" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -8766,15 +9414,24 @@
         <v>0.8038938075774854</v>
       </c>
       <c r="AI72">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ72">
+        <v>0</v>
+      </c>
+      <c r="AK72">
+        <v>1</v>
+      </c>
+      <c r="AL72">
+        <v>1</v>
+      </c>
+      <c r="AM72">
         <v>6492</v>
       </c>
     </row>
-    <row r="73" spans="1:36">
+    <row r="73" spans="1:39">
       <c r="A73" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -8873,15 +9530,24 @@
         <v>0.8038938075774854</v>
       </c>
       <c r="AI73">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ73">
+        <v>0</v>
+      </c>
+      <c r="AK73">
+        <v>1</v>
+      </c>
+      <c r="AL73">
+        <v>1</v>
+      </c>
+      <c r="AM73">
         <v>6584</v>
       </c>
     </row>
-    <row r="74" spans="1:36">
+    <row r="74" spans="1:39">
       <c r="A74" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B74">
         <v>1</v>
@@ -8980,15 +9646,24 @@
         <v>0.8038938075774854</v>
       </c>
       <c r="AI74">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ74">
+        <v>0</v>
+      </c>
+      <c r="AK74">
+        <v>0</v>
+      </c>
+      <c r="AL74">
+        <v>1</v>
+      </c>
+      <c r="AM74">
         <v>4598</v>
       </c>
     </row>
-    <row r="75" spans="1:36">
+    <row r="75" spans="1:39">
       <c r="A75" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -9087,15 +9762,24 @@
         <v>0.8038938075774854</v>
       </c>
       <c r="AI75">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ75">
+        <v>0</v>
+      </c>
+      <c r="AK75">
+        <v>0</v>
+      </c>
+      <c r="AL75">
+        <v>1</v>
+      </c>
+      <c r="AM75">
         <v>1599</v>
       </c>
     </row>
-    <row r="76" spans="1:36">
+    <row r="76" spans="1:39">
       <c r="A76" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B76">
         <v>1</v>
@@ -9194,15 +9878,24 @@
         <v>0.8038938075774854</v>
       </c>
       <c r="AI76">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ76">
+        <v>0</v>
+      </c>
+      <c r="AK76">
+        <v>0</v>
+      </c>
+      <c r="AL76">
+        <v>1</v>
+      </c>
+      <c r="AM76">
         <v>659</v>
       </c>
     </row>
-    <row r="77" spans="1:36">
+    <row r="77" spans="1:39">
       <c r="A77" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -9301,15 +9994,24 @@
         <v>0.8038938075774854</v>
       </c>
       <c r="AI77">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ77">
+        <v>0</v>
+      </c>
+      <c r="AK77">
+        <v>0</v>
+      </c>
+      <c r="AL77">
+        <v>1</v>
+      </c>
+      <c r="AM77">
         <v>465</v>
       </c>
     </row>
-    <row r="78" spans="1:36">
+    <row r="78" spans="1:39">
       <c r="A78" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -9408,15 +10110,24 @@
         <v>1</v>
       </c>
       <c r="AI78">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ78">
+        <v>0</v>
+      </c>
+      <c r="AK78">
+        <v>0</v>
+      </c>
+      <c r="AL78">
+        <v>1</v>
+      </c>
+      <c r="AM78">
         <v>10699.535</v>
       </c>
     </row>
-    <row r="79" spans="1:36">
+    <row r="79" spans="1:39">
       <c r="A79" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -9515,15 +10226,24 @@
         <v>1</v>
       </c>
       <c r="AI79">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ79">
+        <v>0</v>
+      </c>
+      <c r="AK79">
+        <v>1</v>
+      </c>
+      <c r="AL79">
+        <v>1</v>
+      </c>
+      <c r="AM79">
         <v>5219.555</v>
       </c>
     </row>
-    <row r="80" spans="1:36">
+    <row r="80" spans="1:39">
       <c r="A80" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -9622,15 +10342,24 @@
         <v>1</v>
       </c>
       <c r="AI80">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ80">
+        <v>0</v>
+      </c>
+      <c r="AK80">
+        <v>1</v>
+      </c>
+      <c r="AL80">
+        <v>1</v>
+      </c>
+      <c r="AM80">
         <v>14356.13</v>
       </c>
     </row>
-    <row r="81" spans="1:36">
+    <row r="81" spans="1:39">
       <c r="A81" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -9729,15 +10458,24 @@
         <v>1</v>
       </c>
       <c r="AI81">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ81">
+        <v>0</v>
+      </c>
+      <c r="AK81">
+        <v>0</v>
+      </c>
+      <c r="AL81">
+        <v>1</v>
+      </c>
+      <c r="AM81">
         <v>9117.905000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:36">
+    <row r="82" spans="1:39">
       <c r="A82" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B82">
         <v>1</v>
@@ -9836,15 +10574,24 @@
         <v>1</v>
       </c>
       <c r="AI82">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ82">
+        <v>0</v>
+      </c>
+      <c r="AK82">
+        <v>0</v>
+      </c>
+      <c r="AL82">
+        <v>1</v>
+      </c>
+      <c r="AM82">
         <v>13109.81</v>
       </c>
     </row>
-    <row r="83" spans="1:36">
+    <row r="83" spans="1:39">
       <c r="A83" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B83">
         <v>1</v>
@@ -9943,15 +10690,24 @@
         <v>1</v>
       </c>
       <c r="AI83">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ83">
+        <v>0</v>
+      </c>
+      <c r="AK83">
+        <v>0</v>
+      </c>
+      <c r="AL83">
+        <v>1</v>
+      </c>
+      <c r="AM83">
         <v>1649.775</v>
       </c>
     </row>
-    <row r="84" spans="1:36">
+    <row r="84" spans="1:39">
       <c r="A84" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B84">
         <v>1</v>
@@ -10050,15 +10806,24 @@
         <v>1</v>
       </c>
       <c r="AI84">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ84">
+        <v>0</v>
+      </c>
+      <c r="AK84">
+        <v>0</v>
+      </c>
+      <c r="AL84">
+        <v>1</v>
+      </c>
+      <c r="AM84">
         <v>1874.76</v>
       </c>
     </row>
-    <row r="85" spans="1:36">
+    <row r="85" spans="1:39">
       <c r="A85" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -10157,15 +10922,24 @@
         <v>1</v>
       </c>
       <c r="AI85">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ85">
+        <v>0</v>
+      </c>
+      <c r="AK85">
+        <v>1</v>
+      </c>
+      <c r="AL85">
+        <v>1</v>
+      </c>
+      <c r="AM85">
         <v>4455.42</v>
       </c>
     </row>
-    <row r="86" spans="1:36">
+    <row r="86" spans="1:39">
       <c r="A86" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -10264,15 +11038,24 @@
         <v>1</v>
       </c>
       <c r="AI86">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ86">
+        <v>0</v>
+      </c>
+      <c r="AK86">
+        <v>0</v>
+      </c>
+      <c r="AL86">
+        <v>1</v>
+      </c>
+      <c r="AM86">
         <v>3591.245</v>
       </c>
     </row>
-    <row r="87" spans="1:36">
+    <row r="87" spans="1:39">
       <c r="A87" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -10371,15 +11154,24 @@
         <v>1</v>
       </c>
       <c r="AI87">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ87">
+        <v>0</v>
+      </c>
+      <c r="AK87">
+        <v>1</v>
+      </c>
+      <c r="AL87">
+        <v>1</v>
+      </c>
+      <c r="AM87">
         <v>5057.705</v>
       </c>
     </row>
-    <row r="88" spans="1:36">
+    <row r="88" spans="1:39">
       <c r="A88" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -10478,15 +11270,24 @@
         <v>1</v>
       </c>
       <c r="AI88">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ88">
+        <v>0</v>
+      </c>
+      <c r="AK88">
+        <v>1</v>
+      </c>
+      <c r="AL88">
+        <v>1</v>
+      </c>
+      <c r="AM88">
         <v>25844.88</v>
       </c>
     </row>
-    <row r="89" spans="1:36">
+    <row r="89" spans="1:39">
       <c r="A89" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -10585,15 +11386,24 @@
         <v>1</v>
       </c>
       <c r="AI89">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ89">
+        <v>0</v>
+      </c>
+      <c r="AK89">
+        <v>1</v>
+      </c>
+      <c r="AL89">
+        <v>1</v>
+      </c>
+      <c r="AM89">
         <v>14848.025</v>
       </c>
     </row>
-    <row r="90" spans="1:36">
+    <row r="90" spans="1:39">
       <c r="A90" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B90">
         <v>1</v>
@@ -10692,15 +11502,24 @@
         <v>1</v>
       </c>
       <c r="AI90">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ90">
+        <v>0</v>
+      </c>
+      <c r="AK90">
+        <v>1</v>
+      </c>
+      <c r="AL90">
+        <v>1</v>
+      </c>
+      <c r="AM90">
         <v>1803.55</v>
       </c>
     </row>
-    <row r="91" spans="1:36">
+    <row r="91" spans="1:39">
       <c r="A91" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B91">
         <v>1</v>
@@ -10799,15 +11618,24 @@
         <v>1</v>
       </c>
       <c r="AI91">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ91">
+        <v>0</v>
+      </c>
+      <c r="AK91">
+        <v>0</v>
+      </c>
+      <c r="AL91">
+        <v>1</v>
+      </c>
+      <c r="AM91">
         <v>9325.684999999999</v>
       </c>
     </row>
-    <row r="92" spans="1:36">
+    <row r="92" spans="1:39">
       <c r="A92" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B92">
         <v>1</v>
@@ -10906,15 +11734,24 @@
         <v>1</v>
       </c>
       <c r="AI92">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ92">
+        <v>0</v>
+      </c>
+      <c r="AK92">
+        <v>0</v>
+      </c>
+      <c r="AL92">
+        <v>1</v>
+      </c>
+      <c r="AM92">
         <v>14118.69</v>
       </c>
     </row>
-    <row r="93" spans="1:36">
+    <row r="93" spans="1:39">
       <c r="A93" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B93">
         <v>1</v>
@@ -11013,15 +11850,24 @@
         <v>1</v>
       </c>
       <c r="AI93">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ93">
+        <v>0</v>
+      </c>
+      <c r="AK93">
+        <v>0</v>
+      </c>
+      <c r="AL93">
+        <v>1</v>
+      </c>
+      <c r="AM93">
         <v>11795.31</v>
       </c>
     </row>
-    <row r="94" spans="1:36">
+    <row r="94" spans="1:39">
       <c r="A94" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -11120,15 +11966,24 @@
         <v>1</v>
       </c>
       <c r="AI94">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ94">
+        <v>0</v>
+      </c>
+      <c r="AK94">
+        <v>1</v>
+      </c>
+      <c r="AL94">
+        <v>1</v>
+      </c>
+      <c r="AM94">
         <v>1442.665</v>
       </c>
     </row>
-    <row r="95" spans="1:36">
+    <row r="95" spans="1:39">
       <c r="A95" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -11227,15 +12082,24 @@
         <v>1</v>
       </c>
       <c r="AI95">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ95">
+        <v>0</v>
+      </c>
+      <c r="AK95">
+        <v>1</v>
+      </c>
+      <c r="AL95">
+        <v>1</v>
+      </c>
+      <c r="AM95">
         <v>1415.285</v>
       </c>
     </row>
-    <row r="96" spans="1:36">
+    <row r="96" spans="1:39">
       <c r="A96" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B96">
         <v>1</v>
@@ -11334,15 +12198,24 @@
         <v>1</v>
       </c>
       <c r="AI96">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ96">
+        <v>0</v>
+      </c>
+      <c r="AK96">
+        <v>0</v>
+      </c>
+      <c r="AL96">
+        <v>1</v>
+      </c>
+      <c r="AM96">
         <v>8361.049999999999</v>
       </c>
     </row>
-    <row r="97" spans="1:36">
+    <row r="97" spans="1:39">
       <c r="A97" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -11441,21 +12314,30 @@
         <v>1</v>
       </c>
       <c r="AI97">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ97">
+        <v>0</v>
+      </c>
+      <c r="AK97">
+        <v>0</v>
+      </c>
+      <c r="AL97">
+        <v>1</v>
+      </c>
+      <c r="AM97">
         <v>1306.055</v>
       </c>
     </row>
-    <row r="98" spans="1:36">
+    <row r="98" spans="1:39">
       <c r="A98" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B98">
         <v>0</v>
       </c>
       <c r="C98" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -11548,15 +12430,24 @@
         <v>1</v>
       </c>
       <c r="AI98">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ98">
+        <v>0</v>
+      </c>
+      <c r="AK98">
+        <v>0</v>
+      </c>
+      <c r="AL98">
+        <v>1</v>
+      </c>
+      <c r="AM98">
         <v>24985.68</v>
       </c>
     </row>
-    <row r="99" spans="1:36">
+    <row r="99" spans="1:39">
       <c r="A99" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -11655,15 +12546,24 @@
         <v>1</v>
       </c>
       <c r="AI99">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ99">
+        <v>0</v>
+      </c>
+      <c r="AK99">
+        <v>1</v>
+      </c>
+      <c r="AL99">
+        <v>1</v>
+      </c>
+      <c r="AM99">
         <v>509.885</v>
       </c>
     </row>
-    <row r="100" spans="1:36">
+    <row r="100" spans="1:39">
       <c r="A100" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B100">
         <v>1</v>
@@ -11762,15 +12662,24 @@
         <v>1</v>
       </c>
       <c r="AI100">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ100">
+        <v>0</v>
+      </c>
+      <c r="AK100">
+        <v>0</v>
+      </c>
+      <c r="AL100">
+        <v>1</v>
+      </c>
+      <c r="AM100">
         <v>1255.04</v>
       </c>
     </row>
-    <row r="101" spans="1:36">
+    <row r="101" spans="1:39">
       <c r="A101" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -11869,15 +12778,24 @@
         <v>1</v>
       </c>
       <c r="AI101">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ101">
+        <v>0</v>
+      </c>
+      <c r="AK101">
+        <v>0</v>
+      </c>
+      <c r="AL101">
+        <v>1</v>
+      </c>
+      <c r="AM101">
         <v>1541.405</v>
       </c>
     </row>
-    <row r="102" spans="1:36">
+    <row r="102" spans="1:39">
       <c r="A102" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -11976,15 +12894,24 @@
         <v>1</v>
       </c>
       <c r="AI102">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ102">
+        <v>0</v>
+      </c>
+      <c r="AK102">
+        <v>0</v>
+      </c>
+      <c r="AL102">
+        <v>1</v>
+      </c>
+      <c r="AM102">
         <v>2055.21</v>
       </c>
     </row>
-    <row r="103" spans="1:36">
+    <row r="103" spans="1:39">
       <c r="A103" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -12083,15 +13010,24 @@
         <v>1</v>
       </c>
       <c r="AI103">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ103">
+        <v>0</v>
+      </c>
+      <c r="AK103">
+        <v>1</v>
+      </c>
+      <c r="AL103">
+        <v>1</v>
+      </c>
+      <c r="AM103">
         <v>13786.555</v>
       </c>
     </row>
-    <row r="104" spans="1:36">
+    <row r="104" spans="1:39">
       <c r="A104" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -12190,15 +13126,24 @@
         <v>1</v>
       </c>
       <c r="AI104">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ104">
+        <v>0</v>
+      </c>
+      <c r="AK104">
+        <v>0</v>
+      </c>
+      <c r="AL104">
+        <v>1</v>
+      </c>
+      <c r="AM104">
         <v>29029.81</v>
       </c>
     </row>
-    <row r="105" spans="1:36">
+    <row r="105" spans="1:39">
       <c r="A105" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B105">
         <v>0</v>
@@ -12297,15 +13242,24 @@
         <v>1</v>
       </c>
       <c r="AI105">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ105">
+        <v>0</v>
+      </c>
+      <c r="AK105">
+        <v>1</v>
+      </c>
+      <c r="AL105">
+        <v>1</v>
+      </c>
+      <c r="AM105">
         <v>4029.15</v>
       </c>
     </row>
-    <row r="106" spans="1:36">
+    <row r="106" spans="1:39">
       <c r="A106" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B106">
         <v>1</v>
@@ -12404,15 +13358,24 @@
         <v>1</v>
       </c>
       <c r="AI106">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ106">
+        <v>0</v>
+      </c>
+      <c r="AK106">
+        <v>0</v>
+      </c>
+      <c r="AL106">
+        <v>1</v>
+      </c>
+      <c r="AM106">
         <v>974.075</v>
       </c>
     </row>
-    <row r="107" spans="1:36">
+    <row r="107" spans="1:39">
       <c r="A107" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B107">
         <v>0</v>
@@ -12511,15 +13474,24 @@
         <v>1</v>
       </c>
       <c r="AI107">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ107">
+        <v>0</v>
+      </c>
+      <c r="AK107">
+        <v>0</v>
+      </c>
+      <c r="AL107">
+        <v>1</v>
+      </c>
+      <c r="AM107">
         <v>10699.535</v>
       </c>
     </row>
-    <row r="108" spans="1:36">
+    <row r="108" spans="1:39">
       <c r="A108" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -12618,15 +13590,24 @@
         <v>1</v>
       </c>
       <c r="AI108">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ108">
+        <v>0</v>
+      </c>
+      <c r="AK108">
+        <v>1</v>
+      </c>
+      <c r="AL108">
+        <v>1</v>
+      </c>
+      <c r="AM108">
         <v>5219.555</v>
       </c>
     </row>
-    <row r="109" spans="1:36">
+    <row r="109" spans="1:39">
       <c r="A109" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -12725,15 +13706,24 @@
         <v>1</v>
       </c>
       <c r="AI109">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ109">
+        <v>0</v>
+      </c>
+      <c r="AK109">
+        <v>1</v>
+      </c>
+      <c r="AL109">
+        <v>1</v>
+      </c>
+      <c r="AM109">
         <v>14356.13</v>
       </c>
     </row>
-    <row r="110" spans="1:36">
+    <row r="110" spans="1:39">
       <c r="A110" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B110">
         <v>0</v>
@@ -12832,15 +13822,24 @@
         <v>1</v>
       </c>
       <c r="AI110">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ110">
+        <v>0</v>
+      </c>
+      <c r="AK110">
+        <v>0</v>
+      </c>
+      <c r="AL110">
+        <v>1</v>
+      </c>
+      <c r="AM110">
         <v>9117.905000000001</v>
       </c>
     </row>
-    <row r="111" spans="1:36">
+    <row r="111" spans="1:39">
       <c r="A111" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B111">
         <v>1</v>
@@ -12939,15 +13938,24 @@
         <v>1</v>
       </c>
       <c r="AI111">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ111">
+        <v>0</v>
+      </c>
+      <c r="AK111">
+        <v>0</v>
+      </c>
+      <c r="AL111">
+        <v>1</v>
+      </c>
+      <c r="AM111">
         <v>13109.81</v>
       </c>
     </row>
-    <row r="112" spans="1:36">
+    <row r="112" spans="1:39">
       <c r="A112" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B112">
         <v>1</v>
@@ -13046,15 +14054,24 @@
         <v>1</v>
       </c>
       <c r="AI112">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ112">
+        <v>0</v>
+      </c>
+      <c r="AK112">
+        <v>0</v>
+      </c>
+      <c r="AL112">
+        <v>1</v>
+      </c>
+      <c r="AM112">
         <v>1649.775</v>
       </c>
     </row>
-    <row r="113" spans="1:36">
+    <row r="113" spans="1:39">
       <c r="A113" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B113">
         <v>1</v>
@@ -13153,15 +14170,24 @@
         <v>1</v>
       </c>
       <c r="AI113">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ113">
+        <v>0</v>
+      </c>
+      <c r="AK113">
+        <v>0</v>
+      </c>
+      <c r="AL113">
+        <v>1</v>
+      </c>
+      <c r="AM113">
         <v>1874.76</v>
       </c>
     </row>
-    <row r="114" spans="1:36">
+    <row r="114" spans="1:39">
       <c r="A114" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B114">
         <v>0</v>
@@ -13260,15 +14286,24 @@
         <v>1</v>
       </c>
       <c r="AI114">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ114">
+        <v>0</v>
+      </c>
+      <c r="AK114">
+        <v>1</v>
+      </c>
+      <c r="AL114">
+        <v>1</v>
+      </c>
+      <c r="AM114">
         <v>4455.42</v>
       </c>
     </row>
-    <row r="115" spans="1:36">
+    <row r="115" spans="1:39">
       <c r="A115" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B115">
         <v>0</v>
@@ -13367,15 +14402,24 @@
         <v>1</v>
       </c>
       <c r="AI115">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ115">
+        <v>0</v>
+      </c>
+      <c r="AK115">
+        <v>0</v>
+      </c>
+      <c r="AL115">
+        <v>1</v>
+      </c>
+      <c r="AM115">
         <v>3591.245</v>
       </c>
     </row>
-    <row r="116" spans="1:36">
+    <row r="116" spans="1:39">
       <c r="A116" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B116">
         <v>0</v>
@@ -13474,15 +14518,24 @@
         <v>1</v>
       </c>
       <c r="AI116">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ116">
+        <v>0</v>
+      </c>
+      <c r="AK116">
+        <v>1</v>
+      </c>
+      <c r="AL116">
+        <v>1</v>
+      </c>
+      <c r="AM116">
         <v>5057.705</v>
       </c>
     </row>
-    <row r="117" spans="1:36">
+    <row r="117" spans="1:39">
       <c r="A117" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -13581,15 +14634,24 @@
         <v>1</v>
       </c>
       <c r="AI117">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ117">
+        <v>0</v>
+      </c>
+      <c r="AK117">
+        <v>1</v>
+      </c>
+      <c r="AL117">
+        <v>1</v>
+      </c>
+      <c r="AM117">
         <v>25844.88</v>
       </c>
     </row>
-    <row r="118" spans="1:36">
+    <row r="118" spans="1:39">
       <c r="A118" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B118">
         <v>0</v>
@@ -13688,15 +14750,24 @@
         <v>1</v>
       </c>
       <c r="AI118">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ118">
+        <v>0</v>
+      </c>
+      <c r="AK118">
+        <v>1</v>
+      </c>
+      <c r="AL118">
+        <v>1</v>
+      </c>
+      <c r="AM118">
         <v>14848.025</v>
       </c>
     </row>
-    <row r="119" spans="1:36">
+    <row r="119" spans="1:39">
       <c r="A119" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B119">
         <v>1</v>
@@ -13795,15 +14866,24 @@
         <v>1</v>
       </c>
       <c r="AI119">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ119">
+        <v>0</v>
+      </c>
+      <c r="AK119">
+        <v>1</v>
+      </c>
+      <c r="AL119">
+        <v>1</v>
+      </c>
+      <c r="AM119">
         <v>1803.55</v>
       </c>
     </row>
-    <row r="120" spans="1:36">
+    <row r="120" spans="1:39">
       <c r="A120" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B120">
         <v>1</v>
@@ -13902,15 +14982,24 @@
         <v>1</v>
       </c>
       <c r="AI120">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ120">
+        <v>0</v>
+      </c>
+      <c r="AK120">
+        <v>0</v>
+      </c>
+      <c r="AL120">
+        <v>1</v>
+      </c>
+      <c r="AM120">
         <v>9325.684999999999</v>
       </c>
     </row>
-    <row r="121" spans="1:36">
+    <row r="121" spans="1:39">
       <c r="A121" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B121">
         <v>1</v>
@@ -14009,15 +15098,24 @@
         <v>1</v>
       </c>
       <c r="AI121">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ121">
+        <v>0</v>
+      </c>
+      <c r="AK121">
+        <v>0</v>
+      </c>
+      <c r="AL121">
+        <v>1</v>
+      </c>
+      <c r="AM121">
         <v>14118.69</v>
       </c>
     </row>
-    <row r="122" spans="1:36">
+    <row r="122" spans="1:39">
       <c r="A122" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B122">
         <v>1</v>
@@ -14116,15 +15214,24 @@
         <v>1</v>
       </c>
       <c r="AI122">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ122">
+        <v>0</v>
+      </c>
+      <c r="AK122">
+        <v>0</v>
+      </c>
+      <c r="AL122">
+        <v>1</v>
+      </c>
+      <c r="AM122">
         <v>11795.31</v>
       </c>
     </row>
-    <row r="123" spans="1:36">
+    <row r="123" spans="1:39">
       <c r="A123" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B123">
         <v>0</v>
@@ -14223,15 +15330,24 @@
         <v>1</v>
       </c>
       <c r="AI123">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ123">
+        <v>0</v>
+      </c>
+      <c r="AK123">
+        <v>1</v>
+      </c>
+      <c r="AL123">
+        <v>1</v>
+      </c>
+      <c r="AM123">
         <v>1442.665</v>
       </c>
     </row>
-    <row r="124" spans="1:36">
+    <row r="124" spans="1:39">
       <c r="A124" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B124">
         <v>0</v>
@@ -14330,15 +15446,24 @@
         <v>1</v>
       </c>
       <c r="AI124">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ124">
+        <v>0</v>
+      </c>
+      <c r="AK124">
+        <v>1</v>
+      </c>
+      <c r="AL124">
+        <v>1</v>
+      </c>
+      <c r="AM124">
         <v>1415.285</v>
       </c>
     </row>
-    <row r="125" spans="1:36">
+    <row r="125" spans="1:39">
       <c r="A125" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B125">
         <v>1</v>
@@ -14437,15 +15562,24 @@
         <v>1</v>
       </c>
       <c r="AI125">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ125">
+        <v>0</v>
+      </c>
+      <c r="AK125">
+        <v>0</v>
+      </c>
+      <c r="AL125">
+        <v>1</v>
+      </c>
+      <c r="AM125">
         <v>8361.049999999999</v>
       </c>
     </row>
-    <row r="126" spans="1:36">
+    <row r="126" spans="1:39">
       <c r="A126" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B126">
         <v>0</v>
@@ -14544,21 +15678,30 @@
         <v>1</v>
       </c>
       <c r="AI126">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ126">
+        <v>0</v>
+      </c>
+      <c r="AK126">
+        <v>0</v>
+      </c>
+      <c r="AL126">
+        <v>1</v>
+      </c>
+      <c r="AM126">
         <v>1306.055</v>
       </c>
     </row>
-    <row r="127" spans="1:36">
+    <row r="127" spans="1:39">
       <c r="A127" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B127">
         <v>0</v>
       </c>
       <c r="C127" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D127">
         <v>0</v>
@@ -14651,15 +15794,24 @@
         <v>1</v>
       </c>
       <c r="AI127">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ127">
+        <v>0</v>
+      </c>
+      <c r="AK127">
+        <v>0</v>
+      </c>
+      <c r="AL127">
+        <v>1</v>
+      </c>
+      <c r="AM127">
         <v>24985.68</v>
       </c>
     </row>
-    <row r="128" spans="1:36">
+    <row r="128" spans="1:39">
       <c r="A128" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B128">
         <v>0</v>
@@ -14758,15 +15910,24 @@
         <v>1</v>
       </c>
       <c r="AI128">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ128">
+        <v>0</v>
+      </c>
+      <c r="AK128">
+        <v>1</v>
+      </c>
+      <c r="AL128">
+        <v>1</v>
+      </c>
+      <c r="AM128">
         <v>509.885</v>
       </c>
     </row>
-    <row r="129" spans="1:36">
+    <row r="129" spans="1:39">
       <c r="A129" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B129">
         <v>1</v>
@@ -14865,15 +16026,24 @@
         <v>1</v>
       </c>
       <c r="AI129">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ129">
+        <v>0</v>
+      </c>
+      <c r="AK129">
+        <v>0</v>
+      </c>
+      <c r="AL129">
+        <v>1</v>
+      </c>
+      <c r="AM129">
         <v>1255.04</v>
       </c>
     </row>
-    <row r="130" spans="1:36">
+    <row r="130" spans="1:39">
       <c r="A130" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B130">
         <v>0</v>
@@ -14972,15 +16142,24 @@
         <v>1</v>
       </c>
       <c r="AI130">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ130">
+        <v>0</v>
+      </c>
+      <c r="AK130">
+        <v>0</v>
+      </c>
+      <c r="AL130">
+        <v>1</v>
+      </c>
+      <c r="AM130">
         <v>1541.405</v>
       </c>
     </row>
-    <row r="131" spans="1:36">
+    <row r="131" spans="1:39">
       <c r="A131" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B131">
         <v>0</v>
@@ -15079,15 +16258,24 @@
         <v>1</v>
       </c>
       <c r="AI131">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ131">
+        <v>0</v>
+      </c>
+      <c r="AK131">
+        <v>0</v>
+      </c>
+      <c r="AL131">
+        <v>1</v>
+      </c>
+      <c r="AM131">
         <v>2055.21</v>
       </c>
     </row>
-    <row r="132" spans="1:36">
+    <row r="132" spans="1:39">
       <c r="A132" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B132">
         <v>0</v>
@@ -15186,15 +16374,24 @@
         <v>1</v>
       </c>
       <c r="AI132">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ132">
+        <v>0</v>
+      </c>
+      <c r="AK132">
+        <v>1</v>
+      </c>
+      <c r="AL132">
+        <v>1</v>
+      </c>
+      <c r="AM132">
         <v>13786.555</v>
       </c>
     </row>
-    <row r="133" spans="1:36">
+    <row r="133" spans="1:39">
       <c r="A133" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B133">
         <v>1</v>
@@ -15293,15 +16490,24 @@
         <v>1</v>
       </c>
       <c r="AI133">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ133">
+        <v>0</v>
+      </c>
+      <c r="AK133">
+        <v>0</v>
+      </c>
+      <c r="AL133">
+        <v>1</v>
+      </c>
+      <c r="AM133">
         <v>29029.81</v>
       </c>
     </row>
-    <row r="134" spans="1:36">
+    <row r="134" spans="1:39">
       <c r="A134" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B134">
         <v>0</v>
@@ -15400,15 +16606,24 @@
         <v>1</v>
       </c>
       <c r="AI134">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ134">
+        <v>0</v>
+      </c>
+      <c r="AK134">
+        <v>1</v>
+      </c>
+      <c r="AL134">
+        <v>1</v>
+      </c>
+      <c r="AM134">
         <v>4029.15</v>
       </c>
     </row>
-    <row r="135" spans="1:36">
+    <row r="135" spans="1:39">
       <c r="A135" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B135">
         <v>1</v>
@@ -15507,15 +16722,24 @@
         <v>1</v>
       </c>
       <c r="AI135">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ135">
+        <v>0</v>
+      </c>
+      <c r="AK135">
+        <v>0</v>
+      </c>
+      <c r="AL135">
+        <v>1</v>
+      </c>
+      <c r="AM135">
         <v>974.075</v>
       </c>
     </row>
-    <row r="136" spans="1:36">
+    <row r="136" spans="1:39">
       <c r="A136" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B136">
         <v>0</v>
@@ -15614,15 +16838,24 @@
         <v>0.9732609788056684</v>
       </c>
       <c r="AI136">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ136">
+        <v>0</v>
+      </c>
+      <c r="AK136">
+        <v>1</v>
+      </c>
+      <c r="AL136">
+        <v>1</v>
+      </c>
+      <c r="AM136">
         <v>82.77500000000001</v>
       </c>
     </row>
-    <row r="137" spans="1:36">
+    <row r="137" spans="1:39">
       <c r="A137" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B137">
         <v>0</v>
@@ -15721,15 +16954,24 @@
         <v>0.9732609788056684</v>
       </c>
       <c r="AI137">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ137">
+        <v>0</v>
+      </c>
+      <c r="AK137">
+        <v>0</v>
+      </c>
+      <c r="AL137">
+        <v>1</v>
+      </c>
+      <c r="AM137">
         <v>1244.655</v>
       </c>
     </row>
-    <row r="138" spans="1:36">
+    <row r="138" spans="1:39">
       <c r="A138" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B138">
         <v>0</v>
@@ -15828,15 +17070,24 @@
         <v>0.9732609788056684</v>
       </c>
       <c r="AI138">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ138">
+        <v>0</v>
+      </c>
+      <c r="AK138">
+        <v>1</v>
+      </c>
+      <c r="AL138">
+        <v>1</v>
+      </c>
+      <c r="AM138">
         <v>8958.885</v>
       </c>
     </row>
-    <row r="139" spans="1:36">
+    <row r="139" spans="1:39">
       <c r="A139" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B139">
         <v>0</v>
@@ -15935,15 +17186,24 @@
         <v>0.9732609788056684</v>
       </c>
       <c r="AI139">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ139">
+        <v>0</v>
+      </c>
+      <c r="AK139">
+        <v>0</v>
+      </c>
+      <c r="AL139">
+        <v>1</v>
+      </c>
+      <c r="AM139">
         <v>73.79000000000001</v>
       </c>
     </row>
-    <row r="140" spans="1:36">
+    <row r="140" spans="1:39">
       <c r="A140" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B140">
         <v>0</v>
@@ -16042,15 +17302,24 @@
         <v>0.9732609788056684</v>
       </c>
       <c r="AI140">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ140">
+        <v>0</v>
+      </c>
+      <c r="AK140">
+        <v>1</v>
+      </c>
+      <c r="AL140">
+        <v>1</v>
+      </c>
+      <c r="AM140">
         <v>5657.14</v>
       </c>
     </row>
-    <row r="141" spans="1:36">
+    <row r="141" spans="1:39">
       <c r="A141" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B141">
         <v>1</v>
@@ -16149,15 +17418,24 @@
         <v>0.9732609788056684</v>
       </c>
       <c r="AI141">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ141">
+        <v>0</v>
+      </c>
+      <c r="AK141">
+        <v>0</v>
+      </c>
+      <c r="AL141">
+        <v>1</v>
+      </c>
+      <c r="AM141">
         <v>57.915</v>
       </c>
     </row>
-    <row r="142" spans="1:36">
+    <row r="142" spans="1:39">
       <c r="A142" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B142">
         <v>1</v>
@@ -16256,15 +17534,24 @@
         <v>0.9732609788056684</v>
       </c>
       <c r="AI142">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ142">
+        <v>0</v>
+      </c>
+      <c r="AK142">
+        <v>0</v>
+      </c>
+      <c r="AL142">
+        <v>1</v>
+      </c>
+      <c r="AM142">
         <v>131.965</v>
       </c>
     </row>
-    <row r="143" spans="1:36">
+    <row r="143" spans="1:39">
       <c r="A143" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -16363,15 +17650,24 @@
         <v>0.9732609788056684</v>
       </c>
       <c r="AI143">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ143">
+        <v>0</v>
+      </c>
+      <c r="AK143">
+        <v>1</v>
+      </c>
+      <c r="AL143">
+        <v>1</v>
+      </c>
+      <c r="AM143">
         <v>140.605</v>
       </c>
     </row>
-    <row r="144" spans="1:36">
+    <row r="144" spans="1:39">
       <c r="A144" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B144">
         <v>1</v>
@@ -16470,15 +17766,24 @@
         <v>0.9732609788056684</v>
       </c>
       <c r="AI144">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ144">
+        <v>0</v>
+      </c>
+      <c r="AK144">
+        <v>0</v>
+      </c>
+      <c r="AL144">
+        <v>1</v>
+      </c>
+      <c r="AM144">
         <v>13.66</v>
       </c>
     </row>
-    <row r="145" spans="1:36">
+    <row r="145" spans="1:39">
       <c r="A145" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B145">
         <v>0</v>
@@ -16577,15 +17882,24 @@
         <v>0.9732609788056684</v>
       </c>
       <c r="AI145">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ145">
+        <v>0</v>
+      </c>
+      <c r="AK145">
+        <v>1</v>
+      </c>
+      <c r="AL145">
+        <v>1</v>
+      </c>
+      <c r="AM145">
         <v>2179.62</v>
       </c>
     </row>
-    <row r="146" spans="1:36">
+    <row r="146" spans="1:39">
       <c r="A146" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -16684,15 +17998,24 @@
         <v>0.9732609788056684</v>
       </c>
       <c r="AI146">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ146">
+        <v>0</v>
+      </c>
+      <c r="AK146">
+        <v>0</v>
+      </c>
+      <c r="AL146">
+        <v>1</v>
+      </c>
+      <c r="AM146">
         <v>6816.35</v>
       </c>
     </row>
-    <row r="147" spans="1:36">
+    <row r="147" spans="1:39">
       <c r="A147" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B147">
         <v>1</v>
@@ -16791,15 +18114,24 @@
         <v>0.9732609788056684</v>
       </c>
       <c r="AI147">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ147">
+        <v>0</v>
+      </c>
+      <c r="AK147">
+        <v>0</v>
+      </c>
+      <c r="AL147">
+        <v>1</v>
+      </c>
+      <c r="AM147">
         <v>446.98</v>
       </c>
     </row>
-    <row r="148" spans="1:36">
+    <row r="148" spans="1:39">
       <c r="A148" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B148">
         <v>1</v>
@@ -16898,15 +18230,24 @@
         <v>0.9732609788056684</v>
       </c>
       <c r="AI148">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ148">
+        <v>0</v>
+      </c>
+      <c r="AK148">
+        <v>0</v>
+      </c>
+      <c r="AL148">
+        <v>1</v>
+      </c>
+      <c r="AM148">
         <v>845.8150000000001</v>
       </c>
     </row>
-    <row r="149" spans="1:36">
+    <row r="149" spans="1:39">
       <c r="A149" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B149">
         <v>0</v>
@@ -17005,15 +18346,24 @@
         <v>0.9732609788056684</v>
       </c>
       <c r="AI149">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ149">
+        <v>0</v>
+      </c>
+      <c r="AK149">
+        <v>1</v>
+      </c>
+      <c r="AL149">
+        <v>1</v>
+      </c>
+      <c r="AM149">
         <v>823.1799999999999</v>
       </c>
     </row>
-    <row r="150" spans="1:36">
+    <row r="150" spans="1:39">
       <c r="A150" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B150">
         <v>0</v>
@@ -17112,15 +18462,24 @@
         <v>0.9732609788056684</v>
       </c>
       <c r="AI150">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ150">
+        <v>0</v>
+      </c>
+      <c r="AK150">
+        <v>1</v>
+      </c>
+      <c r="AL150">
+        <v>1</v>
+      </c>
+      <c r="AM150">
         <v>4713.25</v>
       </c>
     </row>
-    <row r="151" spans="1:36">
+    <row r="151" spans="1:39">
       <c r="A151" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B151">
         <v>1</v>
@@ -17219,15 +18578,24 @@
         <v>0.9732609788056684</v>
       </c>
       <c r="AI151">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ151">
+        <v>0</v>
+      </c>
+      <c r="AK151">
+        <v>0</v>
+      </c>
+      <c r="AL151">
+        <v>1</v>
+      </c>
+      <c r="AM151">
         <v>350.41</v>
       </c>
     </row>
-    <row r="152" spans="1:36">
+    <row r="152" spans="1:39">
       <c r="A152" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B152">
         <v>1</v>
@@ -17326,15 +18694,24 @@
         <v>0.9732609788056684</v>
       </c>
       <c r="AI152">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ152">
+        <v>0</v>
+      </c>
+      <c r="AK152">
+        <v>0</v>
+      </c>
+      <c r="AL152">
+        <v>1</v>
+      </c>
+      <c r="AM152">
         <v>237.755</v>
       </c>
     </row>
-    <row r="153" spans="1:36">
+    <row r="153" spans="1:39">
       <c r="A153" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -17433,15 +18810,24 @@
         <v>0.9732609788056684</v>
       </c>
       <c r="AI153">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ153">
+        <v>0</v>
+      </c>
+      <c r="AK153">
+        <v>1</v>
+      </c>
+      <c r="AL153">
+        <v>1</v>
+      </c>
+      <c r="AM153">
         <v>12638.8</v>
       </c>
     </row>
-    <row r="154" spans="1:36">
+    <row r="154" spans="1:39">
       <c r="A154" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B154">
         <v>0</v>
@@ -17540,15 +18926,24 @@
         <v>0.9732609788056684</v>
       </c>
       <c r="AI154">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ154">
+        <v>0</v>
+      </c>
+      <c r="AK154">
+        <v>1</v>
+      </c>
+      <c r="AL154">
+        <v>1</v>
+      </c>
+      <c r="AM154">
         <v>4669.505</v>
       </c>
     </row>
-    <row r="155" spans="1:36">
+    <row r="155" spans="1:39">
       <c r="A155" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B155">
         <v>0</v>
@@ -17647,15 +19042,24 @@
         <v>0.9732609788056684</v>
       </c>
       <c r="AI155">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ155">
+        <v>0</v>
+      </c>
+      <c r="AK155">
+        <v>1</v>
+      </c>
+      <c r="AL155">
+        <v>1</v>
+      </c>
+      <c r="AM155">
         <v>14755.79</v>
       </c>
     </row>
-    <row r="156" spans="1:36">
+    <row r="156" spans="1:39">
       <c r="A156" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B156">
         <v>0</v>
@@ -17754,15 +19158,24 @@
         <v>0.9732609788056684</v>
       </c>
       <c r="AI156">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ156">
+        <v>0</v>
+      </c>
+      <c r="AK156">
+        <v>0</v>
+      </c>
+      <c r="AL156">
+        <v>1</v>
+      </c>
+      <c r="AM156">
         <v>10152.33</v>
       </c>
     </row>
-    <row r="157" spans="1:36">
+    <row r="157" spans="1:39">
       <c r="A157" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B157">
         <v>1</v>
@@ -17861,21 +19274,30 @@
         <v>0.9732609788056684</v>
       </c>
       <c r="AI157">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ157">
+        <v>0</v>
+      </c>
+      <c r="AK157">
+        <v>0</v>
+      </c>
+      <c r="AL157">
+        <v>1</v>
+      </c>
+      <c r="AM157">
         <v>5859.145</v>
       </c>
     </row>
-    <row r="158" spans="1:36">
+    <row r="158" spans="1:39">
       <c r="A158" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B158">
         <v>0</v>
       </c>
       <c r="C158" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D158">
         <v>0</v>
@@ -17968,15 +19390,24 @@
         <v>0.9732609788056684</v>
       </c>
       <c r="AI158">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ158">
+        <v>0</v>
+      </c>
+      <c r="AK158">
+        <v>0</v>
+      </c>
+      <c r="AL158">
+        <v>1</v>
+      </c>
+      <c r="AM158">
         <v>1042.335</v>
       </c>
     </row>
-    <row r="159" spans="1:36">
+    <row r="159" spans="1:39">
       <c r="A159" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B159">
         <v>1</v>
@@ -18075,15 +19506,24 @@
         <v>0.9732609788056684</v>
       </c>
       <c r="AI159">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ159">
+        <v>0</v>
+      </c>
+      <c r="AK159">
+        <v>0</v>
+      </c>
+      <c r="AL159">
+        <v>1</v>
+      </c>
+      <c r="AM159">
         <v>14.92</v>
       </c>
     </row>
-    <row r="160" spans="1:36">
+    <row r="160" spans="1:39">
       <c r="A160" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B160">
         <v>0</v>
@@ -18182,15 +19622,24 @@
         <v>0.8009491950548848</v>
       </c>
       <c r="AI160">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ160">
+        <v>0</v>
+      </c>
+      <c r="AK160">
+        <v>1</v>
+      </c>
+      <c r="AL160">
+        <v>1</v>
+      </c>
+      <c r="AM160">
         <v>82.77500000000001</v>
       </c>
     </row>
-    <row r="161" spans="1:36">
+    <row r="161" spans="1:39">
       <c r="A161" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B161">
         <v>0</v>
@@ -18289,15 +19738,24 @@
         <v>0.8009491950548848</v>
       </c>
       <c r="AI161">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ161">
+        <v>0</v>
+      </c>
+      <c r="AK161">
+        <v>0</v>
+      </c>
+      <c r="AL161">
+        <v>1</v>
+      </c>
+      <c r="AM161">
         <v>1244.655</v>
       </c>
     </row>
-    <row r="162" spans="1:36">
+    <row r="162" spans="1:39">
       <c r="A162" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B162">
         <v>0</v>
@@ -18396,15 +19854,24 @@
         <v>0.8009491950548848</v>
       </c>
       <c r="AI162">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ162">
+        <v>0</v>
+      </c>
+      <c r="AK162">
+        <v>1</v>
+      </c>
+      <c r="AL162">
+        <v>1</v>
+      </c>
+      <c r="AM162">
         <v>8958.885</v>
       </c>
     </row>
-    <row r="163" spans="1:36">
+    <row r="163" spans="1:39">
       <c r="A163" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B163">
         <v>0</v>
@@ -18503,15 +19970,24 @@
         <v>0.8009491950548848</v>
       </c>
       <c r="AI163">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ163">
+        <v>0</v>
+      </c>
+      <c r="AK163">
+        <v>0</v>
+      </c>
+      <c r="AL163">
+        <v>1</v>
+      </c>
+      <c r="AM163">
         <v>73.79000000000001</v>
       </c>
     </row>
-    <row r="164" spans="1:36">
+    <row r="164" spans="1:39">
       <c r="A164" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B164">
         <v>0</v>
@@ -18610,15 +20086,24 @@
         <v>0.8009491950548848</v>
       </c>
       <c r="AI164">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ164">
+        <v>0</v>
+      </c>
+      <c r="AK164">
+        <v>1</v>
+      </c>
+      <c r="AL164">
+        <v>1</v>
+      </c>
+      <c r="AM164">
         <v>5657.14</v>
       </c>
     </row>
-    <row r="165" spans="1:36">
+    <row r="165" spans="1:39">
       <c r="A165" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B165">
         <v>0</v>
@@ -18717,15 +20202,24 @@
         <v>0.8009491950548848</v>
       </c>
       <c r="AI165">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ165">
+        <v>0</v>
+      </c>
+      <c r="AK165">
+        <v>0</v>
+      </c>
+      <c r="AL165">
+        <v>1</v>
+      </c>
+      <c r="AM165">
         <v>57.915</v>
       </c>
     </row>
-    <row r="166" spans="1:36">
+    <row r="166" spans="1:39">
       <c r="A166" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B166">
         <v>0</v>
@@ -18824,15 +20318,24 @@
         <v>0.8009491950548848</v>
       </c>
       <c r="AI166">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ166">
+        <v>0</v>
+      </c>
+      <c r="AK166">
+        <v>0</v>
+      </c>
+      <c r="AL166">
+        <v>1</v>
+      </c>
+      <c r="AM166">
         <v>131.965</v>
       </c>
     </row>
-    <row r="167" spans="1:36">
+    <row r="167" spans="1:39">
       <c r="A167" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B167">
         <v>0</v>
@@ -18931,15 +20434,24 @@
         <v>0.8009491950548848</v>
       </c>
       <c r="AI167">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ167">
+        <v>0</v>
+      </c>
+      <c r="AK167">
+        <v>1</v>
+      </c>
+      <c r="AL167">
+        <v>1</v>
+      </c>
+      <c r="AM167">
         <v>140.605</v>
       </c>
     </row>
-    <row r="168" spans="1:36">
+    <row r="168" spans="1:39">
       <c r="A168" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B168">
         <v>0</v>
@@ -19038,15 +20550,24 @@
         <v>0.8009491950548848</v>
       </c>
       <c r="AI168">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ168">
+        <v>0</v>
+      </c>
+      <c r="AK168">
+        <v>0</v>
+      </c>
+      <c r="AL168">
+        <v>1</v>
+      </c>
+      <c r="AM168">
         <v>13.66</v>
       </c>
     </row>
-    <row r="169" spans="1:36">
+    <row r="169" spans="1:39">
       <c r="A169" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B169">
         <v>0</v>
@@ -19145,15 +20666,24 @@
         <v>0.8009491950548848</v>
       </c>
       <c r="AI169">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ169">
+        <v>0</v>
+      </c>
+      <c r="AK169">
+        <v>1</v>
+      </c>
+      <c r="AL169">
+        <v>1</v>
+      </c>
+      <c r="AM169">
         <v>2179.62</v>
       </c>
     </row>
-    <row r="170" spans="1:36">
+    <row r="170" spans="1:39">
       <c r="A170" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B170">
         <v>0</v>
@@ -19252,15 +20782,24 @@
         <v>0.8009491950548848</v>
       </c>
       <c r="AI170">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ170">
+        <v>0</v>
+      </c>
+      <c r="AK170">
+        <v>0</v>
+      </c>
+      <c r="AL170">
+        <v>1</v>
+      </c>
+      <c r="AM170">
         <v>6816.35</v>
       </c>
     </row>
-    <row r="171" spans="1:36">
+    <row r="171" spans="1:39">
       <c r="A171" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B171">
         <v>0</v>
@@ -19359,15 +20898,24 @@
         <v>0.8009491950548848</v>
       </c>
       <c r="AI171">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ171">
+        <v>0</v>
+      </c>
+      <c r="AK171">
+        <v>0</v>
+      </c>
+      <c r="AL171">
+        <v>1</v>
+      </c>
+      <c r="AM171">
         <v>446.98</v>
       </c>
     </row>
-    <row r="172" spans="1:36">
+    <row r="172" spans="1:39">
       <c r="A172" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B172">
         <v>0</v>
@@ -19466,15 +21014,24 @@
         <v>0.8009491950548848</v>
       </c>
       <c r="AI172">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ172">
+        <v>0</v>
+      </c>
+      <c r="AK172">
+        <v>0</v>
+      </c>
+      <c r="AL172">
+        <v>1</v>
+      </c>
+      <c r="AM172">
         <v>845.8150000000001</v>
       </c>
     </row>
-    <row r="173" spans="1:36">
+    <row r="173" spans="1:39">
       <c r="A173" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B173">
         <v>0</v>
@@ -19573,15 +21130,24 @@
         <v>0.8009491950548848</v>
       </c>
       <c r="AI173">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ173">
+        <v>0</v>
+      </c>
+      <c r="AK173">
+        <v>1</v>
+      </c>
+      <c r="AL173">
+        <v>1</v>
+      </c>
+      <c r="AM173">
         <v>823.1799999999999</v>
       </c>
     </row>
-    <row r="174" spans="1:36">
+    <row r="174" spans="1:39">
       <c r="A174" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B174">
         <v>0</v>
@@ -19680,15 +21246,24 @@
         <v>0.8009491950548848</v>
       </c>
       <c r="AI174">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ174">
+        <v>0</v>
+      </c>
+      <c r="AK174">
+        <v>1</v>
+      </c>
+      <c r="AL174">
+        <v>1</v>
+      </c>
+      <c r="AM174">
         <v>4713.25</v>
       </c>
     </row>
-    <row r="175" spans="1:36">
+    <row r="175" spans="1:39">
       <c r="A175" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B175">
         <v>0</v>
@@ -19787,15 +21362,24 @@
         <v>0.8009491950548848</v>
       </c>
       <c r="AI175">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ175">
+        <v>0</v>
+      </c>
+      <c r="AK175">
+        <v>0</v>
+      </c>
+      <c r="AL175">
+        <v>1</v>
+      </c>
+      <c r="AM175">
         <v>350.41</v>
       </c>
     </row>
-    <row r="176" spans="1:36">
+    <row r="176" spans="1:39">
       <c r="A176" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B176">
         <v>0</v>
@@ -19894,15 +21478,24 @@
         <v>0.8009491950548848</v>
       </c>
       <c r="AI176">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ176">
+        <v>0</v>
+      </c>
+      <c r="AK176">
+        <v>0</v>
+      </c>
+      <c r="AL176">
+        <v>1</v>
+      </c>
+      <c r="AM176">
         <v>237.755</v>
       </c>
     </row>
-    <row r="177" spans="1:36">
+    <row r="177" spans="1:39">
       <c r="A177" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B177">
         <v>0</v>
@@ -20001,15 +21594,24 @@
         <v>0.8009491950548848</v>
       </c>
       <c r="AI177">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ177">
+        <v>0</v>
+      </c>
+      <c r="AK177">
+        <v>1</v>
+      </c>
+      <c r="AL177">
+        <v>1</v>
+      </c>
+      <c r="AM177">
         <v>12638.8</v>
       </c>
     </row>
-    <row r="178" spans="1:36">
+    <row r="178" spans="1:39">
       <c r="A178" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B178">
         <v>0</v>
@@ -20108,15 +21710,24 @@
         <v>0.8009491950548848</v>
       </c>
       <c r="AI178">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ178">
+        <v>0</v>
+      </c>
+      <c r="AK178">
+        <v>1</v>
+      </c>
+      <c r="AL178">
+        <v>1</v>
+      </c>
+      <c r="AM178">
         <v>4669.505</v>
       </c>
     </row>
-    <row r="179" spans="1:36">
+    <row r="179" spans="1:39">
       <c r="A179" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B179">
         <v>0</v>
@@ -20215,15 +21826,24 @@
         <v>0.8009491950548848</v>
       </c>
       <c r="AI179">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ179">
+        <v>0</v>
+      </c>
+      <c r="AK179">
+        <v>1</v>
+      </c>
+      <c r="AL179">
+        <v>1</v>
+      </c>
+      <c r="AM179">
         <v>14755.79</v>
       </c>
     </row>
-    <row r="180" spans="1:36">
+    <row r="180" spans="1:39">
       <c r="A180" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B180">
         <v>0</v>
@@ -20322,15 +21942,24 @@
         <v>0.8009491950548848</v>
       </c>
       <c r="AI180">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ180">
+        <v>0</v>
+      </c>
+      <c r="AK180">
+        <v>0</v>
+      </c>
+      <c r="AL180">
+        <v>1</v>
+      </c>
+      <c r="AM180">
         <v>10152.33</v>
       </c>
     </row>
-    <row r="181" spans="1:36">
+    <row r="181" spans="1:39">
       <c r="A181" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B181">
         <v>0</v>
@@ -20429,21 +22058,30 @@
         <v>0.8009491950548848</v>
       </c>
       <c r="AI181">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ181">
+        <v>0</v>
+      </c>
+      <c r="AK181">
+        <v>0</v>
+      </c>
+      <c r="AL181">
+        <v>1</v>
+      </c>
+      <c r="AM181">
         <v>5859.145</v>
       </c>
     </row>
-    <row r="182" spans="1:36">
+    <row r="182" spans="1:39">
       <c r="A182" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B182">
         <v>0</v>
       </c>
       <c r="C182" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D182">
         <v>0</v>
@@ -20536,15 +22174,24 @@
         <v>0.8009491950548848</v>
       </c>
       <c r="AI182">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ182">
+        <v>0</v>
+      </c>
+      <c r="AK182">
+        <v>0</v>
+      </c>
+      <c r="AL182">
+        <v>1</v>
+      </c>
+      <c r="AM182">
         <v>1042.335</v>
       </c>
     </row>
-    <row r="183" spans="1:36">
+    <row r="183" spans="1:39">
       <c r="A183" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B183">
         <v>0</v>
@@ -20643,15 +22290,24 @@
         <v>0.8009491950548848</v>
       </c>
       <c r="AI183">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ183">
+        <v>0</v>
+      </c>
+      <c r="AK183">
+        <v>0</v>
+      </c>
+      <c r="AL183">
+        <v>1</v>
+      </c>
+      <c r="AM183">
         <v>14.92</v>
       </c>
     </row>
-    <row r="184" spans="1:36">
+    <row r="184" spans="1:39">
       <c r="A184" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B184">
         <v>1</v>
@@ -20750,15 +22406,24 @@
         <v>0.8372675682891155</v>
       </c>
       <c r="AI184">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ184">
+        <v>0</v>
+      </c>
+      <c r="AK184">
+        <v>0</v>
+      </c>
+      <c r="AL184">
+        <v>1</v>
+      </c>
+      <c r="AM184">
         <v>2570</v>
       </c>
     </row>
-    <row r="185" spans="1:36">
+    <row r="185" spans="1:39">
       <c r="A185" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B185">
         <v>0</v>
@@ -20857,15 +22522,24 @@
         <v>0.8372675682891155</v>
       </c>
       <c r="AI185">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ185">
+        <v>0</v>
+      </c>
+      <c r="AK185">
+        <v>0</v>
+      </c>
+      <c r="AL185">
+        <v>1</v>
+      </c>
+      <c r="AM185">
         <v>6054</v>
       </c>
     </row>
-    <row r="186" spans="1:36">
+    <row r="186" spans="1:39">
       <c r="A186" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B186">
         <v>0</v>
@@ -20964,21 +22638,30 @@
         <v>0.8372675682891155</v>
       </c>
       <c r="AI186">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ186">
+        <v>0</v>
+      </c>
+      <c r="AK186">
+        <v>1</v>
+      </c>
+      <c r="AL186">
+        <v>1</v>
+      </c>
+      <c r="AM186">
         <v>19138</v>
       </c>
     </row>
-    <row r="187" spans="1:36">
+    <row r="187" spans="1:39">
       <c r="A187" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B187">
         <v>0</v>
       </c>
       <c r="C187" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D187">
         <v>0</v>
@@ -21071,15 +22754,24 @@
         <v>0.8372675682891155</v>
       </c>
       <c r="AI187">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ187">
+        <v>0</v>
+      </c>
+      <c r="AK187">
+        <v>1</v>
+      </c>
+      <c r="AL187">
+        <v>1</v>
+      </c>
+      <c r="AM187">
         <v>19431</v>
       </c>
     </row>
-    <row r="188" spans="1:36">
+    <row r="188" spans="1:39">
       <c r="A188" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B188">
         <v>0</v>
@@ -21178,15 +22870,24 @@
         <v>0.8372675682891155</v>
       </c>
       <c r="AI188">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ188">
+        <v>0</v>
+      </c>
+      <c r="AK188">
+        <v>1</v>
+      </c>
+      <c r="AL188">
+        <v>1</v>
+      </c>
+      <c r="AM188">
         <v>45934</v>
       </c>
     </row>
-    <row r="189" spans="1:36">
+    <row r="189" spans="1:39">
       <c r="A189" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B189">
         <v>0</v>
@@ -21285,15 +22986,24 @@
         <v>0.8372675682891155</v>
       </c>
       <c r="AI189">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ189">
+        <v>0</v>
+      </c>
+      <c r="AK189">
+        <v>1</v>
+      </c>
+      <c r="AL189">
+        <v>1</v>
+      </c>
+      <c r="AM189">
         <v>73316</v>
       </c>
     </row>
-    <row r="190" spans="1:36">
+    <row r="190" spans="1:39">
       <c r="A190" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B190">
         <v>0</v>
@@ -21392,15 +23102,24 @@
         <v>0.8372675682891155</v>
       </c>
       <c r="AI190">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ190">
+        <v>0</v>
+      </c>
+      <c r="AK190">
+        <v>1</v>
+      </c>
+      <c r="AL190">
+        <v>1</v>
+      </c>
+      <c r="AM190">
         <v>33313</v>
       </c>
     </row>
-    <row r="191" spans="1:36">
+    <row r="191" spans="1:39">
       <c r="A191" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B191">
         <v>1</v>
@@ -21499,15 +23218,24 @@
         <v>0.8372675682891155</v>
       </c>
       <c r="AI191">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ191">
+        <v>0</v>
+      </c>
+      <c r="AK191">
+        <v>0</v>
+      </c>
+      <c r="AL191">
+        <v>1</v>
+      </c>
+      <c r="AM191">
         <v>21078</v>
       </c>
     </row>
-    <row r="192" spans="1:36">
+    <row r="192" spans="1:39">
       <c r="A192" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B192">
         <v>0</v>
@@ -21606,15 +23334,24 @@
         <v>0.8372675682891155</v>
       </c>
       <c r="AI192">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ192">
+        <v>0</v>
+      </c>
+      <c r="AK192">
+        <v>1</v>
+      </c>
+      <c r="AL192">
+        <v>1</v>
+      </c>
+      <c r="AM192">
         <v>9122</v>
       </c>
     </row>
-    <row r="193" spans="1:36">
+    <row r="193" spans="1:39">
       <c r="A193" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B193">
         <v>0</v>
@@ -21713,15 +23450,24 @@
         <v>0.8372675682891155</v>
       </c>
       <c r="AI193">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ193">
+        <v>0</v>
+      </c>
+      <c r="AK193">
+        <v>0</v>
+      </c>
+      <c r="AL193">
+        <v>1</v>
+      </c>
+      <c r="AM193">
         <v>6370</v>
       </c>
     </row>
-    <row r="194" spans="1:36">
+    <row r="194" spans="1:39">
       <c r="A194" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B194">
         <v>1</v>
@@ -21820,15 +23566,24 @@
         <v>0.8372675682891155</v>
       </c>
       <c r="AI194">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ194">
+        <v>0</v>
+      </c>
+      <c r="AK194">
+        <v>0</v>
+      </c>
+      <c r="AL194">
+        <v>1</v>
+      </c>
+      <c r="AM194">
         <v>32000</v>
       </c>
     </row>
-    <row r="195" spans="1:36">
+    <row r="195" spans="1:39">
       <c r="A195" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B195">
         <v>0</v>
@@ -21927,15 +23682,24 @@
         <v>0.8372675682891155</v>
       </c>
       <c r="AI195">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ195">
+        <v>0</v>
+      </c>
+      <c r="AK195">
+        <v>1</v>
+      </c>
+      <c r="AL195">
+        <v>1</v>
+      </c>
+      <c r="AM195">
         <v>33643</v>
       </c>
     </row>
-    <row r="196" spans="1:36">
+    <row r="196" spans="1:39">
       <c r="A196" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B196">
         <v>0</v>
@@ -22034,21 +23798,30 @@
         <v>0.8372675682891155</v>
       </c>
       <c r="AI196">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ196">
+        <v>0</v>
+      </c>
+      <c r="AK196">
+        <v>0</v>
+      </c>
+      <c r="AL196">
+        <v>1</v>
+      </c>
+      <c r="AM196">
         <v>3141</v>
       </c>
     </row>
-    <row r="197" spans="1:36">
+    <row r="197" spans="1:39">
       <c r="A197" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B197">
         <v>0</v>
       </c>
       <c r="C197" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D197">
         <v>0</v>
@@ -22141,15 +23914,24 @@
         <v>0.8372675682891155</v>
       </c>
       <c r="AI197">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ197">
+        <v>0</v>
+      </c>
+      <c r="AK197">
+        <v>0</v>
+      </c>
+      <c r="AL197">
+        <v>1</v>
+      </c>
+      <c r="AM197">
         <v>24878</v>
       </c>
     </row>
-    <row r="198" spans="1:36">
+    <row r="198" spans="1:39">
       <c r="A198" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B198">
         <v>0</v>
@@ -22248,9 +24030,18 @@
         <v>0.8372675682891155</v>
       </c>
       <c r="AI198">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ198">
+        <v>0</v>
+      </c>
+      <c r="AK198">
+        <v>0</v>
+      </c>
+      <c r="AL198">
+        <v>1</v>
+      </c>
+      <c r="AM198">
         <v>16290</v>
       </c>
     </row>

--- a/output/farmaceuticos sin fronteras.xlsx
+++ b/output/farmaceuticos sin fronteras.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="239">
   <si>
     <t>Pais-Año</t>
   </si>
@@ -61,10 +61,10 @@
     <t>Private_Funds_Cuotas</t>
   </si>
   <si>
-    <t>Public_Funds_Donations</t>
+    <t>Private_Funds_Donations</t>
   </si>
   <si>
-    <t>Public_Funds_Companies</t>
+    <t>Private_Funds_Companies</t>
   </si>
   <si>
     <t>Fondos_Privados_Venta</t>
@@ -118,6 +118,9 @@
     <t>Proporcion_Fondos_Privados</t>
   </si>
   <si>
+    <t>Proporcion_Fondos_MAE</t>
+  </si>
+  <si>
     <t>Anyo_ONG</t>
   </si>
   <si>
@@ -125,6 +128,9 @@
   </si>
   <si>
     <t>Colony</t>
+  </si>
+  <si>
+    <t>Delegacion</t>
   </si>
   <si>
     <t>Visitado</t>
@@ -1065,7 +1071,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM198"/>
+  <dimension ref="A1:AO198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1074,7 +1080,7 @@
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1192,10 +1198,16 @@
       <c r="AM1" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="2" spans="1:39">
+    <row r="2" spans="1:41">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1294,24 +1306,30 @@
         <v>0.3301409296564389</v>
       </c>
       <c r="AI2">
+        <v>0.2640879128494008</v>
+      </c>
+      <c r="AJ2">
         <v>1990</v>
       </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
       <c r="AK2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL2">
         <v>1</v>
       </c>
       <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>1</v>
+      </c>
+      <c r="AO2">
         <v>13645.95833333333</v>
       </c>
     </row>
-    <row r="3" spans="1:39">
+    <row r="3" spans="1:41">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1410,24 +1428,30 @@
         <v>0.3301409296564389</v>
       </c>
       <c r="AI3">
+        <v>0.2640879128494008</v>
+      </c>
+      <c r="AJ3">
         <v>1990</v>
       </c>
-      <c r="AJ3">
-        <v>0</v>
-      </c>
       <c r="AK3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL3">
         <v>1</v>
       </c>
       <c r="AM3">
+        <v>1</v>
+      </c>
+      <c r="AN3">
+        <v>1</v>
+      </c>
+      <c r="AO3">
         <v>13645.95833333333</v>
       </c>
     </row>
-    <row r="4" spans="1:39">
+    <row r="4" spans="1:41">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1526,24 +1550,30 @@
         <v>0.3301409296564389</v>
       </c>
       <c r="AI4">
+        <v>0.2640879128494008</v>
+      </c>
+      <c r="AJ4">
         <v>1990</v>
       </c>
-      <c r="AJ4">
-        <v>0</v>
-      </c>
       <c r="AK4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL4">
         <v>1</v>
       </c>
       <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>1</v>
+      </c>
+      <c r="AO4">
         <v>133400</v>
       </c>
     </row>
-    <row r="5" spans="1:39">
+    <row r="5" spans="1:41">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1642,24 +1672,30 @@
         <v>0.3301409296564389</v>
       </c>
       <c r="AI5">
+        <v>0.2640879128494008</v>
+      </c>
+      <c r="AJ5">
         <v>1990</v>
       </c>
-      <c r="AJ5">
-        <v>0</v>
-      </c>
       <c r="AK5">
         <v>0</v>
       </c>
       <c r="AL5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>1</v>
+      </c>
+      <c r="AO5">
         <v>13645.95833333333</v>
       </c>
     </row>
-    <row r="6" spans="1:39">
+    <row r="6" spans="1:41">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1758,24 +1794,30 @@
         <v>0.3301409296564389</v>
       </c>
       <c r="AI6">
+        <v>0.2640879128494008</v>
+      </c>
+      <c r="AJ6">
         <v>1990</v>
       </c>
-      <c r="AJ6">
-        <v>0</v>
-      </c>
       <c r="AK6">
         <v>0</v>
       </c>
       <c r="AL6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>1</v>
+      </c>
+      <c r="AO6">
         <v>13645.95833333333</v>
       </c>
     </row>
-    <row r="7" spans="1:39">
+    <row r="7" spans="1:41">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1874,24 +1916,30 @@
         <v>0.3301409296564389</v>
       </c>
       <c r="AI7">
+        <v>0.2640879128494008</v>
+      </c>
+      <c r="AJ7">
         <v>1990</v>
       </c>
-      <c r="AJ7">
-        <v>0</v>
-      </c>
       <c r="AK7">
         <v>0</v>
       </c>
       <c r="AL7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <v>1</v>
+      </c>
+      <c r="AO7">
         <v>13645.95833333333</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
+    <row r="8" spans="1:41">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1990,24 +2038,30 @@
         <v>0.3301409296564389</v>
       </c>
       <c r="AI8">
+        <v>0.2640879128494008</v>
+      </c>
+      <c r="AJ8">
         <v>1990</v>
       </c>
-      <c r="AJ8">
-        <v>0</v>
-      </c>
       <c r="AK8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL8">
         <v>1</v>
       </c>
       <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <v>1</v>
+      </c>
+      <c r="AO8">
         <v>13645.95833333333</v>
       </c>
     </row>
-    <row r="9" spans="1:39">
+    <row r="9" spans="1:41">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2106,24 +2160,30 @@
         <v>0.3301409296564389</v>
       </c>
       <c r="AI9">
+        <v>0.2640879128494008</v>
+      </c>
+      <c r="AJ9">
         <v>1990</v>
       </c>
-      <c r="AJ9">
-        <v>0</v>
-      </c>
       <c r="AK9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL9">
         <v>1</v>
       </c>
       <c r="AM9">
+        <v>0</v>
+      </c>
+      <c r="AN9">
+        <v>1</v>
+      </c>
+      <c r="AO9">
         <v>13645.95833333333</v>
       </c>
     </row>
-    <row r="10" spans="1:39">
+    <row r="10" spans="1:41">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2222,24 +2282,30 @@
         <v>0.3301409296564389</v>
       </c>
       <c r="AI10">
+        <v>0.2640879128494008</v>
+      </c>
+      <c r="AJ10">
         <v>1990</v>
       </c>
-      <c r="AJ10">
-        <v>0</v>
-      </c>
       <c r="AK10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL10">
         <v>1</v>
       </c>
       <c r="AM10">
+        <v>0</v>
+      </c>
+      <c r="AN10">
+        <v>1</v>
+      </c>
+      <c r="AO10">
         <v>13645.95833333333</v>
       </c>
     </row>
-    <row r="11" spans="1:39">
+    <row r="11" spans="1:41">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2338,24 +2404,30 @@
         <v>0.3301409296564389</v>
       </c>
       <c r="AI11">
+        <v>0.2640879128494008</v>
+      </c>
+      <c r="AJ11">
         <v>1990</v>
       </c>
-      <c r="AJ11">
-        <v>0</v>
-      </c>
       <c r="AK11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL11">
         <v>1</v>
       </c>
       <c r="AM11">
+        <v>0</v>
+      </c>
+      <c r="AN11">
+        <v>1</v>
+      </c>
+      <c r="AO11">
         <v>13645.95833333333</v>
       </c>
     </row>
-    <row r="12" spans="1:39">
+    <row r="12" spans="1:41">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -2454,24 +2526,30 @@
         <v>0.3301409296564389</v>
       </c>
       <c r="AI12">
+        <v>0.2640879128494008</v>
+      </c>
+      <c r="AJ12">
         <v>1990</v>
       </c>
-      <c r="AJ12">
-        <v>0</v>
-      </c>
       <c r="AK12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL12">
         <v>1</v>
       </c>
       <c r="AM12">
+        <v>0</v>
+      </c>
+      <c r="AN12">
+        <v>1</v>
+      </c>
+      <c r="AO12">
         <v>13645.95833333333</v>
       </c>
     </row>
-    <row r="13" spans="1:39">
+    <row r="13" spans="1:41">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2570,24 +2648,30 @@
         <v>0.3301409296564389</v>
       </c>
       <c r="AI13">
+        <v>0.2640879128494008</v>
+      </c>
+      <c r="AJ13">
         <v>1990</v>
       </c>
-      <c r="AJ13">
-        <v>0</v>
-      </c>
       <c r="AK13">
         <v>0</v>
       </c>
       <c r="AL13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM13">
+        <v>0</v>
+      </c>
+      <c r="AN13">
+        <v>1</v>
+      </c>
+      <c r="AO13">
         <v>13645.95833333333</v>
       </c>
     </row>
-    <row r="14" spans="1:39">
+    <row r="14" spans="1:41">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -2686,24 +2770,30 @@
         <v>0.3301409296564389</v>
       </c>
       <c r="AI14">
+        <v>0.2640879128494008</v>
+      </c>
+      <c r="AJ14">
         <v>1990</v>
       </c>
-      <c r="AJ14">
-        <v>0</v>
-      </c>
       <c r="AK14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL14">
         <v>1</v>
       </c>
       <c r="AM14">
+        <v>0</v>
+      </c>
+      <c r="AN14">
+        <v>1</v>
+      </c>
+      <c r="AO14">
         <v>13645.95833333333</v>
       </c>
     </row>
-    <row r="15" spans="1:39">
+    <row r="15" spans="1:41">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -2802,24 +2892,30 @@
         <v>0.3301409296564389</v>
       </c>
       <c r="AI15">
+        <v>0.2640879128494008</v>
+      </c>
+      <c r="AJ15">
         <v>1990</v>
       </c>
-      <c r="AJ15">
-        <v>0</v>
-      </c>
       <c r="AK15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL15">
         <v>1</v>
       </c>
       <c r="AM15">
+        <v>0</v>
+      </c>
+      <c r="AN15">
+        <v>1</v>
+      </c>
+      <c r="AO15">
         <v>13645.95833333333</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
+    <row r="16" spans="1:41">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -2918,24 +3014,30 @@
         <v>0.3301409296564389</v>
       </c>
       <c r="AI16">
+        <v>0.2640879128494008</v>
+      </c>
+      <c r="AJ16">
         <v>1990</v>
       </c>
-      <c r="AJ16">
-        <v>0</v>
-      </c>
       <c r="AK16">
         <v>0</v>
       </c>
       <c r="AL16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM16">
+        <v>0</v>
+      </c>
+      <c r="AN16">
+        <v>1</v>
+      </c>
+      <c r="AO16">
         <v>13645.95833333333</v>
       </c>
     </row>
-    <row r="17" spans="1:39">
+    <row r="17" spans="1:41">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -3034,24 +3136,30 @@
         <v>0.3301409296564389</v>
       </c>
       <c r="AI17">
+        <v>0.2640879128494008</v>
+      </c>
+      <c r="AJ17">
         <v>1990</v>
       </c>
-      <c r="AJ17">
-        <v>0</v>
-      </c>
       <c r="AK17">
         <v>0</v>
       </c>
       <c r="AL17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM17">
+        <v>0</v>
+      </c>
+      <c r="AN17">
+        <v>1</v>
+      </c>
+      <c r="AO17">
         <v>13645.95833333333</v>
       </c>
     </row>
-    <row r="18" spans="1:39">
+    <row r="18" spans="1:41">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -3150,24 +3258,30 @@
         <v>0.3301409296564389</v>
       </c>
       <c r="AI18">
+        <v>0.2640879128494008</v>
+      </c>
+      <c r="AJ18">
         <v>1990</v>
       </c>
-      <c r="AJ18">
-        <v>0</v>
-      </c>
       <c r="AK18">
         <v>0</v>
       </c>
       <c r="AL18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM18">
+        <v>0</v>
+      </c>
+      <c r="AN18">
+        <v>1</v>
+      </c>
+      <c r="AO18">
         <v>13645.95833333333</v>
       </c>
     </row>
-    <row r="19" spans="1:39">
+    <row r="19" spans="1:41">
       <c r="A19" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -3266,24 +3380,30 @@
         <v>0.3301409296564389</v>
       </c>
       <c r="AI19">
+        <v>0.2640879128494008</v>
+      </c>
+      <c r="AJ19">
         <v>1990</v>
       </c>
-      <c r="AJ19">
-        <v>0</v>
-      </c>
       <c r="AK19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL19">
         <v>1</v>
       </c>
       <c r="AM19">
+        <v>0</v>
+      </c>
+      <c r="AN19">
+        <v>1</v>
+      </c>
+      <c r="AO19">
         <v>13645.95833333333</v>
       </c>
     </row>
-    <row r="20" spans="1:39">
+    <row r="20" spans="1:41">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -3382,24 +3502,30 @@
         <v>0.3301409296564389</v>
       </c>
       <c r="AI20">
+        <v>0.2640879128494008</v>
+      </c>
+      <c r="AJ20">
         <v>1990</v>
       </c>
-      <c r="AJ20">
-        <v>0</v>
-      </c>
       <c r="AK20">
         <v>0</v>
       </c>
       <c r="AL20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM20">
+        <v>0</v>
+      </c>
+      <c r="AN20">
+        <v>1</v>
+      </c>
+      <c r="AO20">
         <v>13645.95833333333</v>
       </c>
     </row>
-    <row r="21" spans="1:39">
+    <row r="21" spans="1:41">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -3498,24 +3624,30 @@
         <v>0.3301409296564389</v>
       </c>
       <c r="AI21">
+        <v>0.2640879128494008</v>
+      </c>
+      <c r="AJ21">
         <v>1990</v>
       </c>
-      <c r="AJ21">
-        <v>0</v>
-      </c>
       <c r="AK21">
         <v>0</v>
       </c>
       <c r="AL21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM21">
+        <v>0</v>
+      </c>
+      <c r="AN21">
+        <v>1</v>
+      </c>
+      <c r="AO21">
         <v>13645.95833333333</v>
       </c>
     </row>
-    <row r="22" spans="1:39">
+    <row r="22" spans="1:41">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -3614,24 +3746,30 @@
         <v>0.3301409296564389</v>
       </c>
       <c r="AI22">
+        <v>0.2640879128494008</v>
+      </c>
+      <c r="AJ22">
         <v>1990</v>
       </c>
-      <c r="AJ22">
-        <v>0</v>
-      </c>
       <c r="AK22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL22">
         <v>1</v>
       </c>
       <c r="AM22">
+        <v>0</v>
+      </c>
+      <c r="AN22">
+        <v>1</v>
+      </c>
+      <c r="AO22">
         <v>13645.95833333333</v>
       </c>
     </row>
-    <row r="23" spans="1:39">
+    <row r="23" spans="1:41">
       <c r="A23" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -3730,24 +3868,30 @@
         <v>0.3301409296564389</v>
       </c>
       <c r="AI23">
+        <v>0.2640879128494008</v>
+      </c>
+      <c r="AJ23">
         <v>1990</v>
       </c>
-      <c r="AJ23">
-        <v>0</v>
-      </c>
       <c r="AK23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL23">
         <v>1</v>
       </c>
       <c r="AM23">
+        <v>0</v>
+      </c>
+      <c r="AN23">
+        <v>1</v>
+      </c>
+      <c r="AO23">
         <v>13645.95833333333</v>
       </c>
     </row>
-    <row r="24" spans="1:39">
+    <row r="24" spans="1:41">
       <c r="A24" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -3846,24 +3990,30 @@
         <v>0.3301409296564389</v>
       </c>
       <c r="AI24">
+        <v>0.2640879128494008</v>
+      </c>
+      <c r="AJ24">
         <v>1990</v>
       </c>
-      <c r="AJ24">
-        <v>0</v>
-      </c>
       <c r="AK24">
         <v>0</v>
       </c>
       <c r="AL24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM24">
+        <v>0</v>
+      </c>
+      <c r="AN24">
+        <v>1</v>
+      </c>
+      <c r="AO24">
         <v>13645.95833333333</v>
       </c>
     </row>
-    <row r="25" spans="1:39">
+    <row r="25" spans="1:41">
       <c r="A25" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -3962,24 +4112,30 @@
         <v>0.3301409296564389</v>
       </c>
       <c r="AI25">
+        <v>0.2640879128494008</v>
+      </c>
+      <c r="AJ25">
         <v>1990</v>
       </c>
-      <c r="AJ25">
-        <v>0</v>
-      </c>
       <c r="AK25">
         <v>0</v>
       </c>
       <c r="AL25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM25">
+        <v>0</v>
+      </c>
+      <c r="AN25">
+        <v>1</v>
+      </c>
+      <c r="AO25">
         <v>13645.95833333333</v>
       </c>
     </row>
-    <row r="26" spans="1:39">
+    <row r="26" spans="1:41">
       <c r="A26" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -4078,24 +4234,30 @@
         <v>0.3301409296564389</v>
       </c>
       <c r="AI26">
+        <v>0.2640879128494008</v>
+      </c>
+      <c r="AJ26">
         <v>1990</v>
       </c>
-      <c r="AJ26">
-        <v>0</v>
-      </c>
       <c r="AK26">
         <v>0</v>
       </c>
       <c r="AL26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM26">
+        <v>0</v>
+      </c>
+      <c r="AN26">
+        <v>1</v>
+      </c>
+      <c r="AO26">
         <v>13645.95833333333</v>
       </c>
     </row>
-    <row r="27" spans="1:39">
+    <row r="27" spans="1:41">
       <c r="A27" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -4152,7 +4314,7 @@
         <v>0</v>
       </c>
       <c r="T27">
-        <v>474512</v>
+        <v>476972</v>
       </c>
       <c r="U27">
         <v>3</v>
@@ -4188,30 +4350,36 @@
         <v>0</v>
       </c>
       <c r="AG27">
-        <v>484646</v>
+        <v>487106</v>
       </c>
       <c r="AH27">
-        <v>0.9790898924163204</v>
+        <v>0.9791954933833703</v>
       </c>
       <c r="AI27">
+        <v>0.009308035622636551</v>
+      </c>
+      <c r="AJ27">
         <v>1990</v>
       </c>
-      <c r="AJ27">
-        <v>0</v>
-      </c>
       <c r="AK27">
         <v>0</v>
       </c>
       <c r="AL27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM27">
+        <v>0</v>
+      </c>
+      <c r="AN27">
+        <v>1</v>
+      </c>
+      <c r="AO27">
         <v>1893</v>
       </c>
     </row>
-    <row r="28" spans="1:39">
+    <row r="28" spans="1:41">
       <c r="A28" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -4268,7 +4436,7 @@
         <v>0</v>
       </c>
       <c r="T28">
-        <v>474512</v>
+        <v>476972</v>
       </c>
       <c r="U28">
         <v>3</v>
@@ -4304,30 +4472,36 @@
         <v>0</v>
       </c>
       <c r="AG28">
-        <v>484646</v>
+        <v>487106</v>
       </c>
       <c r="AH28">
-        <v>0.9790898924163204</v>
+        <v>0.9791954933833703</v>
       </c>
       <c r="AI28">
+        <v>0.009308035622636551</v>
+      </c>
+      <c r="AJ28">
         <v>1990</v>
       </c>
-      <c r="AJ28">
-        <v>0</v>
-      </c>
       <c r="AK28">
         <v>0</v>
       </c>
       <c r="AL28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM28">
+        <v>0</v>
+      </c>
+      <c r="AN28">
+        <v>1</v>
+      </c>
+      <c r="AO28">
         <v>5224</v>
       </c>
     </row>
-    <row r="29" spans="1:39">
+    <row r="29" spans="1:41">
       <c r="A29" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -4384,7 +4558,7 @@
         <v>0</v>
       </c>
       <c r="T29">
-        <v>474512</v>
+        <v>476972</v>
       </c>
       <c r="U29">
         <v>3</v>
@@ -4420,30 +4594,36 @@
         <v>17422722</v>
       </c>
       <c r="AG29">
-        <v>484646</v>
+        <v>487106</v>
       </c>
       <c r="AH29">
-        <v>0.9790898924163204</v>
+        <v>0.9791954933833703</v>
       </c>
       <c r="AI29">
+        <v>0.009308035622636551</v>
+      </c>
+      <c r="AJ29">
         <v>1990</v>
       </c>
-      <c r="AJ29">
-        <v>0</v>
-      </c>
       <c r="AK29">
         <v>0</v>
       </c>
       <c r="AL29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM29">
+        <v>0</v>
+      </c>
+      <c r="AN29">
+        <v>1</v>
+      </c>
+      <c r="AO29">
         <v>1211</v>
       </c>
     </row>
-    <row r="30" spans="1:39">
+    <row r="30" spans="1:41">
       <c r="A30" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -4500,7 +4680,7 @@
         <v>0</v>
       </c>
       <c r="T30">
-        <v>474512</v>
+        <v>476972</v>
       </c>
       <c r="U30">
         <v>3</v>
@@ -4536,30 +4716,36 @@
         <v>8942976</v>
       </c>
       <c r="AG30">
-        <v>484646</v>
+        <v>487106</v>
       </c>
       <c r="AH30">
-        <v>0.9790898924163204</v>
+        <v>0.9791954933833703</v>
       </c>
       <c r="AI30">
+        <v>0.009308035622636551</v>
+      </c>
+      <c r="AJ30">
         <v>1990</v>
       </c>
-      <c r="AJ30">
-        <v>0</v>
-      </c>
       <c r="AK30">
         <v>0</v>
       </c>
       <c r="AL30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM30">
+        <v>0</v>
+      </c>
+      <c r="AN30">
+        <v>1</v>
+      </c>
+      <c r="AO30">
         <v>3702</v>
       </c>
     </row>
-    <row r="31" spans="1:39">
+    <row r="31" spans="1:41">
       <c r="A31" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -4616,7 +4802,7 @@
         <v>0</v>
       </c>
       <c r="T31">
-        <v>474512</v>
+        <v>476972</v>
       </c>
       <c r="U31">
         <v>3</v>
@@ -4652,30 +4838,36 @@
         <v>0</v>
       </c>
       <c r="AG31">
-        <v>484646</v>
+        <v>487106</v>
       </c>
       <c r="AH31">
-        <v>0.9790898924163204</v>
+        <v>0.9791954933833703</v>
       </c>
       <c r="AI31">
+        <v>0.009308035622636551</v>
+      </c>
+      <c r="AJ31">
         <v>1990</v>
       </c>
-      <c r="AJ31">
-        <v>0</v>
-      </c>
       <c r="AK31">
         <v>0</v>
       </c>
       <c r="AL31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM31">
+        <v>0</v>
+      </c>
+      <c r="AN31">
+        <v>1</v>
+      </c>
+      <c r="AO31">
         <v>1213</v>
       </c>
     </row>
-    <row r="32" spans="1:39">
+    <row r="32" spans="1:41">
       <c r="A32" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -4732,7 +4924,7 @@
         <v>0</v>
       </c>
       <c r="T32">
-        <v>474512</v>
+        <v>476972</v>
       </c>
       <c r="U32">
         <v>3</v>
@@ -4768,30 +4960,36 @@
         <v>9912922</v>
       </c>
       <c r="AG32">
-        <v>484646</v>
+        <v>487106</v>
       </c>
       <c r="AH32">
-        <v>0.9790898924163204</v>
+        <v>0.9791954933833703</v>
       </c>
       <c r="AI32">
+        <v>0.009308035622636551</v>
+      </c>
+      <c r="AJ32">
         <v>1990</v>
       </c>
-      <c r="AJ32">
-        <v>0</v>
-      </c>
       <c r="AK32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL32">
         <v>1</v>
       </c>
       <c r="AM32">
+        <v>0</v>
+      </c>
+      <c r="AN32">
+        <v>1</v>
+      </c>
+      <c r="AO32">
         <v>2776</v>
       </c>
     </row>
-    <row r="33" spans="1:39">
+    <row r="33" spans="1:41">
       <c r="A33" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -4848,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="T33">
-        <v>474512</v>
+        <v>476972</v>
       </c>
       <c r="U33">
         <v>3</v>
@@ -4884,30 +5082,36 @@
         <v>15684392</v>
       </c>
       <c r="AG33">
-        <v>484646</v>
+        <v>487106</v>
       </c>
       <c r="AH33">
-        <v>0.9790898924163204</v>
+        <v>0.9791954933833703</v>
       </c>
       <c r="AI33">
+        <v>0.009308035622636551</v>
+      </c>
+      <c r="AJ33">
         <v>1990</v>
       </c>
-      <c r="AJ33">
-        <v>0</v>
-      </c>
       <c r="AK33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL33">
         <v>1</v>
       </c>
       <c r="AM33">
+        <v>0</v>
+      </c>
+      <c r="AN33">
+        <v>1</v>
+      </c>
+      <c r="AO33">
         <v>22569</v>
       </c>
     </row>
-    <row r="34" spans="1:39">
+    <row r="34" spans="1:41">
       <c r="A34" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -4964,7 +5168,7 @@
         <v>0</v>
       </c>
       <c r="T34">
-        <v>474512</v>
+        <v>476972</v>
       </c>
       <c r="U34">
         <v>3</v>
@@ -5000,30 +5204,36 @@
         <v>4844720</v>
       </c>
       <c r="AG34">
-        <v>484646</v>
+        <v>487106</v>
       </c>
       <c r="AH34">
-        <v>0.9790898924163204</v>
+        <v>0.9791954933833703</v>
       </c>
       <c r="AI34">
+        <v>0.009308035622636551</v>
+      </c>
+      <c r="AJ34">
         <v>1990</v>
       </c>
-      <c r="AJ34">
-        <v>0</v>
-      </c>
       <c r="AK34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL34">
         <v>1</v>
       </c>
       <c r="AM34">
+        <v>0</v>
+      </c>
+      <c r="AN34">
+        <v>1</v>
+      </c>
+      <c r="AO34">
         <v>17009</v>
       </c>
     </row>
-    <row r="35" spans="1:39">
+    <row r="35" spans="1:41">
       <c r="A35" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -5080,7 +5290,7 @@
         <v>0</v>
       </c>
       <c r="T35">
-        <v>474512</v>
+        <v>476972</v>
       </c>
       <c r="U35">
         <v>3</v>
@@ -5116,30 +5326,36 @@
         <v>0</v>
       </c>
       <c r="AG35">
-        <v>484646</v>
+        <v>487106</v>
       </c>
       <c r="AH35">
-        <v>0.9790898924163204</v>
+        <v>0.9791954933833703</v>
       </c>
       <c r="AI35">
+        <v>0.009308035622636551</v>
+      </c>
+      <c r="AJ35">
         <v>1990</v>
       </c>
-      <c r="AJ35">
-        <v>0</v>
-      </c>
       <c r="AK35">
         <v>0</v>
       </c>
       <c r="AL35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM35">
+        <v>0</v>
+      </c>
+      <c r="AN35">
+        <v>1</v>
+      </c>
+      <c r="AO35">
         <v>25369</v>
       </c>
     </row>
-    <row r="36" spans="1:39">
+    <row r="36" spans="1:41">
       <c r="A36" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -5196,7 +5412,7 @@
         <v>0</v>
       </c>
       <c r="T36">
-        <v>474512</v>
+        <v>476972</v>
       </c>
       <c r="U36">
         <v>3</v>
@@ -5232,30 +5448,36 @@
         <v>4606666.666666666</v>
       </c>
       <c r="AG36">
-        <v>484646</v>
+        <v>487106</v>
       </c>
       <c r="AH36">
-        <v>0.9790898924163204</v>
+        <v>0.9791954933833703</v>
       </c>
       <c r="AI36">
+        <v>0.009308035622636551</v>
+      </c>
+      <c r="AJ36">
         <v>1990</v>
       </c>
-      <c r="AJ36">
-        <v>0</v>
-      </c>
       <c r="AK36">
         <v>0</v>
       </c>
       <c r="AL36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM36">
+        <v>0</v>
+      </c>
+      <c r="AN36">
+        <v>1</v>
+      </c>
+      <c r="AO36">
         <v>515</v>
       </c>
     </row>
-    <row r="37" spans="1:39">
+    <row r="37" spans="1:41">
       <c r="A37" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -5312,7 +5534,7 @@
         <v>0</v>
       </c>
       <c r="T37">
-        <v>474512</v>
+        <v>476972</v>
       </c>
       <c r="U37">
         <v>3</v>
@@ -5348,30 +5570,36 @@
         <v>5979579.666666666</v>
       </c>
       <c r="AG37">
-        <v>484646</v>
+        <v>487106</v>
       </c>
       <c r="AH37">
-        <v>0.9790898924163204</v>
+        <v>0.9791954933833703</v>
       </c>
       <c r="AI37">
+        <v>0.009308035622636551</v>
+      </c>
+      <c r="AJ37">
         <v>1990</v>
       </c>
-      <c r="AJ37">
-        <v>0</v>
-      </c>
       <c r="AK37">
         <v>0</v>
       </c>
       <c r="AL37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM37">
+        <v>0</v>
+      </c>
+      <c r="AN37">
+        <v>1</v>
+      </c>
+      <c r="AO37">
         <v>17398</v>
       </c>
     </row>
-    <row r="38" spans="1:39">
+    <row r="38" spans="1:41">
       <c r="A38" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -5428,7 +5656,7 @@
         <v>0</v>
       </c>
       <c r="T38">
-        <v>474512</v>
+        <v>476972</v>
       </c>
       <c r="U38">
         <v>3</v>
@@ -5464,30 +5692,36 @@
         <v>7781510</v>
       </c>
       <c r="AG38">
-        <v>484646</v>
+        <v>487106</v>
       </c>
       <c r="AH38">
-        <v>0.9790898924163204</v>
+        <v>0.9791954933833703</v>
       </c>
       <c r="AI38">
+        <v>0.009308035622636551</v>
+      </c>
+      <c r="AJ38">
         <v>1990</v>
       </c>
-      <c r="AJ38">
-        <v>0</v>
-      </c>
       <c r="AK38">
         <v>0</v>
       </c>
       <c r="AL38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM38">
+        <v>0</v>
+      </c>
+      <c r="AN38">
+        <v>1</v>
+      </c>
+      <c r="AO38">
         <v>2734</v>
       </c>
     </row>
-    <row r="39" spans="1:39">
+    <row r="39" spans="1:41">
       <c r="A39" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -5544,7 +5778,7 @@
         <v>0</v>
       </c>
       <c r="T39">
-        <v>474512</v>
+        <v>476972</v>
       </c>
       <c r="U39">
         <v>3</v>
@@ -5580,30 +5814,36 @@
         <v>11420820.66666667</v>
       </c>
       <c r="AG39">
-        <v>484646</v>
+        <v>487106</v>
       </c>
       <c r="AH39">
-        <v>0.9790898924163204</v>
+        <v>0.9791954933833703</v>
       </c>
       <c r="AI39">
+        <v>0.009308035622636551</v>
+      </c>
+      <c r="AJ39">
         <v>1990</v>
       </c>
-      <c r="AJ39">
-        <v>0</v>
-      </c>
       <c r="AK39">
         <v>0</v>
       </c>
       <c r="AL39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM39">
+        <v>0</v>
+      </c>
+      <c r="AN39">
+        <v>1</v>
+      </c>
+      <c r="AO39">
         <v>983</v>
       </c>
     </row>
-    <row r="40" spans="1:39">
+    <row r="40" spans="1:41">
       <c r="A40" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -5660,7 +5900,7 @@
         <v>0</v>
       </c>
       <c r="T40">
-        <v>474512</v>
+        <v>476972</v>
       </c>
       <c r="U40">
         <v>3</v>
@@ -5696,30 +5936,36 @@
         <v>0</v>
       </c>
       <c r="AG40">
-        <v>484646</v>
+        <v>487106</v>
       </c>
       <c r="AH40">
-        <v>0.9790898924163204</v>
+        <v>0.9791954933833703</v>
       </c>
       <c r="AI40">
+        <v>0.009308035622636551</v>
+      </c>
+      <c r="AJ40">
         <v>1990</v>
       </c>
-      <c r="AJ40">
-        <v>0</v>
-      </c>
       <c r="AK40">
         <v>0</v>
       </c>
       <c r="AL40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM40">
+        <v>0</v>
+      </c>
+      <c r="AN40">
+        <v>1</v>
+      </c>
+      <c r="AO40">
         <v>781</v>
       </c>
     </row>
-    <row r="41" spans="1:39">
+    <row r="41" spans="1:41">
       <c r="A41" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -5776,7 +6022,7 @@
         <v>0</v>
       </c>
       <c r="T41">
-        <v>474512</v>
+        <v>476972</v>
       </c>
       <c r="U41">
         <v>3</v>
@@ -5812,30 +6058,36 @@
         <v>5136929</v>
       </c>
       <c r="AG41">
-        <v>484646</v>
+        <v>487106</v>
       </c>
       <c r="AH41">
-        <v>0.9790898924163204</v>
+        <v>0.9791954933833703</v>
       </c>
       <c r="AI41">
+        <v>0.009308035622636551</v>
+      </c>
+      <c r="AJ41">
         <v>1990</v>
       </c>
-      <c r="AJ41">
-        <v>0</v>
-      </c>
       <c r="AK41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL41">
         <v>1</v>
       </c>
       <c r="AM41">
+        <v>0</v>
+      </c>
+      <c r="AN41">
+        <v>1</v>
+      </c>
+      <c r="AO41">
         <v>1679</v>
       </c>
     </row>
-    <row r="42" spans="1:39">
+    <row r="42" spans="1:41">
       <c r="A42" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -5892,7 +6144,7 @@
         <v>0</v>
       </c>
       <c r="T42">
-        <v>474512</v>
+        <v>476972</v>
       </c>
       <c r="U42">
         <v>3</v>
@@ -5928,30 +6180,36 @@
         <v>14532818.83333333</v>
       </c>
       <c r="AG42">
-        <v>484646</v>
+        <v>487106</v>
       </c>
       <c r="AH42">
-        <v>0.9790898924163204</v>
+        <v>0.9791954933833703</v>
       </c>
       <c r="AI42">
+        <v>0.009308035622636551</v>
+      </c>
+      <c r="AJ42">
         <v>1990</v>
       </c>
-      <c r="AJ42">
-        <v>0</v>
-      </c>
       <c r="AK42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL42">
         <v>1</v>
       </c>
       <c r="AM42">
+        <v>0</v>
+      </c>
+      <c r="AN42">
+        <v>1</v>
+      </c>
+      <c r="AO42">
         <v>3614</v>
       </c>
     </row>
-    <row r="43" spans="1:39">
+    <row r="43" spans="1:41">
       <c r="A43" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -6008,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="T43">
-        <v>474512</v>
+        <v>476972</v>
       </c>
       <c r="U43">
         <v>3</v>
@@ -6044,30 +6302,36 @@
         <v>12175312</v>
       </c>
       <c r="AG43">
-        <v>484646</v>
+        <v>487106</v>
       </c>
       <c r="AH43">
-        <v>0.9790898924163204</v>
+        <v>0.9791954933833703</v>
       </c>
       <c r="AI43">
+        <v>0.009308035622636551</v>
+      </c>
+      <c r="AJ43">
         <v>1990</v>
       </c>
-      <c r="AJ43">
-        <v>0</v>
-      </c>
       <c r="AK43">
         <v>0</v>
       </c>
       <c r="AL43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM43">
+        <v>0</v>
+      </c>
+      <c r="AN43">
+        <v>1</v>
+      </c>
+      <c r="AO43">
         <v>258471</v>
       </c>
     </row>
-    <row r="44" spans="1:39">
+    <row r="44" spans="1:41">
       <c r="A44" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -6124,7 +6388,7 @@
         <v>0</v>
       </c>
       <c r="T44">
-        <v>474512</v>
+        <v>476972</v>
       </c>
       <c r="U44">
         <v>3</v>
@@ -6160,30 +6424,36 @@
         <v>10267085.83333333</v>
       </c>
       <c r="AG44">
-        <v>484646</v>
+        <v>487106</v>
       </c>
       <c r="AH44">
-        <v>0.9790898924163204</v>
+        <v>0.9791954933833703</v>
       </c>
       <c r="AI44">
+        <v>0.009308035622636551</v>
+      </c>
+      <c r="AJ44">
         <v>1990</v>
       </c>
-      <c r="AJ44">
-        <v>0</v>
-      </c>
       <c r="AK44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL44">
         <v>1</v>
       </c>
       <c r="AM44">
+        <v>0</v>
+      </c>
+      <c r="AN44">
+        <v>1</v>
+      </c>
+      <c r="AO44">
         <v>37158</v>
       </c>
     </row>
-    <row r="45" spans="1:39">
+    <row r="45" spans="1:41">
       <c r="A45" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -6240,7 +6510,7 @@
         <v>0</v>
       </c>
       <c r="T45">
-        <v>474512</v>
+        <v>476972</v>
       </c>
       <c r="U45">
         <v>3</v>
@@ -6276,30 +6546,36 @@
         <v>13056447</v>
       </c>
       <c r="AG45">
-        <v>484646</v>
+        <v>487106</v>
       </c>
       <c r="AH45">
-        <v>0.9790898924163204</v>
+        <v>0.9791954933833703</v>
       </c>
       <c r="AI45">
+        <v>0.009308035622636551</v>
+      </c>
+      <c r="AJ45">
         <v>1990</v>
       </c>
-      <c r="AJ45">
-        <v>0</v>
-      </c>
       <c r="AK45">
         <v>0</v>
       </c>
       <c r="AL45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM45">
+        <v>0</v>
+      </c>
+      <c r="AN45">
+        <v>1</v>
+      </c>
+      <c r="AO45">
         <v>3211</v>
       </c>
     </row>
-    <row r="46" spans="1:39">
+    <row r="46" spans="1:41">
       <c r="A46" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -6356,7 +6632,7 @@
         <v>0</v>
       </c>
       <c r="T46">
-        <v>474512</v>
+        <v>476972</v>
       </c>
       <c r="U46">
         <v>3</v>
@@ -6392,30 +6668,36 @@
         <v>32846422</v>
       </c>
       <c r="AG46">
-        <v>484646</v>
+        <v>487106</v>
       </c>
       <c r="AH46">
-        <v>0.9790898924163204</v>
+        <v>0.9791954933833703</v>
       </c>
       <c r="AI46">
+        <v>0.009308035622636551</v>
+      </c>
+      <c r="AJ46">
         <v>1990</v>
       </c>
-      <c r="AJ46">
-        <v>0</v>
-      </c>
       <c r="AK46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL46">
         <v>1</v>
       </c>
       <c r="AM46">
+        <v>0</v>
+      </c>
+      <c r="AN46">
+        <v>1</v>
+      </c>
+      <c r="AO46">
         <v>8204</v>
       </c>
     </row>
-    <row r="47" spans="1:39">
+    <row r="47" spans="1:41">
       <c r="A47" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -6472,7 +6754,7 @@
         <v>0</v>
       </c>
       <c r="T47">
-        <v>474512</v>
+        <v>476972</v>
       </c>
       <c r="U47">
         <v>3</v>
@@ -6508,30 +6790,36 @@
         <v>0</v>
       </c>
       <c r="AG47">
-        <v>484646</v>
+        <v>487106</v>
       </c>
       <c r="AH47">
-        <v>0.9790898924163204</v>
+        <v>0.9791954933833703</v>
       </c>
       <c r="AI47">
+        <v>0.009308035622636551</v>
+      </c>
+      <c r="AJ47">
         <v>1990</v>
       </c>
-      <c r="AJ47">
-        <v>0</v>
-      </c>
       <c r="AK47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL47">
         <v>1</v>
       </c>
       <c r="AM47">
+        <v>0</v>
+      </c>
+      <c r="AN47">
+        <v>1</v>
+      </c>
+      <c r="AO47">
         <v>11439</v>
       </c>
     </row>
-    <row r="48" spans="1:39">
+    <row r="48" spans="1:41">
       <c r="A48" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -6588,7 +6876,7 @@
         <v>0</v>
       </c>
       <c r="T48">
-        <v>474512</v>
+        <v>476972</v>
       </c>
       <c r="U48">
         <v>3</v>
@@ -6624,30 +6912,36 @@
         <v>0</v>
       </c>
       <c r="AG48">
-        <v>484646</v>
+        <v>487106</v>
       </c>
       <c r="AH48">
-        <v>0.9790898924163204</v>
+        <v>0.9791954933833703</v>
       </c>
       <c r="AI48">
+        <v>0.009308035622636551</v>
+      </c>
+      <c r="AJ48">
         <v>1990</v>
       </c>
-      <c r="AJ48">
-        <v>0</v>
-      </c>
       <c r="AK48">
         <v>0</v>
       </c>
       <c r="AL48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM48">
+        <v>0</v>
+      </c>
+      <c r="AN48">
+        <v>1</v>
+      </c>
+      <c r="AO48">
         <v>4979</v>
       </c>
     </row>
-    <row r="49" spans="1:39">
+    <row r="49" spans="1:41">
       <c r="A49" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -6704,7 +6998,7 @@
         <v>0</v>
       </c>
       <c r="T49">
-        <v>474512</v>
+        <v>476972</v>
       </c>
       <c r="U49">
         <v>3</v>
@@ -6740,30 +7034,36 @@
         <v>0</v>
       </c>
       <c r="AG49">
-        <v>484646</v>
+        <v>487106</v>
       </c>
       <c r="AH49">
-        <v>0.9790898924163204</v>
+        <v>0.9791954933833703</v>
       </c>
       <c r="AI49">
+        <v>0.009308035622636551</v>
+      </c>
+      <c r="AJ49">
         <v>1990</v>
       </c>
-      <c r="AJ49">
-        <v>0</v>
-      </c>
       <c r="AK49">
         <v>0</v>
       </c>
       <c r="AL49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM49">
+        <v>0</v>
+      </c>
+      <c r="AN49">
+        <v>1</v>
+      </c>
+      <c r="AO49">
         <v>74</v>
       </c>
     </row>
-    <row r="50" spans="1:39">
+    <row r="50" spans="1:41">
       <c r="A50" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -6820,7 +7120,7 @@
         <v>0</v>
       </c>
       <c r="T50">
-        <v>474512</v>
+        <v>476972</v>
       </c>
       <c r="U50">
         <v>3</v>
@@ -6856,30 +7156,36 @@
         <v>6020850.666666667</v>
       </c>
       <c r="AG50">
-        <v>484646</v>
+        <v>487106</v>
       </c>
       <c r="AH50">
-        <v>0.9790898924163204</v>
+        <v>0.9791954933833703</v>
       </c>
       <c r="AI50">
+        <v>0.009308035622636551</v>
+      </c>
+      <c r="AJ50">
         <v>1990</v>
       </c>
-      <c r="AJ50">
-        <v>0</v>
-      </c>
       <c r="AK50">
         <v>0</v>
       </c>
       <c r="AL50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM50">
+        <v>0</v>
+      </c>
+      <c r="AN50">
+        <v>1</v>
+      </c>
+      <c r="AO50">
         <v>889</v>
       </c>
     </row>
-    <row r="51" spans="1:39">
+    <row r="51" spans="1:41">
       <c r="A51" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -6936,7 +7242,7 @@
         <v>0</v>
       </c>
       <c r="T51">
-        <v>501932</v>
+        <v>504642</v>
       </c>
       <c r="U51">
         <v>2</v>
@@ -6972,30 +7278,36 @@
         <v>0</v>
       </c>
       <c r="AG51">
-        <v>624376</v>
+        <v>627086</v>
       </c>
       <c r="AH51">
-        <v>0.8038938075774854</v>
+        <v>0.8047412954522984</v>
       </c>
       <c r="AI51">
+        <v>0.1027674035140316</v>
+      </c>
+      <c r="AJ51">
         <v>1990</v>
       </c>
-      <c r="AJ51">
-        <v>0</v>
-      </c>
       <c r="AK51">
         <v>0</v>
       </c>
       <c r="AL51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM51">
+        <v>0</v>
+      </c>
+      <c r="AN51">
+        <v>1</v>
+      </c>
+      <c r="AO51">
         <v>4892</v>
       </c>
     </row>
-    <row r="52" spans="1:39">
+    <row r="52" spans="1:41">
       <c r="A52" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -7052,7 +7364,7 @@
         <v>0</v>
       </c>
       <c r="T52">
-        <v>501932</v>
+        <v>504642</v>
       </c>
       <c r="U52">
         <v>2</v>
@@ -7088,30 +7400,36 @@
         <v>0</v>
       </c>
       <c r="AG52">
-        <v>624376</v>
+        <v>627086</v>
       </c>
       <c r="AH52">
-        <v>0.8038938075774854</v>
+        <v>0.8047412954522984</v>
       </c>
       <c r="AI52">
+        <v>0.1027674035140316</v>
+      </c>
+      <c r="AJ52">
         <v>1990</v>
       </c>
-      <c r="AJ52">
-        <v>0</v>
-      </c>
       <c r="AK52">
         <v>0</v>
       </c>
       <c r="AL52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM52">
+        <v>0</v>
+      </c>
+      <c r="AN52">
+        <v>1</v>
+      </c>
+      <c r="AO52">
         <v>3151</v>
       </c>
     </row>
-    <row r="53" spans="1:39">
+    <row r="53" spans="1:41">
       <c r="A53" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -7168,7 +7486,7 @@
         <v>0</v>
       </c>
       <c r="T53">
-        <v>501932</v>
+        <v>504642</v>
       </c>
       <c r="U53">
         <v>2</v>
@@ -7204,30 +7522,36 @@
         <v>1592777</v>
       </c>
       <c r="AG53">
-        <v>624376</v>
+        <v>627086</v>
       </c>
       <c r="AH53">
-        <v>0.8038938075774854</v>
+        <v>0.8047412954522984</v>
       </c>
       <c r="AI53">
+        <v>0.1027674035140316</v>
+      </c>
+      <c r="AJ53">
         <v>1990</v>
       </c>
-      <c r="AJ53">
-        <v>0</v>
-      </c>
       <c r="AK53">
         <v>0</v>
       </c>
       <c r="AL53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM53">
+        <v>0</v>
+      </c>
+      <c r="AN53">
+        <v>1</v>
+      </c>
+      <c r="AO53">
         <v>753</v>
       </c>
     </row>
-    <row r="54" spans="1:39">
+    <row r="54" spans="1:41">
       <c r="A54" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -7284,7 +7608,7 @@
         <v>0</v>
       </c>
       <c r="T54">
-        <v>501932</v>
+        <v>504642</v>
       </c>
       <c r="U54">
         <v>2</v>
@@ -7320,30 +7644,36 @@
         <v>0</v>
       </c>
       <c r="AG54">
-        <v>624376</v>
+        <v>627086</v>
       </c>
       <c r="AH54">
-        <v>0.8038938075774854</v>
+        <v>0.8047412954522984</v>
       </c>
       <c r="AI54">
+        <v>0.1027674035140316</v>
+      </c>
+      <c r="AJ54">
         <v>1990</v>
       </c>
-      <c r="AJ54">
-        <v>0</v>
-      </c>
       <c r="AK54">
         <v>0</v>
       </c>
       <c r="AL54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM54">
+        <v>0</v>
+      </c>
+      <c r="AN54">
+        <v>1</v>
+      </c>
+      <c r="AO54">
         <v>1175</v>
       </c>
     </row>
-    <row r="55" spans="1:39">
+    <row r="55" spans="1:41">
       <c r="A55" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -7400,7 +7730,7 @@
         <v>0</v>
       </c>
       <c r="T55">
-        <v>501932</v>
+        <v>504642</v>
       </c>
       <c r="U55">
         <v>2</v>
@@ -7436,30 +7766,36 @@
         <v>0</v>
       </c>
       <c r="AG55">
-        <v>624376</v>
+        <v>627086</v>
       </c>
       <c r="AH55">
-        <v>0.8038938075774854</v>
+        <v>0.8047412954522984</v>
       </c>
       <c r="AI55">
+        <v>0.1027674035140316</v>
+      </c>
+      <c r="AJ55">
         <v>1990</v>
       </c>
-      <c r="AJ55">
-        <v>0</v>
-      </c>
       <c r="AK55">
         <v>0</v>
       </c>
       <c r="AL55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM55">
+        <v>0</v>
+      </c>
+      <c r="AN55">
+        <v>1</v>
+      </c>
+      <c r="AO55">
         <v>1106</v>
       </c>
     </row>
-    <row r="56" spans="1:39">
+    <row r="56" spans="1:41">
       <c r="A56" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -7516,7 +7852,7 @@
         <v>0</v>
       </c>
       <c r="T56">
-        <v>501932</v>
+        <v>504642</v>
       </c>
       <c r="U56">
         <v>2</v>
@@ -7552,30 +7888,36 @@
         <v>0</v>
       </c>
       <c r="AG56">
-        <v>624376</v>
+        <v>627086</v>
       </c>
       <c r="AH56">
-        <v>0.8038938075774854</v>
+        <v>0.8047412954522984</v>
       </c>
       <c r="AI56">
+        <v>0.1027674035140316</v>
+      </c>
+      <c r="AJ56">
         <v>1990</v>
       </c>
-      <c r="AJ56">
-        <v>0</v>
-      </c>
       <c r="AK56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL56">
         <v>1</v>
       </c>
       <c r="AM56">
+        <v>0</v>
+      </c>
+      <c r="AN56">
+        <v>1</v>
+      </c>
+      <c r="AO56">
         <v>2006</v>
       </c>
     </row>
-    <row r="57" spans="1:39">
+    <row r="57" spans="1:41">
       <c r="A57" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -7632,7 +7974,7 @@
         <v>0</v>
       </c>
       <c r="T57">
-        <v>501932</v>
+        <v>504642</v>
       </c>
       <c r="U57">
         <v>2</v>
@@ -7668,30 +8010,36 @@
         <v>1695725</v>
       </c>
       <c r="AG57">
-        <v>624376</v>
+        <v>627086</v>
       </c>
       <c r="AH57">
-        <v>0.8038938075774854</v>
+        <v>0.8047412954522984</v>
       </c>
       <c r="AI57">
+        <v>0.1027674035140316</v>
+      </c>
+      <c r="AJ57">
         <v>1990</v>
       </c>
-      <c r="AJ57">
-        <v>0</v>
-      </c>
       <c r="AK57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL57">
         <v>1</v>
       </c>
       <c r="AM57">
+        <v>0</v>
+      </c>
+      <c r="AN57">
+        <v>1</v>
+      </c>
+      <c r="AO57">
         <v>10246</v>
       </c>
     </row>
-    <row r="58" spans="1:39">
+    <row r="58" spans="1:41">
       <c r="A58" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -7748,7 +8096,7 @@
         <v>0</v>
       </c>
       <c r="T58">
-        <v>501932</v>
+        <v>504642</v>
       </c>
       <c r="U58">
         <v>2</v>
@@ -7784,30 +8132,36 @@
         <v>1851881</v>
       </c>
       <c r="AG58">
-        <v>624376</v>
+        <v>627086</v>
       </c>
       <c r="AH58">
-        <v>0.8038938075774854</v>
+        <v>0.8047412954522984</v>
       </c>
       <c r="AI58">
+        <v>0.1027674035140316</v>
+      </c>
+      <c r="AJ58">
         <v>1990</v>
       </c>
-      <c r="AJ58">
-        <v>0</v>
-      </c>
       <c r="AK58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL58">
         <v>1</v>
       </c>
       <c r="AM58">
+        <v>0</v>
+      </c>
+      <c r="AN58">
+        <v>1</v>
+      </c>
+      <c r="AO58">
         <v>1519</v>
       </c>
     </row>
-    <row r="59" spans="1:39">
+    <row r="59" spans="1:41">
       <c r="A59" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -7864,7 +8218,7 @@
         <v>0</v>
       </c>
       <c r="T59">
-        <v>501932</v>
+        <v>504642</v>
       </c>
       <c r="U59">
         <v>2</v>
@@ -7900,30 +8254,36 @@
         <v>0</v>
       </c>
       <c r="AG59">
-        <v>624376</v>
+        <v>627086</v>
       </c>
       <c r="AH59">
-        <v>0.8038938075774854</v>
+        <v>0.8047412954522984</v>
       </c>
       <c r="AI59">
+        <v>0.1027674035140316</v>
+      </c>
+      <c r="AJ59">
         <v>1990</v>
       </c>
-      <c r="AJ59">
-        <v>0</v>
-      </c>
       <c r="AK59">
         <v>0</v>
       </c>
       <c r="AL59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM59">
+        <v>0</v>
+      </c>
+      <c r="AN59">
+        <v>1</v>
+      </c>
+      <c r="AO59">
         <v>4733</v>
       </c>
     </row>
-    <row r="60" spans="1:39">
+    <row r="60" spans="1:41">
       <c r="A60" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -7980,7 +8340,7 @@
         <v>0</v>
       </c>
       <c r="T60">
-        <v>501932</v>
+        <v>504642</v>
       </c>
       <c r="U60">
         <v>2</v>
@@ -8016,30 +8376,36 @@
         <v>276626</v>
       </c>
       <c r="AG60">
-        <v>624376</v>
+        <v>627086</v>
       </c>
       <c r="AH60">
-        <v>0.8038938075774854</v>
+        <v>0.8047412954522984</v>
       </c>
       <c r="AI60">
+        <v>0.1027674035140316</v>
+      </c>
+      <c r="AJ60">
         <v>1990</v>
       </c>
-      <c r="AJ60">
-        <v>0</v>
-      </c>
       <c r="AK60">
         <v>0</v>
       </c>
       <c r="AL60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM60">
+        <v>0</v>
+      </c>
+      <c r="AN60">
+        <v>1</v>
+      </c>
+      <c r="AO60">
         <v>519</v>
       </c>
     </row>
-    <row r="61" spans="1:39">
+    <row r="61" spans="1:41">
       <c r="A61" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -8096,7 +8462,7 @@
         <v>0</v>
       </c>
       <c r="T61">
-        <v>501932</v>
+        <v>504642</v>
       </c>
       <c r="U61">
         <v>2</v>
@@ -8132,30 +8498,36 @@
         <v>1336045</v>
       </c>
       <c r="AG61">
-        <v>624376</v>
+        <v>627086</v>
       </c>
       <c r="AH61">
-        <v>0.8038938075774854</v>
+        <v>0.8047412954522984</v>
       </c>
       <c r="AI61">
+        <v>0.1027674035140316</v>
+      </c>
+      <c r="AJ61">
         <v>1990</v>
       </c>
-      <c r="AJ61">
-        <v>0</v>
-      </c>
       <c r="AK61">
         <v>0</v>
       </c>
       <c r="AL61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM61">
+        <v>0</v>
+      </c>
+      <c r="AN61">
+        <v>1</v>
+      </c>
+      <c r="AO61">
         <v>5810</v>
       </c>
     </row>
-    <row r="62" spans="1:39">
+    <row r="62" spans="1:41">
       <c r="A62" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -8212,7 +8584,7 @@
         <v>0</v>
       </c>
       <c r="T62">
-        <v>501932</v>
+        <v>504642</v>
       </c>
       <c r="U62">
         <v>2</v>
@@ -8248,30 +8620,36 @@
         <v>1441836</v>
       </c>
       <c r="AG62">
-        <v>624376</v>
+        <v>627086</v>
       </c>
       <c r="AH62">
-        <v>0.8038938075774854</v>
+        <v>0.8047412954522984</v>
       </c>
       <c r="AI62">
+        <v>0.1027674035140316</v>
+      </c>
+      <c r="AJ62">
         <v>1990</v>
       </c>
-      <c r="AJ62">
-        <v>0</v>
-      </c>
       <c r="AK62">
         <v>0</v>
       </c>
       <c r="AL62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM62">
+        <v>0</v>
+      </c>
+      <c r="AN62">
+        <v>1</v>
+      </c>
+      <c r="AO62">
         <v>1893</v>
       </c>
     </row>
-    <row r="63" spans="1:39">
+    <row r="63" spans="1:41">
       <c r="A63" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -8328,7 +8706,7 @@
         <v>0</v>
       </c>
       <c r="T63">
-        <v>501932</v>
+        <v>504642</v>
       </c>
       <c r="U63">
         <v>2</v>
@@ -8364,30 +8742,36 @@
         <v>0</v>
       </c>
       <c r="AG63">
-        <v>624376</v>
+        <v>627086</v>
       </c>
       <c r="AH63">
-        <v>0.8038938075774854</v>
+        <v>0.8047412954522984</v>
       </c>
       <c r="AI63">
+        <v>0.1027674035140316</v>
+      </c>
+      <c r="AJ63">
         <v>1990</v>
       </c>
-      <c r="AJ63">
-        <v>0</v>
-      </c>
       <c r="AK63">
         <v>0</v>
       </c>
       <c r="AL63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM63">
+        <v>0</v>
+      </c>
+      <c r="AN63">
+        <v>1</v>
+      </c>
+      <c r="AO63">
         <v>1040</v>
       </c>
     </row>
-    <row r="64" spans="1:39">
+    <row r="64" spans="1:41">
       <c r="A64" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -8444,7 +8828,7 @@
         <v>0</v>
       </c>
       <c r="T64">
-        <v>501932</v>
+        <v>504642</v>
       </c>
       <c r="U64">
         <v>2</v>
@@ -8480,30 +8864,36 @@
         <v>1498796</v>
       </c>
       <c r="AG64">
-        <v>624376</v>
+        <v>627086</v>
       </c>
       <c r="AH64">
-        <v>0.8038938075774854</v>
+        <v>0.8047412954522984</v>
       </c>
       <c r="AI64">
+        <v>0.1027674035140316</v>
+      </c>
+      <c r="AJ64">
         <v>1990</v>
       </c>
-      <c r="AJ64">
-        <v>0</v>
-      </c>
       <c r="AK64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL64">
         <v>1</v>
       </c>
       <c r="AM64">
+        <v>0</v>
+      </c>
+      <c r="AN64">
+        <v>1</v>
+      </c>
+      <c r="AO64">
         <v>1660</v>
       </c>
     </row>
-    <row r="65" spans="1:39">
+    <row r="65" spans="1:41">
       <c r="A65" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -8560,7 +8950,7 @@
         <v>0</v>
       </c>
       <c r="T65">
-        <v>501932</v>
+        <v>504642</v>
       </c>
       <c r="U65">
         <v>2</v>
@@ -8596,30 +8986,36 @@
         <v>2140362</v>
       </c>
       <c r="AG65">
-        <v>624376</v>
+        <v>627086</v>
       </c>
       <c r="AH65">
-        <v>0.8038938075774854</v>
+        <v>0.8047412954522984</v>
       </c>
       <c r="AI65">
+        <v>0.1027674035140316</v>
+      </c>
+      <c r="AJ65">
         <v>1990</v>
       </c>
-      <c r="AJ65">
-        <v>0</v>
-      </c>
       <c r="AK65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL65">
         <v>1</v>
       </c>
       <c r="AM65">
+        <v>0</v>
+      </c>
+      <c r="AN65">
+        <v>1</v>
+      </c>
+      <c r="AO65">
         <v>2929</v>
       </c>
     </row>
-    <row r="66" spans="1:39">
+    <row r="66" spans="1:41">
       <c r="A66" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -8676,7 +9072,7 @@
         <v>0</v>
       </c>
       <c r="T66">
-        <v>501932</v>
+        <v>504642</v>
       </c>
       <c r="U66">
         <v>2</v>
@@ -8712,30 +9108,36 @@
         <v>3746015</v>
       </c>
       <c r="AG66">
-        <v>624376</v>
+        <v>627086</v>
       </c>
       <c r="AH66">
-        <v>0.8038938075774854</v>
+        <v>0.8047412954522984</v>
       </c>
       <c r="AI66">
+        <v>0.1027674035140316</v>
+      </c>
+      <c r="AJ66">
         <v>1990</v>
       </c>
-      <c r="AJ66">
-        <v>0</v>
-      </c>
       <c r="AK66">
         <v>0</v>
       </c>
       <c r="AL66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM66">
+        <v>0</v>
+      </c>
+      <c r="AN66">
+        <v>1</v>
+      </c>
+      <c r="AO66">
         <v>38933</v>
       </c>
     </row>
-    <row r="67" spans="1:39">
+    <row r="67" spans="1:41">
       <c r="A67" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -8792,7 +9194,7 @@
         <v>0</v>
       </c>
       <c r="T67">
-        <v>501932</v>
+        <v>504642</v>
       </c>
       <c r="U67">
         <v>2</v>
@@ -8828,30 +9230,36 @@
         <v>2070562</v>
       </c>
       <c r="AG67">
-        <v>624376</v>
+        <v>627086</v>
       </c>
       <c r="AH67">
-        <v>0.8038938075774854</v>
+        <v>0.8047412954522984</v>
       </c>
       <c r="AI67">
+        <v>0.1027674035140316</v>
+      </c>
+      <c r="AJ67">
         <v>1990</v>
       </c>
-      <c r="AJ67">
-        <v>0</v>
-      </c>
       <c r="AK67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL67">
         <v>1</v>
       </c>
       <c r="AM67">
+        <v>0</v>
+      </c>
+      <c r="AN67">
+        <v>1</v>
+      </c>
+      <c r="AO67">
         <v>9306</v>
       </c>
     </row>
-    <row r="68" spans="1:39">
+    <row r="68" spans="1:41">
       <c r="A68" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -8908,7 +9316,7 @@
         <v>0</v>
       </c>
       <c r="T68">
-        <v>501932</v>
+        <v>504642</v>
       </c>
       <c r="U68">
         <v>2</v>
@@ -8944,30 +9352,36 @@
         <v>1979992</v>
       </c>
       <c r="AG68">
-        <v>624376</v>
+        <v>627086</v>
       </c>
       <c r="AH68">
-        <v>0.8038938075774854</v>
+        <v>0.8047412954522984</v>
       </c>
       <c r="AI68">
+        <v>0.1027674035140316</v>
+      </c>
+      <c r="AJ68">
         <v>1990</v>
       </c>
-      <c r="AJ68">
-        <v>0</v>
-      </c>
       <c r="AK68">
         <v>0</v>
       </c>
       <c r="AL68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM68">
+        <v>0</v>
+      </c>
+      <c r="AN68">
+        <v>1</v>
+      </c>
+      <c r="AO68">
         <v>30781</v>
       </c>
     </row>
-    <row r="69" spans="1:39">
+    <row r="69" spans="1:41">
       <c r="A69" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -9024,7 +9438,7 @@
         <v>0</v>
       </c>
       <c r="T69">
-        <v>501932</v>
+        <v>504642</v>
       </c>
       <c r="U69">
         <v>2</v>
@@ -9060,30 +9474,36 @@
         <v>2169360</v>
       </c>
       <c r="AG69">
-        <v>624376</v>
+        <v>627086</v>
       </c>
       <c r="AH69">
-        <v>0.8038938075774854</v>
+        <v>0.8047412954522984</v>
       </c>
       <c r="AI69">
+        <v>0.1027674035140316</v>
+      </c>
+      <c r="AJ69">
         <v>1990</v>
       </c>
-      <c r="AJ69">
-        <v>0</v>
-      </c>
       <c r="AK69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL69">
         <v>1</v>
       </c>
       <c r="AM69">
+        <v>0</v>
+      </c>
+      <c r="AN69">
+        <v>1</v>
+      </c>
+      <c r="AO69">
         <v>174</v>
       </c>
     </row>
-    <row r="70" spans="1:39">
+    <row r="70" spans="1:41">
       <c r="A70" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -9140,7 +9560,7 @@
         <v>0</v>
       </c>
       <c r="T70">
-        <v>501932</v>
+        <v>504642</v>
       </c>
       <c r="U70">
         <v>2</v>
@@ -9176,30 +9596,36 @@
         <v>1772730</v>
       </c>
       <c r="AG70">
-        <v>624376</v>
+        <v>627086</v>
       </c>
       <c r="AH70">
-        <v>0.8038938075774854</v>
+        <v>0.8047412954522984</v>
       </c>
       <c r="AI70">
+        <v>0.1027674035140316</v>
+      </c>
+      <c r="AJ70">
         <v>1990</v>
       </c>
-      <c r="AJ70">
-        <v>0</v>
-      </c>
       <c r="AK70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL70">
         <v>1</v>
       </c>
       <c r="AM70">
+        <v>0</v>
+      </c>
+      <c r="AN70">
+        <v>1</v>
+      </c>
+      <c r="AO70">
         <v>32830</v>
       </c>
     </row>
-    <row r="71" spans="1:39">
+    <row r="71" spans="1:41">
       <c r="A71" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -9256,7 +9682,7 @@
         <v>0</v>
       </c>
       <c r="T71">
-        <v>501932</v>
+        <v>504642</v>
       </c>
       <c r="U71">
         <v>2</v>
@@ -9292,30 +9718,36 @@
         <v>2299220</v>
       </c>
       <c r="AG71">
-        <v>624376</v>
+        <v>627086</v>
       </c>
       <c r="AH71">
-        <v>0.8038938075774854</v>
+        <v>0.8047412954522984</v>
       </c>
       <c r="AI71">
+        <v>0.1027674035140316</v>
+      </c>
+      <c r="AJ71">
         <v>1990</v>
       </c>
-      <c r="AJ71">
-        <v>0</v>
-      </c>
       <c r="AK71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL71">
         <v>1</v>
       </c>
       <c r="AM71">
+        <v>0</v>
+      </c>
+      <c r="AN71">
+        <v>1</v>
+      </c>
+      <c r="AO71">
         <v>131335</v>
       </c>
     </row>
-    <row r="72" spans="1:39">
+    <row r="72" spans="1:41">
       <c r="A72" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -9372,7 +9804,7 @@
         <v>0</v>
       </c>
       <c r="T72">
-        <v>501932</v>
+        <v>504642</v>
       </c>
       <c r="U72">
         <v>2</v>
@@ -9408,30 +9840,36 @@
         <v>1859221</v>
       </c>
       <c r="AG72">
-        <v>624376</v>
+        <v>627086</v>
       </c>
       <c r="AH72">
-        <v>0.8038938075774854</v>
+        <v>0.8047412954522984</v>
       </c>
       <c r="AI72">
+        <v>0.1027674035140316</v>
+      </c>
+      <c r="AJ72">
         <v>1990</v>
       </c>
-      <c r="AJ72">
-        <v>0</v>
-      </c>
       <c r="AK72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL72">
         <v>1</v>
       </c>
       <c r="AM72">
+        <v>0</v>
+      </c>
+      <c r="AN72">
+        <v>1</v>
+      </c>
+      <c r="AO72">
         <v>6492</v>
       </c>
     </row>
-    <row r="73" spans="1:39">
+    <row r="73" spans="1:41">
       <c r="A73" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -9488,7 +9926,7 @@
         <v>0</v>
       </c>
       <c r="T73">
-        <v>501932</v>
+        <v>504642</v>
       </c>
       <c r="U73">
         <v>2</v>
@@ -9524,30 +9962,36 @@
         <v>2304887</v>
       </c>
       <c r="AG73">
-        <v>624376</v>
+        <v>627086</v>
       </c>
       <c r="AH73">
-        <v>0.8038938075774854</v>
+        <v>0.8047412954522984</v>
       </c>
       <c r="AI73">
+        <v>0.1027674035140316</v>
+      </c>
+      <c r="AJ73">
         <v>1990</v>
       </c>
-      <c r="AJ73">
-        <v>0</v>
-      </c>
       <c r="AK73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL73">
         <v>1</v>
       </c>
       <c r="AM73">
+        <v>0</v>
+      </c>
+      <c r="AN73">
+        <v>1</v>
+      </c>
+      <c r="AO73">
         <v>6584</v>
       </c>
     </row>
-    <row r="74" spans="1:39">
+    <row r="74" spans="1:41">
       <c r="A74" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B74">
         <v>1</v>
@@ -9604,7 +10048,7 @@
         <v>0</v>
       </c>
       <c r="T74">
-        <v>501932</v>
+        <v>504642</v>
       </c>
       <c r="U74">
         <v>2</v>
@@ -9640,30 +10084,36 @@
         <v>0</v>
       </c>
       <c r="AG74">
-        <v>624376</v>
+        <v>627086</v>
       </c>
       <c r="AH74">
-        <v>0.8038938075774854</v>
+        <v>0.8047412954522984</v>
       </c>
       <c r="AI74">
+        <v>0.1027674035140316</v>
+      </c>
+      <c r="AJ74">
         <v>1990</v>
       </c>
-      <c r="AJ74">
-        <v>0</v>
-      </c>
       <c r="AK74">
         <v>0</v>
       </c>
       <c r="AL74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM74">
+        <v>0</v>
+      </c>
+      <c r="AN74">
+        <v>1</v>
+      </c>
+      <c r="AO74">
         <v>4598</v>
       </c>
     </row>
-    <row r="75" spans="1:39">
+    <row r="75" spans="1:41">
       <c r="A75" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -9720,7 +10170,7 @@
         <v>0</v>
       </c>
       <c r="T75">
-        <v>501932</v>
+        <v>504642</v>
       </c>
       <c r="U75">
         <v>2</v>
@@ -9756,30 +10206,36 @@
         <v>0</v>
       </c>
       <c r="AG75">
-        <v>624376</v>
+        <v>627086</v>
       </c>
       <c r="AH75">
-        <v>0.8038938075774854</v>
+        <v>0.8047412954522984</v>
       </c>
       <c r="AI75">
+        <v>0.1027674035140316</v>
+      </c>
+      <c r="AJ75">
         <v>1990</v>
       </c>
-      <c r="AJ75">
-        <v>0</v>
-      </c>
       <c r="AK75">
         <v>0</v>
       </c>
       <c r="AL75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM75">
+        <v>0</v>
+      </c>
+      <c r="AN75">
+        <v>1</v>
+      </c>
+      <c r="AO75">
         <v>1599</v>
       </c>
     </row>
-    <row r="76" spans="1:39">
+    <row r="76" spans="1:41">
       <c r="A76" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B76">
         <v>1</v>
@@ -9836,7 +10292,7 @@
         <v>0</v>
       </c>
       <c r="T76">
-        <v>501932</v>
+        <v>504642</v>
       </c>
       <c r="U76">
         <v>2</v>
@@ -9872,30 +10328,36 @@
         <v>0</v>
       </c>
       <c r="AG76">
-        <v>624376</v>
+        <v>627086</v>
       </c>
       <c r="AH76">
-        <v>0.8038938075774854</v>
+        <v>0.8047412954522984</v>
       </c>
       <c r="AI76">
+        <v>0.1027674035140316</v>
+      </c>
+      <c r="AJ76">
         <v>1990</v>
       </c>
-      <c r="AJ76">
-        <v>0</v>
-      </c>
       <c r="AK76">
         <v>0</v>
       </c>
       <c r="AL76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM76">
+        <v>0</v>
+      </c>
+      <c r="AN76">
+        <v>1</v>
+      </c>
+      <c r="AO76">
         <v>659</v>
       </c>
     </row>
-    <row r="77" spans="1:39">
+    <row r="77" spans="1:41">
       <c r="A77" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -9952,7 +10414,7 @@
         <v>0</v>
       </c>
       <c r="T77">
-        <v>501932</v>
+        <v>504642</v>
       </c>
       <c r="U77">
         <v>2</v>
@@ -9988,30 +10450,36 @@
         <v>2473942</v>
       </c>
       <c r="AG77">
-        <v>624376</v>
+        <v>627086</v>
       </c>
       <c r="AH77">
-        <v>0.8038938075774854</v>
+        <v>0.8047412954522984</v>
       </c>
       <c r="AI77">
+        <v>0.1027674035140316</v>
+      </c>
+      <c r="AJ77">
         <v>1990</v>
       </c>
-      <c r="AJ77">
-        <v>0</v>
-      </c>
       <c r="AK77">
         <v>0</v>
       </c>
       <c r="AL77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM77">
+        <v>0</v>
+      </c>
+      <c r="AN77">
+        <v>1</v>
+      </c>
+      <c r="AO77">
         <v>465</v>
       </c>
     </row>
-    <row r="78" spans="1:39">
+    <row r="78" spans="1:41">
       <c r="A78" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -10110,24 +10578,30 @@
         <v>1</v>
       </c>
       <c r="AI78">
+        <v>0</v>
+      </c>
+      <c r="AJ78">
         <v>1990</v>
       </c>
-      <c r="AJ78">
-        <v>0</v>
-      </c>
       <c r="AK78">
         <v>0</v>
       </c>
       <c r="AL78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM78">
+        <v>0</v>
+      </c>
+      <c r="AN78">
+        <v>1</v>
+      </c>
+      <c r="AO78">
         <v>10699.535</v>
       </c>
     </row>
-    <row r="79" spans="1:39">
+    <row r="79" spans="1:41">
       <c r="A79" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -10226,24 +10700,30 @@
         <v>1</v>
       </c>
       <c r="AI79">
+        <v>0</v>
+      </c>
+      <c r="AJ79">
         <v>1990</v>
       </c>
-      <c r="AJ79">
-        <v>0</v>
-      </c>
       <c r="AK79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL79">
         <v>1</v>
       </c>
       <c r="AM79">
+        <v>0</v>
+      </c>
+      <c r="AN79">
+        <v>1</v>
+      </c>
+      <c r="AO79">
         <v>5219.555</v>
       </c>
     </row>
-    <row r="80" spans="1:39">
+    <row r="80" spans="1:41">
       <c r="A80" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -10342,24 +10822,30 @@
         <v>1</v>
       </c>
       <c r="AI80">
+        <v>0</v>
+      </c>
+      <c r="AJ80">
         <v>1990</v>
       </c>
-      <c r="AJ80">
-        <v>0</v>
-      </c>
       <c r="AK80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL80">
         <v>1</v>
       </c>
       <c r="AM80">
+        <v>0</v>
+      </c>
+      <c r="AN80">
+        <v>1</v>
+      </c>
+      <c r="AO80">
         <v>14356.13</v>
       </c>
     </row>
-    <row r="81" spans="1:39">
+    <row r="81" spans="1:41">
       <c r="A81" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -10458,24 +10944,30 @@
         <v>1</v>
       </c>
       <c r="AI81">
+        <v>0</v>
+      </c>
+      <c r="AJ81">
         <v>1990</v>
       </c>
-      <c r="AJ81">
-        <v>0</v>
-      </c>
       <c r="AK81">
         <v>0</v>
       </c>
       <c r="AL81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM81">
+        <v>0</v>
+      </c>
+      <c r="AN81">
+        <v>1</v>
+      </c>
+      <c r="AO81">
         <v>9117.905000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:39">
+    <row r="82" spans="1:41">
       <c r="A82" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B82">
         <v>1</v>
@@ -10574,24 +11066,30 @@
         <v>1</v>
       </c>
       <c r="AI82">
+        <v>0</v>
+      </c>
+      <c r="AJ82">
         <v>1990</v>
       </c>
-      <c r="AJ82">
-        <v>0</v>
-      </c>
       <c r="AK82">
         <v>0</v>
       </c>
       <c r="AL82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM82">
+        <v>0</v>
+      </c>
+      <c r="AN82">
+        <v>1</v>
+      </c>
+      <c r="AO82">
         <v>13109.81</v>
       </c>
     </row>
-    <row r="83" spans="1:39">
+    <row r="83" spans="1:41">
       <c r="A83" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B83">
         <v>1</v>
@@ -10690,24 +11188,30 @@
         <v>1</v>
       </c>
       <c r="AI83">
+        <v>0</v>
+      </c>
+      <c r="AJ83">
         <v>1990</v>
       </c>
-      <c r="AJ83">
-        <v>0</v>
-      </c>
       <c r="AK83">
         <v>0</v>
       </c>
       <c r="AL83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM83">
+        <v>0</v>
+      </c>
+      <c r="AN83">
+        <v>1</v>
+      </c>
+      <c r="AO83">
         <v>1649.775</v>
       </c>
     </row>
-    <row r="84" spans="1:39">
+    <row r="84" spans="1:41">
       <c r="A84" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B84">
         <v>1</v>
@@ -10806,24 +11310,30 @@
         <v>1</v>
       </c>
       <c r="AI84">
+        <v>0</v>
+      </c>
+      <c r="AJ84">
         <v>1990</v>
       </c>
-      <c r="AJ84">
-        <v>0</v>
-      </c>
       <c r="AK84">
         <v>0</v>
       </c>
       <c r="AL84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM84">
+        <v>0</v>
+      </c>
+      <c r="AN84">
+        <v>1</v>
+      </c>
+      <c r="AO84">
         <v>1874.76</v>
       </c>
     </row>
-    <row r="85" spans="1:39">
+    <row r="85" spans="1:41">
       <c r="A85" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -10922,24 +11432,30 @@
         <v>1</v>
       </c>
       <c r="AI85">
+        <v>0</v>
+      </c>
+      <c r="AJ85">
         <v>1990</v>
       </c>
-      <c r="AJ85">
-        <v>0</v>
-      </c>
       <c r="AK85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL85">
         <v>1</v>
       </c>
       <c r="AM85">
+        <v>0</v>
+      </c>
+      <c r="AN85">
+        <v>1</v>
+      </c>
+      <c r="AO85">
         <v>4455.42</v>
       </c>
     </row>
-    <row r="86" spans="1:39">
+    <row r="86" spans="1:41">
       <c r="A86" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -11038,24 +11554,30 @@
         <v>1</v>
       </c>
       <c r="AI86">
+        <v>0</v>
+      </c>
+      <c r="AJ86">
         <v>1990</v>
       </c>
-      <c r="AJ86">
-        <v>0</v>
-      </c>
       <c r="AK86">
         <v>0</v>
       </c>
       <c r="AL86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM86">
+        <v>0</v>
+      </c>
+      <c r="AN86">
+        <v>1</v>
+      </c>
+      <c r="AO86">
         <v>3591.245</v>
       </c>
     </row>
-    <row r="87" spans="1:39">
+    <row r="87" spans="1:41">
       <c r="A87" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -11154,24 +11676,30 @@
         <v>1</v>
       </c>
       <c r="AI87">
+        <v>0</v>
+      </c>
+      <c r="AJ87">
         <v>1990</v>
       </c>
-      <c r="AJ87">
-        <v>0</v>
-      </c>
       <c r="AK87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL87">
         <v>1</v>
       </c>
       <c r="AM87">
+        <v>0</v>
+      </c>
+      <c r="AN87">
+        <v>1</v>
+      </c>
+      <c r="AO87">
         <v>5057.705</v>
       </c>
     </row>
-    <row r="88" spans="1:39">
+    <row r="88" spans="1:41">
       <c r="A88" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -11270,24 +11798,30 @@
         <v>1</v>
       </c>
       <c r="AI88">
+        <v>0</v>
+      </c>
+      <c r="AJ88">
         <v>1990</v>
       </c>
-      <c r="AJ88">
-        <v>0</v>
-      </c>
       <c r="AK88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL88">
         <v>1</v>
       </c>
       <c r="AM88">
+        <v>0</v>
+      </c>
+      <c r="AN88">
+        <v>1</v>
+      </c>
+      <c r="AO88">
         <v>25844.88</v>
       </c>
     </row>
-    <row r="89" spans="1:39">
+    <row r="89" spans="1:41">
       <c r="A89" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -11386,24 +11920,30 @@
         <v>1</v>
       </c>
       <c r="AI89">
+        <v>0</v>
+      </c>
+      <c r="AJ89">
         <v>1990</v>
       </c>
-      <c r="AJ89">
-        <v>0</v>
-      </c>
       <c r="AK89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL89">
         <v>1</v>
       </c>
       <c r="AM89">
+        <v>0</v>
+      </c>
+      <c r="AN89">
+        <v>1</v>
+      </c>
+      <c r="AO89">
         <v>14848.025</v>
       </c>
     </row>
-    <row r="90" spans="1:39">
+    <row r="90" spans="1:41">
       <c r="A90" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B90">
         <v>1</v>
@@ -11502,24 +12042,30 @@
         <v>1</v>
       </c>
       <c r="AI90">
+        <v>0</v>
+      </c>
+      <c r="AJ90">
         <v>1990</v>
       </c>
-      <c r="AJ90">
-        <v>0</v>
-      </c>
       <c r="AK90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL90">
         <v>1</v>
       </c>
       <c r="AM90">
+        <v>0</v>
+      </c>
+      <c r="AN90">
+        <v>1</v>
+      </c>
+      <c r="AO90">
         <v>1803.55</v>
       </c>
     </row>
-    <row r="91" spans="1:39">
+    <row r="91" spans="1:41">
       <c r="A91" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B91">
         <v>1</v>
@@ -11618,24 +12164,30 @@
         <v>1</v>
       </c>
       <c r="AI91">
+        <v>0</v>
+      </c>
+      <c r="AJ91">
         <v>1990</v>
       </c>
-      <c r="AJ91">
-        <v>0</v>
-      </c>
       <c r="AK91">
         <v>0</v>
       </c>
       <c r="AL91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM91">
+        <v>0</v>
+      </c>
+      <c r="AN91">
+        <v>1</v>
+      </c>
+      <c r="AO91">
         <v>9325.684999999999</v>
       </c>
     </row>
-    <row r="92" spans="1:39">
+    <row r="92" spans="1:41">
       <c r="A92" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B92">
         <v>1</v>
@@ -11734,24 +12286,30 @@
         <v>1</v>
       </c>
       <c r="AI92">
+        <v>0</v>
+      </c>
+      <c r="AJ92">
         <v>1990</v>
       </c>
-      <c r="AJ92">
-        <v>0</v>
-      </c>
       <c r="AK92">
         <v>0</v>
       </c>
       <c r="AL92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM92">
+        <v>0</v>
+      </c>
+      <c r="AN92">
+        <v>1</v>
+      </c>
+      <c r="AO92">
         <v>14118.69</v>
       </c>
     </row>
-    <row r="93" spans="1:39">
+    <row r="93" spans="1:41">
       <c r="A93" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B93">
         <v>1</v>
@@ -11850,24 +12408,30 @@
         <v>1</v>
       </c>
       <c r="AI93">
+        <v>0</v>
+      </c>
+      <c r="AJ93">
         <v>1990</v>
       </c>
-      <c r="AJ93">
-        <v>0</v>
-      </c>
       <c r="AK93">
         <v>0</v>
       </c>
       <c r="AL93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM93">
+        <v>0</v>
+      </c>
+      <c r="AN93">
+        <v>1</v>
+      </c>
+      <c r="AO93">
         <v>11795.31</v>
       </c>
     </row>
-    <row r="94" spans="1:39">
+    <row r="94" spans="1:41">
       <c r="A94" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -11966,24 +12530,30 @@
         <v>1</v>
       </c>
       <c r="AI94">
+        <v>0</v>
+      </c>
+      <c r="AJ94">
         <v>1990</v>
       </c>
-      <c r="AJ94">
-        <v>0</v>
-      </c>
       <c r="AK94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL94">
         <v>1</v>
       </c>
       <c r="AM94">
+        <v>0</v>
+      </c>
+      <c r="AN94">
+        <v>1</v>
+      </c>
+      <c r="AO94">
         <v>1442.665</v>
       </c>
     </row>
-    <row r="95" spans="1:39">
+    <row r="95" spans="1:41">
       <c r="A95" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -12082,24 +12652,30 @@
         <v>1</v>
       </c>
       <c r="AI95">
+        <v>0</v>
+      </c>
+      <c r="AJ95">
         <v>1990</v>
       </c>
-      <c r="AJ95">
-        <v>0</v>
-      </c>
       <c r="AK95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL95">
         <v>1</v>
       </c>
       <c r="AM95">
+        <v>0</v>
+      </c>
+      <c r="AN95">
+        <v>1</v>
+      </c>
+      <c r="AO95">
         <v>1415.285</v>
       </c>
     </row>
-    <row r="96" spans="1:39">
+    <row r="96" spans="1:41">
       <c r="A96" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B96">
         <v>1</v>
@@ -12198,24 +12774,30 @@
         <v>1</v>
       </c>
       <c r="AI96">
+        <v>0</v>
+      </c>
+      <c r="AJ96">
         <v>1990</v>
       </c>
-      <c r="AJ96">
-        <v>0</v>
-      </c>
       <c r="AK96">
         <v>0</v>
       </c>
       <c r="AL96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM96">
+        <v>0</v>
+      </c>
+      <c r="AN96">
+        <v>1</v>
+      </c>
+      <c r="AO96">
         <v>8361.049999999999</v>
       </c>
     </row>
-    <row r="97" spans="1:39">
+    <row r="97" spans="1:41">
       <c r="A97" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -12314,30 +12896,36 @@
         <v>1</v>
       </c>
       <c r="AI97">
+        <v>0</v>
+      </c>
+      <c r="AJ97">
         <v>1990</v>
       </c>
-      <c r="AJ97">
-        <v>0</v>
-      </c>
       <c r="AK97">
         <v>0</v>
       </c>
       <c r="AL97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM97">
+        <v>0</v>
+      </c>
+      <c r="AN97">
+        <v>1</v>
+      </c>
+      <c r="AO97">
         <v>1306.055</v>
       </c>
     </row>
-    <row r="98" spans="1:39">
+    <row r="98" spans="1:41">
       <c r="A98" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B98">
         <v>0</v>
       </c>
       <c r="C98" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -12430,24 +13018,30 @@
         <v>1</v>
       </c>
       <c r="AI98">
+        <v>0</v>
+      </c>
+      <c r="AJ98">
         <v>1990</v>
       </c>
-      <c r="AJ98">
-        <v>0</v>
-      </c>
       <c r="AK98">
         <v>0</v>
       </c>
       <c r="AL98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM98">
+        <v>0</v>
+      </c>
+      <c r="AN98">
+        <v>1</v>
+      </c>
+      <c r="AO98">
         <v>24985.68</v>
       </c>
     </row>
-    <row r="99" spans="1:39">
+    <row r="99" spans="1:41">
       <c r="A99" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -12546,24 +13140,30 @@
         <v>1</v>
       </c>
       <c r="AI99">
+        <v>0</v>
+      </c>
+      <c r="AJ99">
         <v>1990</v>
       </c>
-      <c r="AJ99">
-        <v>0</v>
-      </c>
       <c r="AK99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL99">
         <v>1</v>
       </c>
       <c r="AM99">
+        <v>0</v>
+      </c>
+      <c r="AN99">
+        <v>1</v>
+      </c>
+      <c r="AO99">
         <v>509.885</v>
       </c>
     </row>
-    <row r="100" spans="1:39">
+    <row r="100" spans="1:41">
       <c r="A100" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B100">
         <v>1</v>
@@ -12662,24 +13262,30 @@
         <v>1</v>
       </c>
       <c r="AI100">
+        <v>0</v>
+      </c>
+      <c r="AJ100">
         <v>1990</v>
       </c>
-      <c r="AJ100">
-        <v>0</v>
-      </c>
       <c r="AK100">
         <v>0</v>
       </c>
       <c r="AL100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM100">
+        <v>0</v>
+      </c>
+      <c r="AN100">
+        <v>1</v>
+      </c>
+      <c r="AO100">
         <v>1255.04</v>
       </c>
     </row>
-    <row r="101" spans="1:39">
+    <row r="101" spans="1:41">
       <c r="A101" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -12778,24 +13384,30 @@
         <v>1</v>
       </c>
       <c r="AI101">
+        <v>0</v>
+      </c>
+      <c r="AJ101">
         <v>1990</v>
       </c>
-      <c r="AJ101">
-        <v>0</v>
-      </c>
       <c r="AK101">
         <v>0</v>
       </c>
       <c r="AL101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM101">
+        <v>0</v>
+      </c>
+      <c r="AN101">
+        <v>1</v>
+      </c>
+      <c r="AO101">
         <v>1541.405</v>
       </c>
     </row>
-    <row r="102" spans="1:39">
+    <row r="102" spans="1:41">
       <c r="A102" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -12894,24 +13506,30 @@
         <v>1</v>
       </c>
       <c r="AI102">
+        <v>0</v>
+      </c>
+      <c r="AJ102">
         <v>1990</v>
       </c>
-      <c r="AJ102">
-        <v>0</v>
-      </c>
       <c r="AK102">
         <v>0</v>
       </c>
       <c r="AL102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM102">
+        <v>0</v>
+      </c>
+      <c r="AN102">
+        <v>1</v>
+      </c>
+      <c r="AO102">
         <v>2055.21</v>
       </c>
     </row>
-    <row r="103" spans="1:39">
+    <row r="103" spans="1:41">
       <c r="A103" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -13010,24 +13628,30 @@
         <v>1</v>
       </c>
       <c r="AI103">
+        <v>0</v>
+      </c>
+      <c r="AJ103">
         <v>1990</v>
       </c>
-      <c r="AJ103">
-        <v>0</v>
-      </c>
       <c r="AK103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL103">
         <v>1</v>
       </c>
       <c r="AM103">
+        <v>0</v>
+      </c>
+      <c r="AN103">
+        <v>1</v>
+      </c>
+      <c r="AO103">
         <v>13786.555</v>
       </c>
     </row>
-    <row r="104" spans="1:39">
+    <row r="104" spans="1:41">
       <c r="A104" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -13126,24 +13750,30 @@
         <v>1</v>
       </c>
       <c r="AI104">
+        <v>0</v>
+      </c>
+      <c r="AJ104">
         <v>1990</v>
       </c>
-      <c r="AJ104">
-        <v>0</v>
-      </c>
       <c r="AK104">
         <v>0</v>
       </c>
       <c r="AL104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM104">
+        <v>0</v>
+      </c>
+      <c r="AN104">
+        <v>1</v>
+      </c>
+      <c r="AO104">
         <v>29029.81</v>
       </c>
     </row>
-    <row r="105" spans="1:39">
+    <row r="105" spans="1:41">
       <c r="A105" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B105">
         <v>0</v>
@@ -13242,24 +13872,30 @@
         <v>1</v>
       </c>
       <c r="AI105">
+        <v>0</v>
+      </c>
+      <c r="AJ105">
         <v>1990</v>
       </c>
-      <c r="AJ105">
-        <v>0</v>
-      </c>
       <c r="AK105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL105">
         <v>1</v>
       </c>
       <c r="AM105">
+        <v>0</v>
+      </c>
+      <c r="AN105">
+        <v>1</v>
+      </c>
+      <c r="AO105">
         <v>4029.15</v>
       </c>
     </row>
-    <row r="106" spans="1:39">
+    <row r="106" spans="1:41">
       <c r="A106" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B106">
         <v>1</v>
@@ -13358,24 +13994,30 @@
         <v>1</v>
       </c>
       <c r="AI106">
+        <v>0</v>
+      </c>
+      <c r="AJ106">
         <v>1990</v>
       </c>
-      <c r="AJ106">
-        <v>0</v>
-      </c>
       <c r="AK106">
         <v>0</v>
       </c>
       <c r="AL106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM106">
+        <v>0</v>
+      </c>
+      <c r="AN106">
+        <v>1</v>
+      </c>
+      <c r="AO106">
         <v>974.075</v>
       </c>
     </row>
-    <row r="107" spans="1:39">
+    <row r="107" spans="1:41">
       <c r="A107" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B107">
         <v>0</v>
@@ -13474,24 +14116,30 @@
         <v>1</v>
       </c>
       <c r="AI107">
+        <v>0</v>
+      </c>
+      <c r="AJ107">
         <v>1990</v>
       </c>
-      <c r="AJ107">
-        <v>0</v>
-      </c>
       <c r="AK107">
         <v>0</v>
       </c>
       <c r="AL107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM107">
+        <v>0</v>
+      </c>
+      <c r="AN107">
+        <v>1</v>
+      </c>
+      <c r="AO107">
         <v>10699.535</v>
       </c>
     </row>
-    <row r="108" spans="1:39">
+    <row r="108" spans="1:41">
       <c r="A108" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -13590,24 +14238,30 @@
         <v>1</v>
       </c>
       <c r="AI108">
+        <v>0</v>
+      </c>
+      <c r="AJ108">
         <v>1990</v>
       </c>
-      <c r="AJ108">
-        <v>0</v>
-      </c>
       <c r="AK108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL108">
         <v>1</v>
       </c>
       <c r="AM108">
+        <v>0</v>
+      </c>
+      <c r="AN108">
+        <v>1</v>
+      </c>
+      <c r="AO108">
         <v>5219.555</v>
       </c>
     </row>
-    <row r="109" spans="1:39">
+    <row r="109" spans="1:41">
       <c r="A109" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -13706,24 +14360,30 @@
         <v>1</v>
       </c>
       <c r="AI109">
+        <v>0</v>
+      </c>
+      <c r="AJ109">
         <v>1990</v>
       </c>
-      <c r="AJ109">
-        <v>0</v>
-      </c>
       <c r="AK109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL109">
         <v>1</v>
       </c>
       <c r="AM109">
+        <v>0</v>
+      </c>
+      <c r="AN109">
+        <v>1</v>
+      </c>
+      <c r="AO109">
         <v>14356.13</v>
       </c>
     </row>
-    <row r="110" spans="1:39">
+    <row r="110" spans="1:41">
       <c r="A110" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B110">
         <v>0</v>
@@ -13822,24 +14482,30 @@
         <v>1</v>
       </c>
       <c r="AI110">
+        <v>0</v>
+      </c>
+      <c r="AJ110">
         <v>1990</v>
       </c>
-      <c r="AJ110">
-        <v>0</v>
-      </c>
       <c r="AK110">
         <v>0</v>
       </c>
       <c r="AL110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM110">
+        <v>0</v>
+      </c>
+      <c r="AN110">
+        <v>1</v>
+      </c>
+      <c r="AO110">
         <v>9117.905000000001</v>
       </c>
     </row>
-    <row r="111" spans="1:39">
+    <row r="111" spans="1:41">
       <c r="A111" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B111">
         <v>1</v>
@@ -13938,24 +14604,30 @@
         <v>1</v>
       </c>
       <c r="AI111">
+        <v>0</v>
+      </c>
+      <c r="AJ111">
         <v>1990</v>
       </c>
-      <c r="AJ111">
-        <v>0</v>
-      </c>
       <c r="AK111">
         <v>0</v>
       </c>
       <c r="AL111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM111">
+        <v>0</v>
+      </c>
+      <c r="AN111">
+        <v>1</v>
+      </c>
+      <c r="AO111">
         <v>13109.81</v>
       </c>
     </row>
-    <row r="112" spans="1:39">
+    <row r="112" spans="1:41">
       <c r="A112" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B112">
         <v>1</v>
@@ -14054,24 +14726,30 @@
         <v>1</v>
       </c>
       <c r="AI112">
+        <v>0</v>
+      </c>
+      <c r="AJ112">
         <v>1990</v>
       </c>
-      <c r="AJ112">
-        <v>0</v>
-      </c>
       <c r="AK112">
         <v>0</v>
       </c>
       <c r="AL112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM112">
+        <v>0</v>
+      </c>
+      <c r="AN112">
+        <v>1</v>
+      </c>
+      <c r="AO112">
         <v>1649.775</v>
       </c>
     </row>
-    <row r="113" spans="1:39">
+    <row r="113" spans="1:41">
       <c r="A113" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B113">
         <v>1</v>
@@ -14170,24 +14848,30 @@
         <v>1</v>
       </c>
       <c r="AI113">
+        <v>0</v>
+      </c>
+      <c r="AJ113">
         <v>1990</v>
       </c>
-      <c r="AJ113">
-        <v>0</v>
-      </c>
       <c r="AK113">
         <v>0</v>
       </c>
       <c r="AL113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM113">
+        <v>0</v>
+      </c>
+      <c r="AN113">
+        <v>1</v>
+      </c>
+      <c r="AO113">
         <v>1874.76</v>
       </c>
     </row>
-    <row r="114" spans="1:39">
+    <row r="114" spans="1:41">
       <c r="A114" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B114">
         <v>0</v>
@@ -14286,24 +14970,30 @@
         <v>1</v>
       </c>
       <c r="AI114">
+        <v>0</v>
+      </c>
+      <c r="AJ114">
         <v>1990</v>
       </c>
-      <c r="AJ114">
-        <v>0</v>
-      </c>
       <c r="AK114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL114">
         <v>1</v>
       </c>
       <c r="AM114">
+        <v>0</v>
+      </c>
+      <c r="AN114">
+        <v>1</v>
+      </c>
+      <c r="AO114">
         <v>4455.42</v>
       </c>
     </row>
-    <row r="115" spans="1:39">
+    <row r="115" spans="1:41">
       <c r="A115" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B115">
         <v>0</v>
@@ -14402,24 +15092,30 @@
         <v>1</v>
       </c>
       <c r="AI115">
+        <v>0</v>
+      </c>
+      <c r="AJ115">
         <v>1990</v>
       </c>
-      <c r="AJ115">
-        <v>0</v>
-      </c>
       <c r="AK115">
         <v>0</v>
       </c>
       <c r="AL115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM115">
+        <v>0</v>
+      </c>
+      <c r="AN115">
+        <v>1</v>
+      </c>
+      <c r="AO115">
         <v>3591.245</v>
       </c>
     </row>
-    <row r="116" spans="1:39">
+    <row r="116" spans="1:41">
       <c r="A116" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B116">
         <v>0</v>
@@ -14518,24 +15214,30 @@
         <v>1</v>
       </c>
       <c r="AI116">
+        <v>0</v>
+      </c>
+      <c r="AJ116">
         <v>1990</v>
       </c>
-      <c r="AJ116">
-        <v>0</v>
-      </c>
       <c r="AK116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL116">
         <v>1</v>
       </c>
       <c r="AM116">
+        <v>0</v>
+      </c>
+      <c r="AN116">
+        <v>1</v>
+      </c>
+      <c r="AO116">
         <v>5057.705</v>
       </c>
     </row>
-    <row r="117" spans="1:39">
+    <row r="117" spans="1:41">
       <c r="A117" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -14634,24 +15336,30 @@
         <v>1</v>
       </c>
       <c r="AI117">
+        <v>0</v>
+      </c>
+      <c r="AJ117">
         <v>1990</v>
       </c>
-      <c r="AJ117">
-        <v>0</v>
-      </c>
       <c r="AK117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL117">
         <v>1</v>
       </c>
       <c r="AM117">
+        <v>0</v>
+      </c>
+      <c r="AN117">
+        <v>1</v>
+      </c>
+      <c r="AO117">
         <v>25844.88</v>
       </c>
     </row>
-    <row r="118" spans="1:39">
+    <row r="118" spans="1:41">
       <c r="A118" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B118">
         <v>0</v>
@@ -14750,24 +15458,30 @@
         <v>1</v>
       </c>
       <c r="AI118">
+        <v>0</v>
+      </c>
+      <c r="AJ118">
         <v>1990</v>
       </c>
-      <c r="AJ118">
-        <v>0</v>
-      </c>
       <c r="AK118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL118">
         <v>1</v>
       </c>
       <c r="AM118">
+        <v>0</v>
+      </c>
+      <c r="AN118">
+        <v>1</v>
+      </c>
+      <c r="AO118">
         <v>14848.025</v>
       </c>
     </row>
-    <row r="119" spans="1:39">
+    <row r="119" spans="1:41">
       <c r="A119" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B119">
         <v>1</v>
@@ -14866,24 +15580,30 @@
         <v>1</v>
       </c>
       <c r="AI119">
+        <v>0</v>
+      </c>
+      <c r="AJ119">
         <v>1990</v>
       </c>
-      <c r="AJ119">
-        <v>0</v>
-      </c>
       <c r="AK119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL119">
         <v>1</v>
       </c>
       <c r="AM119">
+        <v>0</v>
+      </c>
+      <c r="AN119">
+        <v>1</v>
+      </c>
+      <c r="AO119">
         <v>1803.55</v>
       </c>
     </row>
-    <row r="120" spans="1:39">
+    <row r="120" spans="1:41">
       <c r="A120" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B120">
         <v>1</v>
@@ -14982,24 +15702,30 @@
         <v>1</v>
       </c>
       <c r="AI120">
+        <v>0</v>
+      </c>
+      <c r="AJ120">
         <v>1990</v>
       </c>
-      <c r="AJ120">
-        <v>0</v>
-      </c>
       <c r="AK120">
         <v>0</v>
       </c>
       <c r="AL120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM120">
+        <v>0</v>
+      </c>
+      <c r="AN120">
+        <v>1</v>
+      </c>
+      <c r="AO120">
         <v>9325.684999999999</v>
       </c>
     </row>
-    <row r="121" spans="1:39">
+    <row r="121" spans="1:41">
       <c r="A121" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B121">
         <v>1</v>
@@ -15098,24 +15824,30 @@
         <v>1</v>
       </c>
       <c r="AI121">
+        <v>0</v>
+      </c>
+      <c r="AJ121">
         <v>1990</v>
       </c>
-      <c r="AJ121">
-        <v>0</v>
-      </c>
       <c r="AK121">
         <v>0</v>
       </c>
       <c r="AL121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM121">
+        <v>0</v>
+      </c>
+      <c r="AN121">
+        <v>1</v>
+      </c>
+      <c r="AO121">
         <v>14118.69</v>
       </c>
     </row>
-    <row r="122" spans="1:39">
+    <row r="122" spans="1:41">
       <c r="A122" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B122">
         <v>1</v>
@@ -15214,24 +15946,30 @@
         <v>1</v>
       </c>
       <c r="AI122">
+        <v>0</v>
+      </c>
+      <c r="AJ122">
         <v>1990</v>
       </c>
-      <c r="AJ122">
-        <v>0</v>
-      </c>
       <c r="AK122">
         <v>0</v>
       </c>
       <c r="AL122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM122">
+        <v>0</v>
+      </c>
+      <c r="AN122">
+        <v>1</v>
+      </c>
+      <c r="AO122">
         <v>11795.31</v>
       </c>
     </row>
-    <row r="123" spans="1:39">
+    <row r="123" spans="1:41">
       <c r="A123" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B123">
         <v>0</v>
@@ -15330,24 +16068,30 @@
         <v>1</v>
       </c>
       <c r="AI123">
+        <v>0</v>
+      </c>
+      <c r="AJ123">
         <v>1990</v>
       </c>
-      <c r="AJ123">
-        <v>0</v>
-      </c>
       <c r="AK123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL123">
         <v>1</v>
       </c>
       <c r="AM123">
+        <v>0</v>
+      </c>
+      <c r="AN123">
+        <v>1</v>
+      </c>
+      <c r="AO123">
         <v>1442.665</v>
       </c>
     </row>
-    <row r="124" spans="1:39">
+    <row r="124" spans="1:41">
       <c r="A124" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B124">
         <v>0</v>
@@ -15446,24 +16190,30 @@
         <v>1</v>
       </c>
       <c r="AI124">
+        <v>0</v>
+      </c>
+      <c r="AJ124">
         <v>1990</v>
       </c>
-      <c r="AJ124">
-        <v>0</v>
-      </c>
       <c r="AK124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL124">
         <v>1</v>
       </c>
       <c r="AM124">
+        <v>0</v>
+      </c>
+      <c r="AN124">
+        <v>1</v>
+      </c>
+      <c r="AO124">
         <v>1415.285</v>
       </c>
     </row>
-    <row r="125" spans="1:39">
+    <row r="125" spans="1:41">
       <c r="A125" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B125">
         <v>1</v>
@@ -15562,24 +16312,30 @@
         <v>1</v>
       </c>
       <c r="AI125">
+        <v>0</v>
+      </c>
+      <c r="AJ125">
         <v>1990</v>
       </c>
-      <c r="AJ125">
-        <v>0</v>
-      </c>
       <c r="AK125">
         <v>0</v>
       </c>
       <c r="AL125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM125">
+        <v>0</v>
+      </c>
+      <c r="AN125">
+        <v>1</v>
+      </c>
+      <c r="AO125">
         <v>8361.049999999999</v>
       </c>
     </row>
-    <row r="126" spans="1:39">
+    <row r="126" spans="1:41">
       <c r="A126" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B126">
         <v>0</v>
@@ -15678,30 +16434,36 @@
         <v>1</v>
       </c>
       <c r="AI126">
+        <v>0</v>
+      </c>
+      <c r="AJ126">
         <v>1990</v>
       </c>
-      <c r="AJ126">
-        <v>0</v>
-      </c>
       <c r="AK126">
         <v>0</v>
       </c>
       <c r="AL126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM126">
+        <v>0</v>
+      </c>
+      <c r="AN126">
+        <v>1</v>
+      </c>
+      <c r="AO126">
         <v>1306.055</v>
       </c>
     </row>
-    <row r="127" spans="1:39">
+    <row r="127" spans="1:41">
       <c r="A127" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B127">
         <v>0</v>
       </c>
       <c r="C127" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D127">
         <v>0</v>
@@ -15794,24 +16556,30 @@
         <v>1</v>
       </c>
       <c r="AI127">
+        <v>0</v>
+      </c>
+      <c r="AJ127">
         <v>1990</v>
       </c>
-      <c r="AJ127">
-        <v>0</v>
-      </c>
       <c r="AK127">
         <v>0</v>
       </c>
       <c r="AL127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM127">
+        <v>0</v>
+      </c>
+      <c r="AN127">
+        <v>1</v>
+      </c>
+      <c r="AO127">
         <v>24985.68</v>
       </c>
     </row>
-    <row r="128" spans="1:39">
+    <row r="128" spans="1:41">
       <c r="A128" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B128">
         <v>0</v>
@@ -15910,24 +16678,30 @@
         <v>1</v>
       </c>
       <c r="AI128">
+        <v>0</v>
+      </c>
+      <c r="AJ128">
         <v>1990</v>
       </c>
-      <c r="AJ128">
-        <v>0</v>
-      </c>
       <c r="AK128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL128">
         <v>1</v>
       </c>
       <c r="AM128">
+        <v>0</v>
+      </c>
+      <c r="AN128">
+        <v>1</v>
+      </c>
+      <c r="AO128">
         <v>509.885</v>
       </c>
     </row>
-    <row r="129" spans="1:39">
+    <row r="129" spans="1:41">
       <c r="A129" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B129">
         <v>1</v>
@@ -16026,24 +16800,30 @@
         <v>1</v>
       </c>
       <c r="AI129">
+        <v>0</v>
+      </c>
+      <c r="AJ129">
         <v>1990</v>
       </c>
-      <c r="AJ129">
-        <v>0</v>
-      </c>
       <c r="AK129">
         <v>0</v>
       </c>
       <c r="AL129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM129">
+        <v>0</v>
+      </c>
+      <c r="AN129">
+        <v>1</v>
+      </c>
+      <c r="AO129">
         <v>1255.04</v>
       </c>
     </row>
-    <row r="130" spans="1:39">
+    <row r="130" spans="1:41">
       <c r="A130" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B130">
         <v>0</v>
@@ -16142,24 +16922,30 @@
         <v>1</v>
       </c>
       <c r="AI130">
+        <v>0</v>
+      </c>
+      <c r="AJ130">
         <v>1990</v>
       </c>
-      <c r="AJ130">
-        <v>0</v>
-      </c>
       <c r="AK130">
         <v>0</v>
       </c>
       <c r="AL130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM130">
+        <v>0</v>
+      </c>
+      <c r="AN130">
+        <v>1</v>
+      </c>
+      <c r="AO130">
         <v>1541.405</v>
       </c>
     </row>
-    <row r="131" spans="1:39">
+    <row r="131" spans="1:41">
       <c r="A131" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B131">
         <v>0</v>
@@ -16258,24 +17044,30 @@
         <v>1</v>
       </c>
       <c r="AI131">
+        <v>0</v>
+      </c>
+      <c r="AJ131">
         <v>1990</v>
       </c>
-      <c r="AJ131">
-        <v>0</v>
-      </c>
       <c r="AK131">
         <v>0</v>
       </c>
       <c r="AL131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM131">
+        <v>0</v>
+      </c>
+      <c r="AN131">
+        <v>1</v>
+      </c>
+      <c r="AO131">
         <v>2055.21</v>
       </c>
     </row>
-    <row r="132" spans="1:39">
+    <row r="132" spans="1:41">
       <c r="A132" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B132">
         <v>0</v>
@@ -16374,24 +17166,30 @@
         <v>1</v>
       </c>
       <c r="AI132">
+        <v>0</v>
+      </c>
+      <c r="AJ132">
         <v>1990</v>
       </c>
-      <c r="AJ132">
-        <v>0</v>
-      </c>
       <c r="AK132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL132">
         <v>1</v>
       </c>
       <c r="AM132">
+        <v>0</v>
+      </c>
+      <c r="AN132">
+        <v>1</v>
+      </c>
+      <c r="AO132">
         <v>13786.555</v>
       </c>
     </row>
-    <row r="133" spans="1:39">
+    <row r="133" spans="1:41">
       <c r="A133" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B133">
         <v>1</v>
@@ -16490,24 +17288,30 @@
         <v>1</v>
       </c>
       <c r="AI133">
+        <v>0</v>
+      </c>
+      <c r="AJ133">
         <v>1990</v>
       </c>
-      <c r="AJ133">
-        <v>0</v>
-      </c>
       <c r="AK133">
         <v>0</v>
       </c>
       <c r="AL133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM133">
+        <v>0</v>
+      </c>
+      <c r="AN133">
+        <v>1</v>
+      </c>
+      <c r="AO133">
         <v>29029.81</v>
       </c>
     </row>
-    <row r="134" spans="1:39">
+    <row r="134" spans="1:41">
       <c r="A134" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B134">
         <v>0</v>
@@ -16606,24 +17410,30 @@
         <v>1</v>
       </c>
       <c r="AI134">
+        <v>0</v>
+      </c>
+      <c r="AJ134">
         <v>1990</v>
       </c>
-      <c r="AJ134">
-        <v>0</v>
-      </c>
       <c r="AK134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL134">
         <v>1</v>
       </c>
       <c r="AM134">
+        <v>0</v>
+      </c>
+      <c r="AN134">
+        <v>1</v>
+      </c>
+      <c r="AO134">
         <v>4029.15</v>
       </c>
     </row>
-    <row r="135" spans="1:39">
+    <row r="135" spans="1:41">
       <c r="A135" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B135">
         <v>1</v>
@@ -16722,24 +17532,30 @@
         <v>1</v>
       </c>
       <c r="AI135">
+        <v>0</v>
+      </c>
+      <c r="AJ135">
         <v>1990</v>
       </c>
-      <c r="AJ135">
-        <v>0</v>
-      </c>
       <c r="AK135">
         <v>0</v>
       </c>
       <c r="AL135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM135">
+        <v>0</v>
+      </c>
+      <c r="AN135">
+        <v>1</v>
+      </c>
+      <c r="AO135">
         <v>974.075</v>
       </c>
     </row>
-    <row r="136" spans="1:39">
+    <row r="136" spans="1:41">
       <c r="A136" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B136">
         <v>0</v>
@@ -16796,7 +17612,7 @@
         <v>0</v>
       </c>
       <c r="T136">
-        <v>674689.28</v>
+        <v>707589.28</v>
       </c>
       <c r="U136">
         <v>6</v>
@@ -16832,30 +17648,36 @@
         <v>10602689</v>
       </c>
       <c r="AG136">
-        <v>693225.4500000001</v>
+        <v>726125.4500000001</v>
       </c>
       <c r="AH136">
-        <v>0.9732609788056684</v>
+        <v>0.9744724964536086</v>
       </c>
       <c r="AI136">
+        <v>0</v>
+      </c>
+      <c r="AJ136">
         <v>1990</v>
       </c>
-      <c r="AJ136">
-        <v>0</v>
-      </c>
       <c r="AK136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL136">
         <v>1</v>
       </c>
       <c r="AM136">
+        <v>0</v>
+      </c>
+      <c r="AN136">
+        <v>1</v>
+      </c>
+      <c r="AO136">
         <v>82.77500000000001</v>
       </c>
     </row>
-    <row r="137" spans="1:39">
+    <row r="137" spans="1:41">
       <c r="A137" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B137">
         <v>0</v>
@@ -16912,7 +17734,7 @@
         <v>0</v>
       </c>
       <c r="T137">
-        <v>674689.28</v>
+        <v>707589.28</v>
       </c>
       <c r="U137">
         <v>6</v>
@@ -16948,30 +17770,36 @@
         <v>0</v>
       </c>
       <c r="AG137">
-        <v>693225.4500000001</v>
+        <v>726125.4500000001</v>
       </c>
       <c r="AH137">
-        <v>0.9732609788056684</v>
+        <v>0.9744724964536086</v>
       </c>
       <c r="AI137">
+        <v>0</v>
+      </c>
+      <c r="AJ137">
         <v>1990</v>
       </c>
-      <c r="AJ137">
-        <v>0</v>
-      </c>
       <c r="AK137">
         <v>0</v>
       </c>
       <c r="AL137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM137">
+        <v>0</v>
+      </c>
+      <c r="AN137">
+        <v>1</v>
+      </c>
+      <c r="AO137">
         <v>1244.655</v>
       </c>
     </row>
-    <row r="138" spans="1:39">
+    <row r="138" spans="1:41">
       <c r="A138" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B138">
         <v>0</v>
@@ -17028,7 +17856,7 @@
         <v>0</v>
       </c>
       <c r="T138">
-        <v>674689.28</v>
+        <v>707589.28</v>
       </c>
       <c r="U138">
         <v>6</v>
@@ -17064,30 +17892,36 @@
         <v>10535466</v>
       </c>
       <c r="AG138">
-        <v>693225.4500000001</v>
+        <v>726125.4500000001</v>
       </c>
       <c r="AH138">
-        <v>0.9732609788056684</v>
+        <v>0.9744724964536086</v>
       </c>
       <c r="AI138">
+        <v>0</v>
+      </c>
+      <c r="AJ138">
         <v>1990</v>
       </c>
-      <c r="AJ138">
-        <v>0</v>
-      </c>
       <c r="AK138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL138">
         <v>1</v>
       </c>
       <c r="AM138">
+        <v>0</v>
+      </c>
+      <c r="AN138">
+        <v>1</v>
+      </c>
+      <c r="AO138">
         <v>8958.885</v>
       </c>
     </row>
-    <row r="139" spans="1:39">
+    <row r="139" spans="1:41">
       <c r="A139" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B139">
         <v>0</v>
@@ -17144,7 +17978,7 @@
         <v>0</v>
       </c>
       <c r="T139">
-        <v>674689.28</v>
+        <v>707589.28</v>
       </c>
       <c r="U139">
         <v>6</v>
@@ -17180,30 +18014,36 @@
         <v>0</v>
       </c>
       <c r="AG139">
-        <v>693225.4500000001</v>
+        <v>726125.4500000001</v>
       </c>
       <c r="AH139">
-        <v>0.9732609788056684</v>
+        <v>0.9744724964536086</v>
       </c>
       <c r="AI139">
+        <v>0</v>
+      </c>
+      <c r="AJ139">
         <v>1990</v>
       </c>
-      <c r="AJ139">
-        <v>0</v>
-      </c>
       <c r="AK139">
         <v>0</v>
       </c>
       <c r="AL139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM139">
+        <v>0</v>
+      </c>
+      <c r="AN139">
+        <v>1</v>
+      </c>
+      <c r="AO139">
         <v>73.79000000000001</v>
       </c>
     </row>
-    <row r="140" spans="1:39">
+    <row r="140" spans="1:41">
       <c r="A140" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B140">
         <v>0</v>
@@ -17260,7 +18100,7 @@
         <v>0</v>
       </c>
       <c r="T140">
-        <v>674689.28</v>
+        <v>707589.28</v>
       </c>
       <c r="U140">
         <v>6</v>
@@ -17296,30 +18136,36 @@
         <v>6011154</v>
       </c>
       <c r="AG140">
-        <v>693225.4500000001</v>
+        <v>726125.4500000001</v>
       </c>
       <c r="AH140">
-        <v>0.9732609788056684</v>
+        <v>0.9744724964536086</v>
       </c>
       <c r="AI140">
+        <v>0</v>
+      </c>
+      <c r="AJ140">
         <v>1990</v>
       </c>
-      <c r="AJ140">
-        <v>0</v>
-      </c>
       <c r="AK140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL140">
         <v>1</v>
       </c>
       <c r="AM140">
+        <v>0</v>
+      </c>
+      <c r="AN140">
+        <v>1</v>
+      </c>
+      <c r="AO140">
         <v>5657.14</v>
       </c>
     </row>
-    <row r="141" spans="1:39">
+    <row r="141" spans="1:41">
       <c r="A141" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B141">
         <v>1</v>
@@ -17376,7 +18222,7 @@
         <v>0</v>
       </c>
       <c r="T141">
-        <v>674689.28</v>
+        <v>707589.28</v>
       </c>
       <c r="U141">
         <v>6</v>
@@ -17412,30 +18258,36 @@
         <v>7960000</v>
       </c>
       <c r="AG141">
-        <v>693225.4500000001</v>
+        <v>726125.4500000001</v>
       </c>
       <c r="AH141">
-        <v>0.9732609788056684</v>
+        <v>0.9744724964536086</v>
       </c>
       <c r="AI141">
+        <v>0</v>
+      </c>
+      <c r="AJ141">
         <v>1990</v>
       </c>
-      <c r="AJ141">
-        <v>0</v>
-      </c>
       <c r="AK141">
         <v>0</v>
       </c>
       <c r="AL141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM141">
+        <v>0</v>
+      </c>
+      <c r="AN141">
+        <v>1</v>
+      </c>
+      <c r="AO141">
         <v>57.915</v>
       </c>
     </row>
-    <row r="142" spans="1:39">
+    <row r="142" spans="1:41">
       <c r="A142" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B142">
         <v>1</v>
@@ -17492,7 +18344,7 @@
         <v>0</v>
       </c>
       <c r="T142">
-        <v>674689.28</v>
+        <v>707589.28</v>
       </c>
       <c r="U142">
         <v>6</v>
@@ -17528,30 +18380,36 @@
         <v>0</v>
       </c>
       <c r="AG142">
-        <v>693225.4500000001</v>
+        <v>726125.4500000001</v>
       </c>
       <c r="AH142">
-        <v>0.9732609788056684</v>
+        <v>0.9744724964536086</v>
       </c>
       <c r="AI142">
+        <v>0</v>
+      </c>
+      <c r="AJ142">
         <v>1990</v>
       </c>
-      <c r="AJ142">
-        <v>0</v>
-      </c>
       <c r="AK142">
         <v>0</v>
       </c>
       <c r="AL142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM142">
+        <v>0</v>
+      </c>
+      <c r="AN142">
+        <v>1</v>
+      </c>
+      <c r="AO142">
         <v>131.965</v>
       </c>
     </row>
-    <row r="143" spans="1:39">
+    <row r="143" spans="1:41">
       <c r="A143" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -17608,7 +18466,7 @@
         <v>0</v>
       </c>
       <c r="T143">
-        <v>674689.28</v>
+        <v>707589.28</v>
       </c>
       <c r="U143">
         <v>6</v>
@@ -17644,30 +18502,36 @@
         <v>6909225</v>
       </c>
       <c r="AG143">
-        <v>693225.4500000001</v>
+        <v>726125.4500000001</v>
       </c>
       <c r="AH143">
-        <v>0.9732609788056684</v>
+        <v>0.9744724964536086</v>
       </c>
       <c r="AI143">
+        <v>0</v>
+      </c>
+      <c r="AJ143">
         <v>1990</v>
       </c>
-      <c r="AJ143">
-        <v>0</v>
-      </c>
       <c r="AK143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL143">
         <v>1</v>
       </c>
       <c r="AM143">
+        <v>0</v>
+      </c>
+      <c r="AN143">
+        <v>1</v>
+      </c>
+      <c r="AO143">
         <v>140.605</v>
       </c>
     </row>
-    <row r="144" spans="1:39">
+    <row r="144" spans="1:41">
       <c r="A144" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B144">
         <v>1</v>
@@ -17724,7 +18588,7 @@
         <v>0</v>
       </c>
       <c r="T144">
-        <v>674689.28</v>
+        <v>707589.28</v>
       </c>
       <c r="U144">
         <v>6</v>
@@ -17760,30 +18624,36 @@
         <v>5000000</v>
       </c>
       <c r="AG144">
-        <v>693225.4500000001</v>
+        <v>726125.4500000001</v>
       </c>
       <c r="AH144">
-        <v>0.9732609788056684</v>
+        <v>0.9744724964536086</v>
       </c>
       <c r="AI144">
+        <v>0</v>
+      </c>
+      <c r="AJ144">
         <v>1990</v>
       </c>
-      <c r="AJ144">
-        <v>0</v>
-      </c>
       <c r="AK144">
         <v>0</v>
       </c>
       <c r="AL144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM144">
+        <v>0</v>
+      </c>
+      <c r="AN144">
+        <v>1</v>
+      </c>
+      <c r="AO144">
         <v>13.66</v>
       </c>
     </row>
-    <row r="145" spans="1:39">
+    <row r="145" spans="1:41">
       <c r="A145" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B145">
         <v>0</v>
@@ -17840,7 +18710,7 @@
         <v>0</v>
       </c>
       <c r="T145">
-        <v>674689.28</v>
+        <v>707589.28</v>
       </c>
       <c r="U145">
         <v>6</v>
@@ -17876,30 +18746,36 @@
         <v>8125000</v>
       </c>
       <c r="AG145">
-        <v>693225.4500000001</v>
+        <v>726125.4500000001</v>
       </c>
       <c r="AH145">
-        <v>0.9732609788056684</v>
+        <v>0.9744724964536086</v>
       </c>
       <c r="AI145">
+        <v>0</v>
+      </c>
+      <c r="AJ145">
         <v>1990</v>
       </c>
-      <c r="AJ145">
-        <v>0</v>
-      </c>
       <c r="AK145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL145">
         <v>1</v>
       </c>
       <c r="AM145">
+        <v>0</v>
+      </c>
+      <c r="AN145">
+        <v>1</v>
+      </c>
+      <c r="AO145">
         <v>2179.62</v>
       </c>
     </row>
-    <row r="146" spans="1:39">
+    <row r="146" spans="1:41">
       <c r="A146" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -17956,7 +18832,7 @@
         <v>0</v>
       </c>
       <c r="T146">
-        <v>674689.28</v>
+        <v>707589.28</v>
       </c>
       <c r="U146">
         <v>6</v>
@@ -17992,30 +18868,36 @@
         <v>0</v>
       </c>
       <c r="AG146">
-        <v>693225.4500000001</v>
+        <v>726125.4500000001</v>
       </c>
       <c r="AH146">
-        <v>0.9732609788056684</v>
+        <v>0.9744724964536086</v>
       </c>
       <c r="AI146">
+        <v>0</v>
+      </c>
+      <c r="AJ146">
         <v>1990</v>
       </c>
-      <c r="AJ146">
-        <v>0</v>
-      </c>
       <c r="AK146">
         <v>0</v>
       </c>
       <c r="AL146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM146">
+        <v>0</v>
+      </c>
+      <c r="AN146">
+        <v>1</v>
+      </c>
+      <c r="AO146">
         <v>6816.35</v>
       </c>
     </row>
-    <row r="147" spans="1:39">
+    <row r="147" spans="1:41">
       <c r="A147" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B147">
         <v>1</v>
@@ -18072,7 +18954,7 @@
         <v>0</v>
       </c>
       <c r="T147">
-        <v>674689.28</v>
+        <v>707589.28</v>
       </c>
       <c r="U147">
         <v>6</v>
@@ -18108,30 +18990,36 @@
         <v>0</v>
       </c>
       <c r="AG147">
-        <v>693225.4500000001</v>
+        <v>726125.4500000001</v>
       </c>
       <c r="AH147">
-        <v>0.9732609788056684</v>
+        <v>0.9744724964536086</v>
       </c>
       <c r="AI147">
+        <v>0</v>
+      </c>
+      <c r="AJ147">
         <v>1990</v>
       </c>
-      <c r="AJ147">
-        <v>0</v>
-      </c>
       <c r="AK147">
         <v>0</v>
       </c>
       <c r="AL147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM147">
+        <v>0</v>
+      </c>
+      <c r="AN147">
+        <v>1</v>
+      </c>
+      <c r="AO147">
         <v>446.98</v>
       </c>
     </row>
-    <row r="148" spans="1:39">
+    <row r="148" spans="1:41">
       <c r="A148" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B148">
         <v>1</v>
@@ -18188,7 +19076,7 @@
         <v>0</v>
       </c>
       <c r="T148">
-        <v>674689.28</v>
+        <v>707589.28</v>
       </c>
       <c r="U148">
         <v>6</v>
@@ -18224,30 +19112,36 @@
         <v>0</v>
       </c>
       <c r="AG148">
-        <v>693225.4500000001</v>
+        <v>726125.4500000001</v>
       </c>
       <c r="AH148">
-        <v>0.9732609788056684</v>
+        <v>0.9744724964536086</v>
       </c>
       <c r="AI148">
+        <v>0</v>
+      </c>
+      <c r="AJ148">
         <v>1990</v>
       </c>
-      <c r="AJ148">
-        <v>0</v>
-      </c>
       <c r="AK148">
         <v>0</v>
       </c>
       <c r="AL148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM148">
+        <v>0</v>
+      </c>
+      <c r="AN148">
+        <v>1</v>
+      </c>
+      <c r="AO148">
         <v>845.8150000000001</v>
       </c>
     </row>
-    <row r="149" spans="1:39">
+    <row r="149" spans="1:41">
       <c r="A149" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B149">
         <v>0</v>
@@ -18304,7 +19198,7 @@
         <v>0</v>
       </c>
       <c r="T149">
-        <v>674689.28</v>
+        <v>707589.28</v>
       </c>
       <c r="U149">
         <v>6</v>
@@ -18340,30 +19234,36 @@
         <v>5872715</v>
       </c>
       <c r="AG149">
-        <v>693225.4500000001</v>
+        <v>726125.4500000001</v>
       </c>
       <c r="AH149">
-        <v>0.9732609788056684</v>
+        <v>0.9744724964536086</v>
       </c>
       <c r="AI149">
+        <v>0</v>
+      </c>
+      <c r="AJ149">
         <v>1990</v>
       </c>
-      <c r="AJ149">
-        <v>0</v>
-      </c>
       <c r="AK149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL149">
         <v>1</v>
       </c>
       <c r="AM149">
+        <v>0</v>
+      </c>
+      <c r="AN149">
+        <v>1</v>
+      </c>
+      <c r="AO149">
         <v>823.1799999999999</v>
       </c>
     </row>
-    <row r="150" spans="1:39">
+    <row r="150" spans="1:41">
       <c r="A150" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B150">
         <v>0</v>
@@ -18420,7 +19320,7 @@
         <v>0</v>
       </c>
       <c r="T150">
-        <v>674689.28</v>
+        <v>707589.28</v>
       </c>
       <c r="U150">
         <v>6</v>
@@ -18456,30 +19356,36 @@
         <v>0</v>
       </c>
       <c r="AG150">
-        <v>693225.4500000001</v>
+        <v>726125.4500000001</v>
       </c>
       <c r="AH150">
-        <v>0.9732609788056684</v>
+        <v>0.9744724964536086</v>
       </c>
       <c r="AI150">
+        <v>0</v>
+      </c>
+      <c r="AJ150">
         <v>1990</v>
       </c>
-      <c r="AJ150">
-        <v>0</v>
-      </c>
       <c r="AK150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL150">
         <v>1</v>
       </c>
       <c r="AM150">
+        <v>0</v>
+      </c>
+      <c r="AN150">
+        <v>1</v>
+      </c>
+      <c r="AO150">
         <v>4713.25</v>
       </c>
     </row>
-    <row r="151" spans="1:39">
+    <row r="151" spans="1:41">
       <c r="A151" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B151">
         <v>1</v>
@@ -18536,7 +19442,7 @@
         <v>0</v>
       </c>
       <c r="T151">
-        <v>674689.28</v>
+        <v>707589.28</v>
       </c>
       <c r="U151">
         <v>6</v>
@@ -18572,30 +19478,36 @@
         <v>8486450</v>
       </c>
       <c r="AG151">
-        <v>693225.4500000001</v>
+        <v>726125.4500000001</v>
       </c>
       <c r="AH151">
-        <v>0.9732609788056684</v>
+        <v>0.9744724964536086</v>
       </c>
       <c r="AI151">
+        <v>0</v>
+      </c>
+      <c r="AJ151">
         <v>1990</v>
       </c>
-      <c r="AJ151">
-        <v>0</v>
-      </c>
       <c r="AK151">
         <v>0</v>
       </c>
       <c r="AL151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM151">
+        <v>0</v>
+      </c>
+      <c r="AN151">
+        <v>1</v>
+      </c>
+      <c r="AO151">
         <v>350.41</v>
       </c>
     </row>
-    <row r="152" spans="1:39">
+    <row r="152" spans="1:41">
       <c r="A152" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B152">
         <v>1</v>
@@ -18652,7 +19564,7 @@
         <v>0</v>
       </c>
       <c r="T152">
-        <v>674689.28</v>
+        <v>707589.28</v>
       </c>
       <c r="U152">
         <v>6</v>
@@ -18688,30 +19600,36 @@
         <v>0</v>
       </c>
       <c r="AG152">
-        <v>693225.4500000001</v>
+        <v>726125.4500000001</v>
       </c>
       <c r="AH152">
-        <v>0.9732609788056684</v>
+        <v>0.9744724964536086</v>
       </c>
       <c r="AI152">
+        <v>0</v>
+      </c>
+      <c r="AJ152">
         <v>1990</v>
       </c>
-      <c r="AJ152">
-        <v>0</v>
-      </c>
       <c r="AK152">
         <v>0</v>
       </c>
       <c r="AL152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM152">
+        <v>0</v>
+      </c>
+      <c r="AN152">
+        <v>1</v>
+      </c>
+      <c r="AO152">
         <v>237.755</v>
       </c>
     </row>
-    <row r="153" spans="1:39">
+    <row r="153" spans="1:41">
       <c r="A153" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -18768,7 +19686,7 @@
         <v>0</v>
       </c>
       <c r="T153">
-        <v>674689.28</v>
+        <v>707589.28</v>
       </c>
       <c r="U153">
         <v>6</v>
@@ -18804,30 +19722,36 @@
         <v>5885000</v>
       </c>
       <c r="AG153">
-        <v>693225.4500000001</v>
+        <v>726125.4500000001</v>
       </c>
       <c r="AH153">
-        <v>0.9732609788056684</v>
+        <v>0.9744724964536086</v>
       </c>
       <c r="AI153">
+        <v>0</v>
+      </c>
+      <c r="AJ153">
         <v>1990</v>
       </c>
-      <c r="AJ153">
-        <v>0</v>
-      </c>
       <c r="AK153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL153">
         <v>1</v>
       </c>
       <c r="AM153">
+        <v>0</v>
+      </c>
+      <c r="AN153">
+        <v>1</v>
+      </c>
+      <c r="AO153">
         <v>12638.8</v>
       </c>
     </row>
-    <row r="154" spans="1:39">
+    <row r="154" spans="1:41">
       <c r="A154" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B154">
         <v>0</v>
@@ -18884,7 +19808,7 @@
         <v>0</v>
       </c>
       <c r="T154">
-        <v>674689.28</v>
+        <v>707589.28</v>
       </c>
       <c r="U154">
         <v>6</v>
@@ -18920,30 +19844,36 @@
         <v>6615978</v>
       </c>
       <c r="AG154">
-        <v>693225.4500000001</v>
+        <v>726125.4500000001</v>
       </c>
       <c r="AH154">
-        <v>0.9732609788056684</v>
+        <v>0.9744724964536086</v>
       </c>
       <c r="AI154">
+        <v>0</v>
+      </c>
+      <c r="AJ154">
         <v>1990</v>
       </c>
-      <c r="AJ154">
-        <v>0</v>
-      </c>
       <c r="AK154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL154">
         <v>1</v>
       </c>
       <c r="AM154">
+        <v>0</v>
+      </c>
+      <c r="AN154">
+        <v>1</v>
+      </c>
+      <c r="AO154">
         <v>4669.505</v>
       </c>
     </row>
-    <row r="155" spans="1:39">
+    <row r="155" spans="1:41">
       <c r="A155" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B155">
         <v>0</v>
@@ -19000,7 +19930,7 @@
         <v>0</v>
       </c>
       <c r="T155">
-        <v>674689.28</v>
+        <v>707589.28</v>
       </c>
       <c r="U155">
         <v>6</v>
@@ -19036,30 +19966,36 @@
         <v>3285769</v>
       </c>
       <c r="AG155">
-        <v>693225.4500000001</v>
+        <v>726125.4500000001</v>
       </c>
       <c r="AH155">
-        <v>0.9732609788056684</v>
+        <v>0.9744724964536086</v>
       </c>
       <c r="AI155">
+        <v>0</v>
+      </c>
+      <c r="AJ155">
         <v>1990</v>
       </c>
-      <c r="AJ155">
-        <v>0</v>
-      </c>
       <c r="AK155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL155">
         <v>1</v>
       </c>
       <c r="AM155">
+        <v>0</v>
+      </c>
+      <c r="AN155">
+        <v>1</v>
+      </c>
+      <c r="AO155">
         <v>14755.79</v>
       </c>
     </row>
-    <row r="156" spans="1:39">
+    <row r="156" spans="1:41">
       <c r="A156" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B156">
         <v>0</v>
@@ -19116,7 +20052,7 @@
         <v>0</v>
       </c>
       <c r="T156">
-        <v>674689.28</v>
+        <v>707589.28</v>
       </c>
       <c r="U156">
         <v>6</v>
@@ -19152,30 +20088,36 @@
         <v>8167890</v>
       </c>
       <c r="AG156">
-        <v>693225.4500000001</v>
+        <v>726125.4500000001</v>
       </c>
       <c r="AH156">
-        <v>0.9732609788056684</v>
+        <v>0.9744724964536086</v>
       </c>
       <c r="AI156">
+        <v>0</v>
+      </c>
+      <c r="AJ156">
         <v>1990</v>
       </c>
-      <c r="AJ156">
-        <v>0</v>
-      </c>
       <c r="AK156">
         <v>0</v>
       </c>
       <c r="AL156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM156">
+        <v>0</v>
+      </c>
+      <c r="AN156">
+        <v>1</v>
+      </c>
+      <c r="AO156">
         <v>10152.33</v>
       </c>
     </row>
-    <row r="157" spans="1:39">
+    <row r="157" spans="1:41">
       <c r="A157" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B157">
         <v>1</v>
@@ -19232,7 +20174,7 @@
         <v>0</v>
       </c>
       <c r="T157">
-        <v>674689.28</v>
+        <v>707589.28</v>
       </c>
       <c r="U157">
         <v>6</v>
@@ -19268,36 +20210,42 @@
         <v>5988850</v>
       </c>
       <c r="AG157">
-        <v>693225.4500000001</v>
+        <v>726125.4500000001</v>
       </c>
       <c r="AH157">
-        <v>0.9732609788056684</v>
+        <v>0.9744724964536086</v>
       </c>
       <c r="AI157">
+        <v>0</v>
+      </c>
+      <c r="AJ157">
         <v>1990</v>
       </c>
-      <c r="AJ157">
-        <v>0</v>
-      </c>
       <c r="AK157">
         <v>0</v>
       </c>
       <c r="AL157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM157">
+        <v>0</v>
+      </c>
+      <c r="AN157">
+        <v>1</v>
+      </c>
+      <c r="AO157">
         <v>5859.145</v>
       </c>
     </row>
-    <row r="158" spans="1:39">
+    <row r="158" spans="1:41">
       <c r="A158" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B158">
         <v>0</v>
       </c>
       <c r="C158" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D158">
         <v>0</v>
@@ -19348,7 +20296,7 @@
         <v>0</v>
       </c>
       <c r="T158">
-        <v>674689.28</v>
+        <v>707589.28</v>
       </c>
       <c r="U158">
         <v>6</v>
@@ -19384,30 +20332,36 @@
         <v>0</v>
       </c>
       <c r="AG158">
-        <v>693225.4500000001</v>
+        <v>726125.4500000001</v>
       </c>
       <c r="AH158">
-        <v>0.9732609788056684</v>
+        <v>0.9744724964536086</v>
       </c>
       <c r="AI158">
+        <v>0</v>
+      </c>
+      <c r="AJ158">
         <v>1990</v>
       </c>
-      <c r="AJ158">
-        <v>0</v>
-      </c>
       <c r="AK158">
         <v>0</v>
       </c>
       <c r="AL158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM158">
+        <v>0</v>
+      </c>
+      <c r="AN158">
+        <v>1</v>
+      </c>
+      <c r="AO158">
         <v>1042.335</v>
       </c>
     </row>
-    <row r="159" spans="1:39">
+    <row r="159" spans="1:41">
       <c r="A159" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B159">
         <v>1</v>
@@ -19464,7 +20418,7 @@
         <v>0</v>
       </c>
       <c r="T159">
-        <v>674689.28</v>
+        <v>707589.28</v>
       </c>
       <c r="U159">
         <v>6</v>
@@ -19500,30 +20454,36 @@
         <v>0</v>
       </c>
       <c r="AG159">
-        <v>693225.4500000001</v>
+        <v>726125.4500000001</v>
       </c>
       <c r="AH159">
-        <v>0.9732609788056684</v>
+        <v>0.9744724964536086</v>
       </c>
       <c r="AI159">
+        <v>0</v>
+      </c>
+      <c r="AJ159">
         <v>1990</v>
       </c>
-      <c r="AJ159">
-        <v>0</v>
-      </c>
       <c r="AK159">
         <v>0</v>
       </c>
       <c r="AL159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM159">
+        <v>0</v>
+      </c>
+      <c r="AN159">
+        <v>1</v>
+      </c>
+      <c r="AO159">
         <v>14.92</v>
       </c>
     </row>
-    <row r="160" spans="1:39">
+    <row r="160" spans="1:41">
       <c r="A160" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B160">
         <v>0</v>
@@ -19622,24 +20582,30 @@
         <v>0.8009491950548848</v>
       </c>
       <c r="AI160">
+        <v>0</v>
+      </c>
+      <c r="AJ160">
         <v>1990</v>
       </c>
-      <c r="AJ160">
-        <v>0</v>
-      </c>
       <c r="AK160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL160">
         <v>1</v>
       </c>
       <c r="AM160">
+        <v>0</v>
+      </c>
+      <c r="AN160">
+        <v>1</v>
+      </c>
+      <c r="AO160">
         <v>82.77500000000001</v>
       </c>
     </row>
-    <row r="161" spans="1:39">
+    <row r="161" spans="1:41">
       <c r="A161" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B161">
         <v>0</v>
@@ -19738,24 +20704,30 @@
         <v>0.8009491950548848</v>
       </c>
       <c r="AI161">
+        <v>0</v>
+      </c>
+      <c r="AJ161">
         <v>1990</v>
       </c>
-      <c r="AJ161">
-        <v>0</v>
-      </c>
       <c r="AK161">
         <v>0</v>
       </c>
       <c r="AL161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM161">
+        <v>0</v>
+      </c>
+      <c r="AN161">
+        <v>1</v>
+      </c>
+      <c r="AO161">
         <v>1244.655</v>
       </c>
     </row>
-    <row r="162" spans="1:39">
+    <row r="162" spans="1:41">
       <c r="A162" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B162">
         <v>0</v>
@@ -19854,24 +20826,30 @@
         <v>0.8009491950548848</v>
       </c>
       <c r="AI162">
+        <v>0</v>
+      </c>
+      <c r="AJ162">
         <v>1990</v>
       </c>
-      <c r="AJ162">
-        <v>0</v>
-      </c>
       <c r="AK162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL162">
         <v>1</v>
       </c>
       <c r="AM162">
+        <v>0</v>
+      </c>
+      <c r="AN162">
+        <v>1</v>
+      </c>
+      <c r="AO162">
         <v>8958.885</v>
       </c>
     </row>
-    <row r="163" spans="1:39">
+    <row r="163" spans="1:41">
       <c r="A163" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B163">
         <v>0</v>
@@ -19970,24 +20948,30 @@
         <v>0.8009491950548848</v>
       </c>
       <c r="AI163">
+        <v>0</v>
+      </c>
+      <c r="AJ163">
         <v>1990</v>
       </c>
-      <c r="AJ163">
-        <v>0</v>
-      </c>
       <c r="AK163">
         <v>0</v>
       </c>
       <c r="AL163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM163">
+        <v>0</v>
+      </c>
+      <c r="AN163">
+        <v>1</v>
+      </c>
+      <c r="AO163">
         <v>73.79000000000001</v>
       </c>
     </row>
-    <row r="164" spans="1:39">
+    <row r="164" spans="1:41">
       <c r="A164" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B164">
         <v>0</v>
@@ -20086,24 +21070,30 @@
         <v>0.8009491950548848</v>
       </c>
       <c r="AI164">
+        <v>0</v>
+      </c>
+      <c r="AJ164">
         <v>1990</v>
       </c>
-      <c r="AJ164">
-        <v>0</v>
-      </c>
       <c r="AK164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL164">
         <v>1</v>
       </c>
       <c r="AM164">
+        <v>0</v>
+      </c>
+      <c r="AN164">
+        <v>1</v>
+      </c>
+      <c r="AO164">
         <v>5657.14</v>
       </c>
     </row>
-    <row r="165" spans="1:39">
+    <row r="165" spans="1:41">
       <c r="A165" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B165">
         <v>0</v>
@@ -20202,24 +21192,30 @@
         <v>0.8009491950548848</v>
       </c>
       <c r="AI165">
+        <v>0</v>
+      </c>
+      <c r="AJ165">
         <v>1990</v>
       </c>
-      <c r="AJ165">
-        <v>0</v>
-      </c>
       <c r="AK165">
         <v>0</v>
       </c>
       <c r="AL165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM165">
+        <v>0</v>
+      </c>
+      <c r="AN165">
+        <v>1</v>
+      </c>
+      <c r="AO165">
         <v>57.915</v>
       </c>
     </row>
-    <row r="166" spans="1:39">
+    <row r="166" spans="1:41">
       <c r="A166" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B166">
         <v>0</v>
@@ -20318,24 +21314,30 @@
         <v>0.8009491950548848</v>
       </c>
       <c r="AI166">
+        <v>0</v>
+      </c>
+      <c r="AJ166">
         <v>1990</v>
       </c>
-      <c r="AJ166">
-        <v>0</v>
-      </c>
       <c r="AK166">
         <v>0</v>
       </c>
       <c r="AL166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM166">
+        <v>0</v>
+      </c>
+      <c r="AN166">
+        <v>1</v>
+      </c>
+      <c r="AO166">
         <v>131.965</v>
       </c>
     </row>
-    <row r="167" spans="1:39">
+    <row r="167" spans="1:41">
       <c r="A167" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B167">
         <v>0</v>
@@ -20434,24 +21436,30 @@
         <v>0.8009491950548848</v>
       </c>
       <c r="AI167">
+        <v>0</v>
+      </c>
+      <c r="AJ167">
         <v>1990</v>
       </c>
-      <c r="AJ167">
-        <v>0</v>
-      </c>
       <c r="AK167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL167">
         <v>1</v>
       </c>
       <c r="AM167">
+        <v>0</v>
+      </c>
+      <c r="AN167">
+        <v>1</v>
+      </c>
+      <c r="AO167">
         <v>140.605</v>
       </c>
     </row>
-    <row r="168" spans="1:39">
+    <row r="168" spans="1:41">
       <c r="A168" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B168">
         <v>0</v>
@@ -20550,24 +21558,30 @@
         <v>0.8009491950548848</v>
       </c>
       <c r="AI168">
+        <v>0</v>
+      </c>
+      <c r="AJ168">
         <v>1990</v>
       </c>
-      <c r="AJ168">
-        <v>0</v>
-      </c>
       <c r="AK168">
         <v>0</v>
       </c>
       <c r="AL168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM168">
+        <v>0</v>
+      </c>
+      <c r="AN168">
+        <v>1</v>
+      </c>
+      <c r="AO168">
         <v>13.66</v>
       </c>
     </row>
-    <row r="169" spans="1:39">
+    <row r="169" spans="1:41">
       <c r="A169" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B169">
         <v>0</v>
@@ -20666,24 +21680,30 @@
         <v>0.8009491950548848</v>
       </c>
       <c r="AI169">
+        <v>0</v>
+      </c>
+      <c r="AJ169">
         <v>1990</v>
       </c>
-      <c r="AJ169">
-        <v>0</v>
-      </c>
       <c r="AK169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL169">
         <v>1</v>
       </c>
       <c r="AM169">
+        <v>0</v>
+      </c>
+      <c r="AN169">
+        <v>1</v>
+      </c>
+      <c r="AO169">
         <v>2179.62</v>
       </c>
     </row>
-    <row r="170" spans="1:39">
+    <row r="170" spans="1:41">
       <c r="A170" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B170">
         <v>0</v>
@@ -20782,24 +21802,30 @@
         <v>0.8009491950548848</v>
       </c>
       <c r="AI170">
+        <v>0</v>
+      </c>
+      <c r="AJ170">
         <v>1990</v>
       </c>
-      <c r="AJ170">
-        <v>0</v>
-      </c>
       <c r="AK170">
         <v>0</v>
       </c>
       <c r="AL170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM170">
+        <v>0</v>
+      </c>
+      <c r="AN170">
+        <v>1</v>
+      </c>
+      <c r="AO170">
         <v>6816.35</v>
       </c>
     </row>
-    <row r="171" spans="1:39">
+    <row r="171" spans="1:41">
       <c r="A171" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B171">
         <v>0</v>
@@ -20898,24 +21924,30 @@
         <v>0.8009491950548848</v>
       </c>
       <c r="AI171">
+        <v>0</v>
+      </c>
+      <c r="AJ171">
         <v>1990</v>
       </c>
-      <c r="AJ171">
-        <v>0</v>
-      </c>
       <c r="AK171">
         <v>0</v>
       </c>
       <c r="AL171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM171">
+        <v>0</v>
+      </c>
+      <c r="AN171">
+        <v>1</v>
+      </c>
+      <c r="AO171">
         <v>446.98</v>
       </c>
     </row>
-    <row r="172" spans="1:39">
+    <row r="172" spans="1:41">
       <c r="A172" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B172">
         <v>0</v>
@@ -21014,24 +22046,30 @@
         <v>0.8009491950548848</v>
       </c>
       <c r="AI172">
+        <v>0</v>
+      </c>
+      <c r="AJ172">
         <v>1990</v>
       </c>
-      <c r="AJ172">
-        <v>0</v>
-      </c>
       <c r="AK172">
         <v>0</v>
       </c>
       <c r="AL172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM172">
+        <v>0</v>
+      </c>
+      <c r="AN172">
+        <v>1</v>
+      </c>
+      <c r="AO172">
         <v>845.8150000000001</v>
       </c>
     </row>
-    <row r="173" spans="1:39">
+    <row r="173" spans="1:41">
       <c r="A173" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B173">
         <v>0</v>
@@ -21130,24 +22168,30 @@
         <v>0.8009491950548848</v>
       </c>
       <c r="AI173">
+        <v>0</v>
+      </c>
+      <c r="AJ173">
         <v>1990</v>
       </c>
-      <c r="AJ173">
-        <v>0</v>
-      </c>
       <c r="AK173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL173">
         <v>1</v>
       </c>
       <c r="AM173">
+        <v>0</v>
+      </c>
+      <c r="AN173">
+        <v>1</v>
+      </c>
+      <c r="AO173">
         <v>823.1799999999999</v>
       </c>
     </row>
-    <row r="174" spans="1:39">
+    <row r="174" spans="1:41">
       <c r="A174" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B174">
         <v>0</v>
@@ -21246,24 +22290,30 @@
         <v>0.8009491950548848</v>
       </c>
       <c r="AI174">
+        <v>0</v>
+      </c>
+      <c r="AJ174">
         <v>1990</v>
       </c>
-      <c r="AJ174">
-        <v>0</v>
-      </c>
       <c r="AK174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL174">
         <v>1</v>
       </c>
       <c r="AM174">
+        <v>0</v>
+      </c>
+      <c r="AN174">
+        <v>1</v>
+      </c>
+      <c r="AO174">
         <v>4713.25</v>
       </c>
     </row>
-    <row r="175" spans="1:39">
+    <row r="175" spans="1:41">
       <c r="A175" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B175">
         <v>0</v>
@@ -21362,24 +22412,30 @@
         <v>0.8009491950548848</v>
       </c>
       <c r="AI175">
+        <v>0</v>
+      </c>
+      <c r="AJ175">
         <v>1990</v>
       </c>
-      <c r="AJ175">
-        <v>0</v>
-      </c>
       <c r="AK175">
         <v>0</v>
       </c>
       <c r="AL175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM175">
+        <v>0</v>
+      </c>
+      <c r="AN175">
+        <v>1</v>
+      </c>
+      <c r="AO175">
         <v>350.41</v>
       </c>
     </row>
-    <row r="176" spans="1:39">
+    <row r="176" spans="1:41">
       <c r="A176" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B176">
         <v>0</v>
@@ -21478,24 +22534,30 @@
         <v>0.8009491950548848</v>
       </c>
       <c r="AI176">
+        <v>0</v>
+      </c>
+      <c r="AJ176">
         <v>1990</v>
       </c>
-      <c r="AJ176">
-        <v>0</v>
-      </c>
       <c r="AK176">
         <v>0</v>
       </c>
       <c r="AL176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM176">
+        <v>0</v>
+      </c>
+      <c r="AN176">
+        <v>1</v>
+      </c>
+      <c r="AO176">
         <v>237.755</v>
       </c>
     </row>
-    <row r="177" spans="1:39">
+    <row r="177" spans="1:41">
       <c r="A177" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B177">
         <v>0</v>
@@ -21594,24 +22656,30 @@
         <v>0.8009491950548848</v>
       </c>
       <c r="AI177">
+        <v>0</v>
+      </c>
+      <c r="AJ177">
         <v>1990</v>
       </c>
-      <c r="AJ177">
-        <v>0</v>
-      </c>
       <c r="AK177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL177">
         <v>1</v>
       </c>
       <c r="AM177">
+        <v>0</v>
+      </c>
+      <c r="AN177">
+        <v>1</v>
+      </c>
+      <c r="AO177">
         <v>12638.8</v>
       </c>
     </row>
-    <row r="178" spans="1:39">
+    <row r="178" spans="1:41">
       <c r="A178" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B178">
         <v>0</v>
@@ -21710,24 +22778,30 @@
         <v>0.8009491950548848</v>
       </c>
       <c r="AI178">
+        <v>0</v>
+      </c>
+      <c r="AJ178">
         <v>1990</v>
       </c>
-      <c r="AJ178">
-        <v>0</v>
-      </c>
       <c r="AK178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL178">
         <v>1</v>
       </c>
       <c r="AM178">
+        <v>0</v>
+      </c>
+      <c r="AN178">
+        <v>1</v>
+      </c>
+      <c r="AO178">
         <v>4669.505</v>
       </c>
     </row>
-    <row r="179" spans="1:39">
+    <row r="179" spans="1:41">
       <c r="A179" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B179">
         <v>0</v>
@@ -21826,24 +22900,30 @@
         <v>0.8009491950548848</v>
       </c>
       <c r="AI179">
+        <v>0</v>
+      </c>
+      <c r="AJ179">
         <v>1990</v>
       </c>
-      <c r="AJ179">
-        <v>0</v>
-      </c>
       <c r="AK179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL179">
         <v>1</v>
       </c>
       <c r="AM179">
+        <v>0</v>
+      </c>
+      <c r="AN179">
+        <v>1</v>
+      </c>
+      <c r="AO179">
         <v>14755.79</v>
       </c>
     </row>
-    <row r="180" spans="1:39">
+    <row r="180" spans="1:41">
       <c r="A180" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B180">
         <v>0</v>
@@ -21942,24 +23022,30 @@
         <v>0.8009491950548848</v>
       </c>
       <c r="AI180">
+        <v>0</v>
+      </c>
+      <c r="AJ180">
         <v>1990</v>
       </c>
-      <c r="AJ180">
-        <v>0</v>
-      </c>
       <c r="AK180">
         <v>0</v>
       </c>
       <c r="AL180">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM180">
+        <v>0</v>
+      </c>
+      <c r="AN180">
+        <v>1</v>
+      </c>
+      <c r="AO180">
         <v>10152.33</v>
       </c>
     </row>
-    <row r="181" spans="1:39">
+    <row r="181" spans="1:41">
       <c r="A181" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B181">
         <v>0</v>
@@ -22058,30 +23144,36 @@
         <v>0.8009491950548848</v>
       </c>
       <c r="AI181">
+        <v>0</v>
+      </c>
+      <c r="AJ181">
         <v>1990</v>
       </c>
-      <c r="AJ181">
-        <v>0</v>
-      </c>
       <c r="AK181">
         <v>0</v>
       </c>
       <c r="AL181">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM181">
+        <v>0</v>
+      </c>
+      <c r="AN181">
+        <v>1</v>
+      </c>
+      <c r="AO181">
         <v>5859.145</v>
       </c>
     </row>
-    <row r="182" spans="1:39">
+    <row r="182" spans="1:41">
       <c r="A182" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B182">
         <v>0</v>
       </c>
       <c r="C182" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D182">
         <v>0</v>
@@ -22174,24 +23266,30 @@
         <v>0.8009491950548848</v>
       </c>
       <c r="AI182">
+        <v>0</v>
+      </c>
+      <c r="AJ182">
         <v>1990</v>
       </c>
-      <c r="AJ182">
-        <v>0</v>
-      </c>
       <c r="AK182">
         <v>0</v>
       </c>
       <c r="AL182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM182">
+        <v>0</v>
+      </c>
+      <c r="AN182">
+        <v>1</v>
+      </c>
+      <c r="AO182">
         <v>1042.335</v>
       </c>
     </row>
-    <row r="183" spans="1:39">
+    <row r="183" spans="1:41">
       <c r="A183" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B183">
         <v>0</v>
@@ -22290,24 +23388,30 @@
         <v>0.8009491950548848</v>
       </c>
       <c r="AI183">
+        <v>0</v>
+      </c>
+      <c r="AJ183">
         <v>1990</v>
       </c>
-      <c r="AJ183">
-        <v>0</v>
-      </c>
       <c r="AK183">
         <v>0</v>
       </c>
       <c r="AL183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM183">
+        <v>0</v>
+      </c>
+      <c r="AN183">
+        <v>1</v>
+      </c>
+      <c r="AO183">
         <v>14.92</v>
       </c>
     </row>
-    <row r="184" spans="1:39">
+    <row r="184" spans="1:41">
       <c r="A184" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B184">
         <v>1</v>
@@ -22406,24 +23510,30 @@
         <v>0.8372675682891155</v>
       </c>
       <c r="AI184">
+        <v>0</v>
+      </c>
+      <c r="AJ184">
         <v>1990</v>
       </c>
-      <c r="AJ184">
-        <v>0</v>
-      </c>
       <c r="AK184">
         <v>0</v>
       </c>
       <c r="AL184">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM184">
+        <v>0</v>
+      </c>
+      <c r="AN184">
+        <v>1</v>
+      </c>
+      <c r="AO184">
         <v>2570</v>
       </c>
     </row>
-    <row r="185" spans="1:39">
+    <row r="185" spans="1:41">
       <c r="A185" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B185">
         <v>0</v>
@@ -22522,24 +23632,30 @@
         <v>0.8372675682891155</v>
       </c>
       <c r="AI185">
+        <v>0</v>
+      </c>
+      <c r="AJ185">
         <v>1990</v>
       </c>
-      <c r="AJ185">
-        <v>0</v>
-      </c>
       <c r="AK185">
         <v>0</v>
       </c>
       <c r="AL185">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM185">
+        <v>0</v>
+      </c>
+      <c r="AN185">
+        <v>1</v>
+      </c>
+      <c r="AO185">
         <v>6054</v>
       </c>
     </row>
-    <row r="186" spans="1:39">
+    <row r="186" spans="1:41">
       <c r="A186" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B186">
         <v>0</v>
@@ -22638,30 +23754,36 @@
         <v>0.8372675682891155</v>
       </c>
       <c r="AI186">
+        <v>0</v>
+      </c>
+      <c r="AJ186">
         <v>1990</v>
       </c>
-      <c r="AJ186">
-        <v>0</v>
-      </c>
       <c r="AK186">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL186">
         <v>1</v>
       </c>
       <c r="AM186">
+        <v>0</v>
+      </c>
+      <c r="AN186">
+        <v>1</v>
+      </c>
+      <c r="AO186">
         <v>19138</v>
       </c>
     </row>
-    <row r="187" spans="1:39">
+    <row r="187" spans="1:41">
       <c r="A187" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B187">
         <v>0</v>
       </c>
       <c r="C187" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D187">
         <v>0</v>
@@ -22754,24 +23876,30 @@
         <v>0.8372675682891155</v>
       </c>
       <c r="AI187">
+        <v>0</v>
+      </c>
+      <c r="AJ187">
         <v>1990</v>
       </c>
-      <c r="AJ187">
-        <v>0</v>
-      </c>
       <c r="AK187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL187">
         <v>1</v>
       </c>
       <c r="AM187">
+        <v>0</v>
+      </c>
+      <c r="AN187">
+        <v>1</v>
+      </c>
+      <c r="AO187">
         <v>19431</v>
       </c>
     </row>
-    <row r="188" spans="1:39">
+    <row r="188" spans="1:41">
       <c r="A188" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B188">
         <v>0</v>
@@ -22870,24 +23998,30 @@
         <v>0.8372675682891155</v>
       </c>
       <c r="AI188">
+        <v>0</v>
+      </c>
+      <c r="AJ188">
         <v>1990</v>
       </c>
-      <c r="AJ188">
-        <v>0</v>
-      </c>
       <c r="AK188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL188">
         <v>1</v>
       </c>
       <c r="AM188">
+        <v>0</v>
+      </c>
+      <c r="AN188">
+        <v>1</v>
+      </c>
+      <c r="AO188">
         <v>45934</v>
       </c>
     </row>
-    <row r="189" spans="1:39">
+    <row r="189" spans="1:41">
       <c r="A189" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B189">
         <v>0</v>
@@ -22986,24 +24120,30 @@
         <v>0.8372675682891155</v>
       </c>
       <c r="AI189">
+        <v>0</v>
+      </c>
+      <c r="AJ189">
         <v>1990</v>
       </c>
-      <c r="AJ189">
-        <v>0</v>
-      </c>
       <c r="AK189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL189">
         <v>1</v>
       </c>
       <c r="AM189">
+        <v>0</v>
+      </c>
+      <c r="AN189">
+        <v>1</v>
+      </c>
+      <c r="AO189">
         <v>73316</v>
       </c>
     </row>
-    <row r="190" spans="1:39">
+    <row r="190" spans="1:41">
       <c r="A190" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B190">
         <v>0</v>
@@ -23102,24 +24242,30 @@
         <v>0.8372675682891155</v>
       </c>
       <c r="AI190">
+        <v>0</v>
+      </c>
+      <c r="AJ190">
         <v>1990</v>
       </c>
-      <c r="AJ190">
-        <v>0</v>
-      </c>
       <c r="AK190">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL190">
         <v>1</v>
       </c>
       <c r="AM190">
+        <v>0</v>
+      </c>
+      <c r="AN190">
+        <v>1</v>
+      </c>
+      <c r="AO190">
         <v>33313</v>
       </c>
     </row>
-    <row r="191" spans="1:39">
+    <row r="191" spans="1:41">
       <c r="A191" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B191">
         <v>1</v>
@@ -23218,24 +24364,30 @@
         <v>0.8372675682891155</v>
       </c>
       <c r="AI191">
+        <v>0</v>
+      </c>
+      <c r="AJ191">
         <v>1990</v>
       </c>
-      <c r="AJ191">
-        <v>0</v>
-      </c>
       <c r="AK191">
         <v>0</v>
       </c>
       <c r="AL191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM191">
+        <v>0</v>
+      </c>
+      <c r="AN191">
+        <v>1</v>
+      </c>
+      <c r="AO191">
         <v>21078</v>
       </c>
     </row>
-    <row r="192" spans="1:39">
+    <row r="192" spans="1:41">
       <c r="A192" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B192">
         <v>0</v>
@@ -23334,24 +24486,30 @@
         <v>0.8372675682891155</v>
       </c>
       <c r="AI192">
+        <v>0</v>
+      </c>
+      <c r="AJ192">
         <v>1990</v>
       </c>
-      <c r="AJ192">
-        <v>0</v>
-      </c>
       <c r="AK192">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL192">
         <v>1</v>
       </c>
       <c r="AM192">
+        <v>0</v>
+      </c>
+      <c r="AN192">
+        <v>1</v>
+      </c>
+      <c r="AO192">
         <v>9122</v>
       </c>
     </row>
-    <row r="193" spans="1:39">
+    <row r="193" spans="1:41">
       <c r="A193" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B193">
         <v>0</v>
@@ -23450,24 +24608,30 @@
         <v>0.8372675682891155</v>
       </c>
       <c r="AI193">
+        <v>0</v>
+      </c>
+      <c r="AJ193">
         <v>1990</v>
       </c>
-      <c r="AJ193">
-        <v>0</v>
-      </c>
       <c r="AK193">
         <v>0</v>
       </c>
       <c r="AL193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM193">
+        <v>0</v>
+      </c>
+      <c r="AN193">
+        <v>1</v>
+      </c>
+      <c r="AO193">
         <v>6370</v>
       </c>
     </row>
-    <row r="194" spans="1:39">
+    <row r="194" spans="1:41">
       <c r="A194" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B194">
         <v>1</v>
@@ -23566,24 +24730,30 @@
         <v>0.8372675682891155</v>
       </c>
       <c r="AI194">
+        <v>0</v>
+      </c>
+      <c r="AJ194">
         <v>1990</v>
       </c>
-      <c r="AJ194">
-        <v>0</v>
-      </c>
       <c r="AK194">
         <v>0</v>
       </c>
       <c r="AL194">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM194">
+        <v>0</v>
+      </c>
+      <c r="AN194">
+        <v>1</v>
+      </c>
+      <c r="AO194">
         <v>32000</v>
       </c>
     </row>
-    <row r="195" spans="1:39">
+    <row r="195" spans="1:41">
       <c r="A195" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B195">
         <v>0</v>
@@ -23682,24 +24852,30 @@
         <v>0.8372675682891155</v>
       </c>
       <c r="AI195">
+        <v>0</v>
+      </c>
+      <c r="AJ195">
         <v>1990</v>
       </c>
-      <c r="AJ195">
-        <v>0</v>
-      </c>
       <c r="AK195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL195">
         <v>1</v>
       </c>
       <c r="AM195">
+        <v>0</v>
+      </c>
+      <c r="AN195">
+        <v>1</v>
+      </c>
+      <c r="AO195">
         <v>33643</v>
       </c>
     </row>
-    <row r="196" spans="1:39">
+    <row r="196" spans="1:41">
       <c r="A196" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B196">
         <v>0</v>
@@ -23798,30 +24974,36 @@
         <v>0.8372675682891155</v>
       </c>
       <c r="AI196">
+        <v>0</v>
+      </c>
+      <c r="AJ196">
         <v>1990</v>
       </c>
-      <c r="AJ196">
-        <v>0</v>
-      </c>
       <c r="AK196">
         <v>0</v>
       </c>
       <c r="AL196">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM196">
+        <v>0</v>
+      </c>
+      <c r="AN196">
+        <v>1</v>
+      </c>
+      <c r="AO196">
         <v>3141</v>
       </c>
     </row>
-    <row r="197" spans="1:39">
+    <row r="197" spans="1:41">
       <c r="A197" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B197">
         <v>0</v>
       </c>
       <c r="C197" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D197">
         <v>0</v>
@@ -23914,24 +25096,30 @@
         <v>0.8372675682891155</v>
       </c>
       <c r="AI197">
+        <v>0</v>
+      </c>
+      <c r="AJ197">
         <v>1990</v>
       </c>
-      <c r="AJ197">
-        <v>0</v>
-      </c>
       <c r="AK197">
         <v>0</v>
       </c>
       <c r="AL197">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM197">
+        <v>0</v>
+      </c>
+      <c r="AN197">
+        <v>1</v>
+      </c>
+      <c r="AO197">
         <v>24878</v>
       </c>
     </row>
-    <row r="198" spans="1:39">
+    <row r="198" spans="1:41">
       <c r="A198" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B198">
         <v>0</v>
@@ -24030,18 +25218,24 @@
         <v>0.8372675682891155</v>
       </c>
       <c r="AI198">
+        <v>0</v>
+      </c>
+      <c r="AJ198">
         <v>1990</v>
       </c>
-      <c r="AJ198">
-        <v>0</v>
-      </c>
       <c r="AK198">
         <v>0</v>
       </c>
       <c r="AL198">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM198">
+        <v>0</v>
+      </c>
+      <c r="AN198">
+        <v>1</v>
+      </c>
+      <c r="AO198">
         <v>16290</v>
       </c>
     </row>

--- a/output/farmaceuticos sin fronteras.xlsx
+++ b/output/farmaceuticos sin fronteras.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="238">
   <si>
     <t>Pais-Año</t>
   </si>
@@ -22,25 +22,25 @@
     <t>ONU</t>
   </si>
   <si>
-    <t>Gross_National_Income</t>
+    <t>GDP</t>
   </si>
   <si>
     <t>Public_Grant</t>
   </si>
   <si>
-    <t>NGO_Country_Budget_Previous_Year</t>
+    <t>Budget_Previous_Year</t>
   </si>
   <si>
-    <t>Vision_ONGD_LatinAmerica</t>
+    <t>LatinAmerica</t>
   </si>
   <si>
-    <t>Vision_ONGD_Africa</t>
+    <t>Africa</t>
   </si>
   <si>
-    <t>Vision_ONGD_Confessional</t>
+    <t>Confessional</t>
   </si>
   <si>
-    <t>Vision_ONGD_Universal</t>
+    <t>Universal</t>
   </si>
   <si>
     <t>Public_Funds_MAE</t>
@@ -109,16 +109,16 @@
     <t>Voluntarios_Extranjero</t>
   </si>
   <si>
-    <t>Total_subvencion_en_el_Pais_y_Anyo</t>
+    <t>Donor_Aid_Budget</t>
   </si>
   <si>
-    <t>Total_Fondos</t>
+    <t>Total_Funds</t>
   </si>
   <si>
-    <t>Proporcion_Fondos_Privados</t>
+    <t>%_Private_Funds</t>
   </si>
   <si>
-    <t>Proporcion_Fondos_MAE</t>
+    <t>%_MAE_Funds</t>
   </si>
   <si>
     <t>Anyo_ONG</t>
@@ -130,7 +130,7 @@
     <t>Colony</t>
   </si>
   <si>
-    <t>Delegacion</t>
+    <t>Delegation</t>
   </si>
   <si>
     <t>Visitado</t>
@@ -428,9 +428,6 @@
   </si>
   <si>
     <t>2012_siria</t>
-  </si>
-  <si>
-    <t>..</t>
   </si>
   <si>
     <t>2012_mexico</t>
@@ -1213,7 +1210,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1620</v>
+        <v>1873.394108966653</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1335,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4060</v>
+        <v>4547.50930098406</v>
       </c>
       <c r="D3">
         <v>96000</v>
@@ -1457,7 +1454,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>10380</v>
+        <v>14239.03920301361</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1701,7 +1698,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6880</v>
+        <v>7397.509860835168</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1823,7 +1820,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6750</v>
+        <v>6726.886926609853</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1945,7 +1942,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>3970</v>
+        <v>4729.735976516416</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -2067,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>3450</v>
+        <v>3972.630273980753</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -2189,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>1620</v>
+        <v>1909.084588129339</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -2311,7 +2308,7 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>2620</v>
+        <v>2870.311589353206</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -2433,7 +2430,7 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>5520</v>
+        <v>5596.139681459835</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -2555,7 +2552,7 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>4940</v>
+        <v>5191.140356354663</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -2657,7 +2654,7 @@
         <v>0</v>
       </c>
       <c r="AL13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM13">
         <v>0</v>
@@ -2677,7 +2674,7 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>1380</v>
+        <v>1460.056109840828</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -2799,7 +2796,7 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>2820</v>
+        <v>2934.187009790061</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -2921,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>900</v>
+        <v>902.1245458675693</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -3043,7 +3040,7 @@
         <v>1</v>
       </c>
       <c r="C17">
-        <v>340</v>
+        <v>312.0338494435377</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -3165,7 +3162,7 @@
         <v>1</v>
       </c>
       <c r="C18">
-        <v>1340</v>
+        <v>1270.564199846867</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -3287,7 +3284,7 @@
         <v>1</v>
       </c>
       <c r="C19">
-        <v>12530</v>
+        <v>19868.07076233724</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -3409,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>1160</v>
+        <v>1217.207869722383</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -3531,7 +3528,7 @@
         <v>1</v>
       </c>
       <c r="C21">
-        <v>410</v>
+        <v>460.9246827222597</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -3775,7 +3772,7 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>2880</v>
+        <v>2771.04675450926</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -3897,7 +3894,7 @@
         <v>1</v>
       </c>
       <c r="C24">
-        <v>480</v>
+        <v>472.0931802577628</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -4141,7 +4138,7 @@
         <v>1</v>
       </c>
       <c r="C26">
-        <v>550</v>
+        <v>615.6909235296019</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -4263,7 +4260,7 @@
         <v>1</v>
       </c>
       <c r="C27">
-        <v>420</v>
+        <v>471.9591970298227</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -4385,7 +4382,7 @@
         <v>1</v>
       </c>
       <c r="C28">
-        <v>450</v>
+        <v>478.6685897045245</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -4507,7 +4504,7 @@
         <v>1</v>
       </c>
       <c r="C29">
-        <v>480</v>
+        <v>471.181692645893</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -4751,7 +4748,7 @@
         <v>0</v>
       </c>
       <c r="C31">
-        <v>1330</v>
+        <v>1286.515571617672</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -4873,7 +4870,7 @@
         <v>1</v>
       </c>
       <c r="C32">
-        <v>9970</v>
+        <v>17288.8595992193</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -4995,7 +4992,7 @@
         <v>0</v>
       </c>
       <c r="C33">
-        <v>2930</v>
+        <v>2839.92516805933</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -5239,7 +5236,7 @@
         <v>1</v>
       </c>
       <c r="C35">
-        <v>570</v>
+        <v>647.8358464534491</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -5361,7 +5358,7 @@
         <v>1</v>
       </c>
       <c r="C36">
-        <v>550</v>
+        <v>860.6378736881254</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -5483,7 +5480,7 @@
         <v>1</v>
       </c>
       <c r="C37">
-        <v>580</v>
+        <v>557.6321326261259</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -5605,7 +5602,7 @@
         <v>1</v>
       </c>
       <c r="C38">
-        <v>690</v>
+        <v>710.2742021758368</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -5727,7 +5724,7 @@
         <v>1</v>
       </c>
       <c r="C39">
-        <v>1340</v>
+        <v>1280.225469721551</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -5849,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="C40">
-        <v>960</v>
+        <v>951.6879611168786</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -5971,7 +5968,7 @@
         <v>0</v>
       </c>
       <c r="C41">
-        <v>5610</v>
+        <v>5730.354774594881</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -6093,7 +6090,7 @@
         <v>0</v>
       </c>
       <c r="C42">
-        <v>2710</v>
+        <v>2898.942214704482</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -6215,7 +6212,7 @@
         <v>1</v>
       </c>
       <c r="C43">
-        <v>650</v>
+        <v>665.6274194933962</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -6317,7 +6314,7 @@
         <v>0</v>
       </c>
       <c r="AL43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM43">
         <v>0</v>
@@ -6337,7 +6334,7 @@
         <v>0</v>
       </c>
       <c r="C44">
-        <v>1730</v>
+        <v>1904.346464968814</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -6459,7 +6456,7 @@
         <v>0</v>
       </c>
       <c r="C45">
-        <v>5340</v>
+        <v>5555.389721901988</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -6561,7 +6558,7 @@
         <v>0</v>
       </c>
       <c r="AL45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM45">
         <v>0</v>
@@ -6581,7 +6578,7 @@
         <v>0</v>
       </c>
       <c r="C46">
-        <v>4390</v>
+        <v>4633.590358399045</v>
       </c>
       <c r="D46">
         <v>64444</v>
@@ -6703,7 +6700,7 @@
         <v>0</v>
       </c>
       <c r="C47">
-        <v>11810</v>
+        <v>13825.35808833117</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -6825,7 +6822,7 @@
         <v>0</v>
       </c>
       <c r="C48">
-        <v>1220</v>
+        <v>1357.563719132622</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -6947,7 +6944,7 @@
         <v>0</v>
       </c>
       <c r="C49">
-        <v>4360</v>
+        <v>4094.350334420203</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -7069,7 +7066,7 @@
         <v>0</v>
       </c>
       <c r="C50">
-        <v>7480</v>
+        <v>7761.646190572197</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -7191,7 +7188,7 @@
         <v>1</v>
       </c>
       <c r="C51">
-        <v>420</v>
+        <v>466.3491752969743</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -7313,7 +7310,7 @@
         <v>1</v>
       </c>
       <c r="C52">
-        <v>490</v>
+        <v>487.7306818514292</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -7435,7 +7432,7 @@
         <v>1</v>
       </c>
       <c r="C53">
-        <v>500</v>
+        <v>492.3430015592067</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -7557,7 +7554,7 @@
         <v>0</v>
       </c>
       <c r="C54">
-        <v>1350</v>
+        <v>1303.425880277445</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -7679,7 +7676,7 @@
         <v>0</v>
       </c>
       <c r="C55">
-        <v>2120</v>
+        <v>2828.483778716848</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -7801,7 +7798,7 @@
         <v>1</v>
       </c>
       <c r="C56">
-        <v>11530</v>
+        <v>17610.30663334184</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -7923,7 +7920,7 @@
         <v>0</v>
       </c>
       <c r="C57">
-        <v>3000</v>
+        <v>2948.84548976845</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -8167,7 +8164,7 @@
         <v>1</v>
       </c>
       <c r="C59">
-        <v>600</v>
+        <v>670.2645481663891</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -8289,7 +8286,7 @@
         <v>1</v>
       </c>
       <c r="C60">
-        <v>480</v>
+        <v>767.1553536433389</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -8411,7 +8408,7 @@
         <v>1</v>
       </c>
       <c r="C61">
-        <v>640</v>
+        <v>587.1403830380606</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -8533,7 +8530,7 @@
         <v>1</v>
       </c>
       <c r="C62">
-        <v>1310</v>
+        <v>1263.452411343738</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -8655,7 +8652,7 @@
         <v>0</v>
       </c>
       <c r="C63">
-        <v>990</v>
+        <v>982.980837581714</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -8777,7 +8774,7 @@
         <v>0</v>
       </c>
       <c r="C64">
-        <v>5930</v>
+        <v>5885.254624554112</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -8899,7 +8896,7 @@
         <v>0</v>
       </c>
       <c r="C65">
-        <v>2860</v>
+        <v>2965.153206179127</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -9021,7 +9018,7 @@
         <v>1</v>
       </c>
       <c r="C66">
-        <v>710</v>
+        <v>691.8942672110555</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -9123,7 +9120,7 @@
         <v>0</v>
       </c>
       <c r="AL66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM66">
         <v>0</v>
@@ -9143,7 +9140,7 @@
         <v>0</v>
       </c>
       <c r="C67">
-        <v>1860</v>
+        <v>1939.33862702996</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -9265,7 +9262,7 @@
         <v>0</v>
       </c>
       <c r="C68">
-        <v>5540</v>
+        <v>5660.517066940175</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -9367,7 +9364,7 @@
         <v>0</v>
       </c>
       <c r="AL68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM68">
         <v>0</v>
@@ -9387,7 +9384,7 @@
         <v>0</v>
       </c>
       <c r="C69">
-        <v>1990</v>
+        <v>2024.117324382548</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -9509,7 +9506,7 @@
         <v>0</v>
       </c>
       <c r="C70">
-        <v>6320</v>
+        <v>6711.616186806423</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -9631,7 +9628,7 @@
         <v>0</v>
       </c>
       <c r="C71">
-        <v>4870</v>
+        <v>4921.848409120176</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -9753,7 +9750,7 @@
         <v>0</v>
       </c>
       <c r="C72">
-        <v>4480</v>
+        <v>4479.398934239905</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -9875,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="C73">
-        <v>4970</v>
+        <v>5360.226632400601</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -9997,7 +9994,7 @@
         <v>1</v>
       </c>
       <c r="C74">
-        <v>530</v>
+        <v>528.7366480577675</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -10119,7 +10116,7 @@
         <v>0</v>
       </c>
       <c r="C75">
-        <v>1360</v>
+        <v>1410.426304742003</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -10241,7 +10238,7 @@
         <v>1</v>
       </c>
       <c r="C76">
-        <v>610</v>
+        <v>612.032557723897</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -10485,7 +10482,7 @@
         <v>0</v>
       </c>
       <c r="C78">
-        <v>5790</v>
+        <v>5745.422744292303</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -10587,7 +10584,7 @@
         <v>0</v>
       </c>
       <c r="AL78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM78">
         <v>0</v>
@@ -10607,7 +10604,7 @@
         <v>0</v>
       </c>
       <c r="C79">
-        <v>3210</v>
+        <v>3156.723844635973</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -10729,7 +10726,7 @@
         <v>0</v>
       </c>
       <c r="C80">
-        <v>5790</v>
+        <v>5642.578115155247</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -10851,7 +10848,7 @@
         <v>0</v>
       </c>
       <c r="C81">
-        <v>1480</v>
+        <v>1469.177610078392</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -10973,7 +10970,7 @@
         <v>1</v>
       </c>
       <c r="C82">
-        <v>760</v>
+        <v>701.4459636783288</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -11075,7 +11072,7 @@
         <v>0</v>
       </c>
       <c r="AL82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM82">
         <v>0</v>
@@ -11095,7 +11092,7 @@
         <v>1</v>
       </c>
       <c r="C83">
-        <v>1240</v>
+        <v>1128.507454946512</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -11217,7 +11214,7 @@
         <v>1</v>
       </c>
       <c r="C84">
-        <v>550</v>
+        <v>513.7390871590731</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -11339,7 +11336,7 @@
         <v>0</v>
       </c>
       <c r="C85">
-        <v>5390</v>
+        <v>5122.180090208862</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -11461,7 +11458,7 @@
         <v>0</v>
       </c>
       <c r="C86">
-        <v>2390</v>
+        <v>2860.874335573629</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -11583,7 +11580,7 @@
         <v>0</v>
       </c>
       <c r="C87">
-        <v>2980</v>
+        <v>2995.45235738661</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -11827,7 +11824,7 @@
         <v>0</v>
       </c>
       <c r="C89">
-        <v>1950</v>
+        <v>1982.009737844954</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -11949,7 +11946,7 @@
         <v>1</v>
       </c>
       <c r="C90">
-        <v>13860</v>
+        <v>18254.09644617555</v>
       </c>
       <c r="D90">
         <v>0</v>
@@ -12071,7 +12068,7 @@
         <v>1</v>
       </c>
       <c r="C91">
-        <v>1330</v>
+        <v>1291.622214254295</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -12193,7 +12190,7 @@
         <v>1</v>
       </c>
       <c r="C92">
-        <v>630</v>
+        <v>576.1901254506987</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -12315,7 +12312,7 @@
         <v>1</v>
       </c>
       <c r="C93">
-        <v>430</v>
+        <v>467.435789903935</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -12437,7 +12434,7 @@
         <v>0</v>
       </c>
       <c r="C94">
-        <v>4760</v>
+        <v>4394.543881413723</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -12559,7 +12556,7 @@
         <v>0</v>
       </c>
       <c r="C95">
-        <v>6280</v>
+        <v>6051.685746144485</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -12681,7 +12678,7 @@
         <v>1</v>
       </c>
       <c r="C96">
-        <v>630</v>
+        <v>561.9866500362131</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -12803,7 +12800,7 @@
         <v>0</v>
       </c>
       <c r="C97">
-        <v>1360</v>
+        <v>1325.930225429421</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -12924,8 +12921,8 @@
       <c r="B98">
         <v>0</v>
       </c>
-      <c r="C98" t="s">
-        <v>138</v>
+      <c r="C98">
+        <v>0</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -13041,13 +13038,13 @@
     </row>
     <row r="99" spans="1:41">
       <c r="A99" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B99">
         <v>0</v>
       </c>
       <c r="C99">
-        <v>10050</v>
+        <v>9690.869064532331</v>
       </c>
       <c r="D99">
         <v>0</v>
@@ -13163,13 +13160,13 @@
     </row>
     <row r="100" spans="1:41">
       <c r="A100" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B100">
         <v>1</v>
       </c>
       <c r="C100">
-        <v>480</v>
+        <v>783.2666928108922</v>
       </c>
       <c r="D100">
         <v>0</v>
@@ -13285,13 +13282,13 @@
     </row>
     <row r="101" spans="1:41">
       <c r="A101" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B101">
         <v>0</v>
       </c>
       <c r="C101">
-        <v>1050</v>
+        <v>1000.829216794104</v>
       </c>
       <c r="D101">
         <v>0</v>
@@ -13407,13 +13404,13 @@
     </row>
     <row r="102" spans="1:41">
       <c r="A102" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
       <c r="C102">
-        <v>2840</v>
+        <v>2634.85005236495</v>
       </c>
       <c r="D102">
         <v>0</v>
@@ -13529,13 +13526,13 @@
     </row>
     <row r="103" spans="1:41">
       <c r="A103" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
       <c r="C103">
-        <v>2970</v>
+        <v>2379.668184479739</v>
       </c>
       <c r="D103">
         <v>0</v>
@@ -13651,13 +13648,13 @@
     </row>
     <row r="104" spans="1:41">
       <c r="A104" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B104">
         <v>1</v>
       </c>
       <c r="C104">
-        <v>460</v>
+        <v>482.9237812079122</v>
       </c>
       <c r="D104">
         <v>0</v>
@@ -13773,13 +13770,13 @@
     </row>
     <row r="105" spans="1:41">
       <c r="A105" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B105">
         <v>0</v>
       </c>
       <c r="C105">
-        <v>1690</v>
+        <v>1657.651524528445</v>
       </c>
       <c r="D105">
         <v>0</v>
@@ -13895,13 +13892,13 @@
     </row>
     <row r="106" spans="1:41">
       <c r="A106" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B106">
         <v>1</v>
       </c>
       <c r="C106">
-        <v>960</v>
+        <v>909.3123437708064</v>
       </c>
       <c r="D106">
         <v>0</v>
@@ -14017,13 +14014,13 @@
     </row>
     <row r="107" spans="1:41">
       <c r="A107" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B107">
         <v>0</v>
       </c>
       <c r="C107">
-        <v>6020</v>
+        <v>5955.175904294275</v>
       </c>
       <c r="D107">
         <v>0</v>
@@ -14125,7 +14122,7 @@
         <v>0</v>
       </c>
       <c r="AL107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM107">
         <v>0</v>
@@ -14139,13 +14136,13 @@
     </row>
     <row r="108" spans="1:41">
       <c r="A108" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B108">
         <v>0</v>
       </c>
       <c r="C108">
-        <v>3350</v>
+        <v>3212.740625904757</v>
       </c>
       <c r="D108">
         <v>0</v>
@@ -14261,13 +14258,13 @@
     </row>
     <row r="109" spans="1:41">
       <c r="A109" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B109">
         <v>0</v>
       </c>
       <c r="C109">
-        <v>6420</v>
+        <v>5919.20956823756</v>
       </c>
       <c r="D109">
         <v>0</v>
@@ -14383,13 +14380,13 @@
     </row>
     <row r="110" spans="1:41">
       <c r="A110" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B110">
         <v>0</v>
       </c>
       <c r="C110">
-        <v>1520</v>
+        <v>1544.619247249133</v>
       </c>
       <c r="D110">
         <v>0</v>
@@ -14505,13 +14502,13 @@
     </row>
     <row r="111" spans="1:41">
       <c r="A111" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B111">
         <v>1</v>
       </c>
       <c r="C111">
-        <v>800</v>
+        <v>720.7128711178943</v>
       </c>
       <c r="D111">
         <v>0</v>
@@ -14613,7 +14610,7 @@
         <v>0</v>
       </c>
       <c r="AL111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM111">
         <v>0</v>
@@ -14627,13 +14624,13 @@
     </row>
     <row r="112" spans="1:41">
       <c r="A112" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B112">
         <v>1</v>
       </c>
       <c r="C112">
-        <v>1440</v>
+        <v>1160.163390965724</v>
       </c>
       <c r="D112">
         <v>0</v>
@@ -14749,13 +14746,13 @@
     </row>
     <row r="113" spans="1:41">
       <c r="A113" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B113">
         <v>1</v>
       </c>
       <c r="C113">
-        <v>620</v>
+        <v>534.5063430177229</v>
       </c>
       <c r="D113">
         <v>0</v>
@@ -14871,13 +14868,13 @@
     </row>
     <row r="114" spans="1:41">
       <c r="A114" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B114">
         <v>0</v>
       </c>
       <c r="C114">
-        <v>5810</v>
+        <v>5295.682695961288</v>
       </c>
       <c r="D114">
         <v>0</v>
@@ -14993,13 +14990,13 @@
     </row>
     <row r="115" spans="1:41">
       <c r="A115" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B115">
         <v>0</v>
       </c>
       <c r="C115">
-        <v>2490</v>
+        <v>2887.250212489506</v>
       </c>
       <c r="D115">
         <v>0</v>
@@ -15115,13 +15112,13 @@
     </row>
     <row r="116" spans="1:41">
       <c r="A116" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B116">
         <v>0</v>
       </c>
       <c r="C116">
-        <v>3090</v>
+        <v>3087.12349650562</v>
       </c>
       <c r="D116">
         <v>0</v>
@@ -15237,7 +15234,7 @@
     </row>
     <row r="117" spans="1:41">
       <c r="A117" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -15359,13 +15356,13 @@
     </row>
     <row r="118" spans="1:41">
       <c r="A118" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B118">
         <v>0</v>
       </c>
       <c r="C118">
-        <v>1990</v>
+        <v>2000.792448761861</v>
       </c>
       <c r="D118">
         <v>0</v>
@@ -15481,13 +15478,13 @@
     </row>
     <row r="119" spans="1:41">
       <c r="A119" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B119">
         <v>1</v>
       </c>
       <c r="C119">
-        <v>14020</v>
+        <v>16764.42871195103</v>
       </c>
       <c r="D119">
         <v>0</v>
@@ -15603,13 +15600,13 @@
     </row>
     <row r="120" spans="1:41">
       <c r="A120" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B120">
         <v>1</v>
       </c>
       <c r="C120">
-        <v>1360</v>
+        <v>1291.415042301529</v>
       </c>
       <c r="D120">
         <v>0</v>
@@ -15725,13 +15722,13 @@
     </row>
     <row r="121" spans="1:41">
       <c r="A121" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B121">
         <v>1</v>
       </c>
       <c r="C121">
-        <v>660</v>
+        <v>587.5650901501764</v>
       </c>
       <c r="D121">
         <v>0</v>
@@ -15847,13 +15844,13 @@
     </row>
     <row r="122" spans="1:41">
       <c r="A122" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B122">
         <v>1</v>
       </c>
       <c r="C122">
-        <v>440</v>
+        <v>465.3887773612468</v>
       </c>
       <c r="D122">
         <v>0</v>
@@ -15969,13 +15966,13 @@
     </row>
     <row r="123" spans="1:41">
       <c r="A123" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B123">
         <v>0</v>
       </c>
       <c r="C123">
-        <v>5510</v>
+        <v>4699.493713911862</v>
       </c>
       <c r="D123">
         <v>0</v>
@@ -16091,13 +16088,13 @@
     </row>
     <row r="124" spans="1:41">
       <c r="A124" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B124">
         <v>0</v>
       </c>
       <c r="C124">
-        <v>6640</v>
+        <v>6203.843262938323</v>
       </c>
       <c r="D124">
         <v>0</v>
@@ -16213,13 +16210,13 @@
     </row>
     <row r="125" spans="1:41">
       <c r="A125" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B125">
         <v>1</v>
       </c>
       <c r="C125">
-        <v>640</v>
+        <v>565.0479699255185</v>
       </c>
       <c r="D125">
         <v>0</v>
@@ -16335,13 +16332,13 @@
     </row>
     <row r="126" spans="1:41">
       <c r="A126" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B126">
         <v>0</v>
       </c>
       <c r="C126">
-        <v>1430</v>
+        <v>1360.10887014004</v>
       </c>
       <c r="D126">
         <v>0</v>
@@ -16457,13 +16454,13 @@
     </row>
     <row r="127" spans="1:41">
       <c r="A127" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B127">
         <v>0</v>
       </c>
-      <c r="C127" t="s">
-        <v>138</v>
+      <c r="C127">
+        <v>0</v>
       </c>
       <c r="D127">
         <v>0</v>
@@ -16579,13 +16576,13 @@
     </row>
     <row r="128" spans="1:41">
       <c r="A128" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B128">
         <v>0</v>
       </c>
       <c r="C128">
-        <v>10270</v>
+        <v>9693.722968944676</v>
       </c>
       <c r="D128">
         <v>0</v>
@@ -16701,13 +16698,13 @@
     </row>
     <row r="129" spans="1:41">
       <c r="A129" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B129">
         <v>1</v>
       </c>
       <c r="C129">
-        <v>540</v>
+        <v>781.6818047779378</v>
       </c>
       <c r="D129">
         <v>0</v>
@@ -16823,13 +16820,13 @@
     </row>
     <row r="130" spans="1:41">
       <c r="A130" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B130">
         <v>0</v>
       </c>
       <c r="C130">
-        <v>1130</v>
+        <v>1032.277326842402</v>
       </c>
       <c r="D130">
         <v>0</v>
@@ -16945,13 +16942,13 @@
     </row>
     <row r="131" spans="1:41">
       <c r="A131" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B131">
         <v>0</v>
       </c>
       <c r="C131">
-        <v>3030</v>
+        <v>2632.058233068435</v>
       </c>
       <c r="D131">
         <v>0</v>
@@ -17067,13 +17064,13 @@
     </row>
     <row r="132" spans="1:41">
       <c r="A132" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B132">
         <v>0</v>
       </c>
       <c r="C132">
-        <v>3290</v>
+        <v>2497.68592515536</v>
       </c>
       <c r="D132">
         <v>0</v>
@@ -17189,13 +17186,13 @@
     </row>
     <row r="133" spans="1:41">
       <c r="A133" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B133">
         <v>1</v>
       </c>
       <c r="C133">
-        <v>410</v>
+        <v>493.8183694827482</v>
       </c>
       <c r="D133">
         <v>0</v>
@@ -17311,13 +17308,13 @@
     </row>
     <row r="134" spans="1:41">
       <c r="A134" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B134">
         <v>0</v>
       </c>
       <c r="C134">
-        <v>1780</v>
+        <v>1716.389195271215</v>
       </c>
       <c r="D134">
         <v>0</v>
@@ -17433,13 +17430,13 @@
     </row>
     <row r="135" spans="1:41">
       <c r="A135" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B135">
         <v>1</v>
       </c>
       <c r="C135">
-        <v>970</v>
+        <v>929.4690557368662</v>
       </c>
       <c r="D135">
         <v>0</v>
@@ -17555,13 +17552,13 @@
     </row>
     <row r="136" spans="1:41">
       <c r="A136" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B136">
         <v>0</v>
       </c>
       <c r="C136">
-        <v>2830</v>
+        <v>2286.013198234259</v>
       </c>
       <c r="D136">
         <v>0</v>
@@ -17677,13 +17674,13 @@
     </row>
     <row r="137" spans="1:41">
       <c r="A137" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B137">
         <v>0</v>
       </c>
       <c r="C137">
-        <v>1480</v>
+        <v>1401.753174264641</v>
       </c>
       <c r="D137">
         <v>0</v>
@@ -17799,13 +17796,13 @@
     </row>
     <row r="138" spans="1:41">
       <c r="A138" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B138">
         <v>0</v>
       </c>
       <c r="C138">
-        <v>8190</v>
+        <v>7449.08671983612</v>
       </c>
       <c r="D138">
         <v>0</v>
@@ -17921,13 +17918,13 @@
     </row>
     <row r="139" spans="1:41">
       <c r="A139" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B139">
         <v>0</v>
       </c>
       <c r="C139">
-        <v>2590</v>
+        <v>3008.669179463094</v>
       </c>
       <c r="D139">
         <v>0</v>
@@ -18043,13 +18040,13 @@
     </row>
     <row r="140" spans="1:41">
       <c r="A140" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B140">
         <v>0</v>
       </c>
       <c r="C140">
-        <v>6110</v>
+        <v>5412.131646018807</v>
       </c>
       <c r="D140">
         <v>0</v>
@@ -18165,13 +18162,13 @@
     </row>
     <row r="141" spans="1:41">
       <c r="A141" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B141">
         <v>1</v>
       </c>
       <c r="C141">
-        <v>550</v>
+        <v>449.4203771491282</v>
       </c>
       <c r="D141">
         <v>0</v>
@@ -18287,13 +18284,13 @@
     </row>
     <row r="142" spans="1:41">
       <c r="A142" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B142">
         <v>1</v>
       </c>
       <c r="C142">
-        <v>560</v>
+        <v>747.708731949503</v>
       </c>
       <c r="D142">
         <v>0</v>
@@ -18409,13 +18406,13 @@
     </row>
     <row r="143" spans="1:41">
       <c r="A143" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B143">
         <v>0</v>
       </c>
       <c r="C143">
-        <v>3460</v>
+        <v>3137.260298393558</v>
       </c>
       <c r="D143">
         <v>0</v>
@@ -18531,13 +18528,13 @@
     </row>
     <row r="144" spans="1:41">
       <c r="A144" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B144">
         <v>1</v>
       </c>
       <c r="C144">
-        <v>830</v>
+        <v>730.3063521039821</v>
       </c>
       <c r="D144">
         <v>0</v>
@@ -18639,7 +18636,7 @@
         <v>0</v>
       </c>
       <c r="AL144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM144">
         <v>0</v>
@@ -18653,13 +18650,13 @@
     </row>
     <row r="145" spans="1:41">
       <c r="A145" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B145">
         <v>0</v>
       </c>
       <c r="C145">
-        <v>1990</v>
+        <v>2025.814194788851</v>
       </c>
       <c r="D145">
         <v>0</v>
@@ -18775,13 +18772,13 @@
     </row>
     <row r="146" spans="1:41">
       <c r="A146" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B146">
         <v>0</v>
       </c>
       <c r="C146">
-        <v>1560</v>
+        <v>1640.18070024053</v>
       </c>
       <c r="D146">
         <v>0</v>
@@ -18897,13 +18894,13 @@
     </row>
     <row r="147" spans="1:41">
       <c r="A147" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B147">
         <v>1</v>
       </c>
       <c r="C147">
-        <v>440</v>
+        <v>468.1130345750273</v>
       </c>
       <c r="D147">
         <v>0</v>
@@ -19019,13 +19016,13 @@
     </row>
     <row r="148" spans="1:41">
       <c r="A148" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B148">
         <v>1</v>
       </c>
       <c r="C148">
-        <v>370</v>
+        <v>507.537974993908</v>
       </c>
       <c r="D148">
         <v>0</v>
@@ -19141,13 +19138,13 @@
     </row>
     <row r="149" spans="1:41">
       <c r="A149" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B149">
         <v>0</v>
       </c>
       <c r="C149">
-        <v>3060</v>
+        <v>3125.07948072635</v>
       </c>
       <c r="D149">
         <v>0</v>
@@ -19263,13 +19260,13 @@
     </row>
     <row r="150" spans="1:41">
       <c r="A150" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B150">
         <v>0</v>
       </c>
       <c r="C150">
-        <v>10510</v>
+        <v>9839.050190896</v>
       </c>
       <c r="D150">
         <v>0</v>
@@ -19385,13 +19382,13 @@
     </row>
     <row r="151" spans="1:41">
       <c r="A151" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B151">
         <v>1</v>
       </c>
       <c r="C151">
-        <v>650</v>
+        <v>558.2093442539386</v>
       </c>
       <c r="D151">
         <v>0</v>
@@ -19507,13 +19504,13 @@
     </row>
     <row r="152" spans="1:41">
       <c r="A152" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B152">
         <v>1</v>
       </c>
       <c r="C152">
-        <v>770</v>
+        <v>711.3043470146426</v>
       </c>
       <c r="D152">
         <v>0</v>
@@ -19629,13 +19626,13 @@
     </row>
     <row r="153" spans="1:41">
       <c r="A153" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B153">
         <v>0</v>
       </c>
       <c r="C153">
-        <v>5780</v>
+        <v>4861.287098802361</v>
       </c>
       <c r="D153">
         <v>0</v>
@@ -19751,13 +19748,13 @@
     </row>
     <row r="154" spans="1:41">
       <c r="A154" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B154">
         <v>0</v>
       </c>
       <c r="C154">
-        <v>6530</v>
+        <v>5996.49696468919</v>
       </c>
       <c r="D154">
         <v>0</v>
@@ -19873,7 +19870,7 @@
     </row>
     <row r="155" spans="1:41">
       <c r="A155" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B155">
         <v>0</v>
@@ -19995,13 +19992,13 @@
     </row>
     <row r="156" spans="1:41">
       <c r="A156" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B156">
         <v>0</v>
       </c>
       <c r="C156">
-        <v>6310</v>
+        <v>6301.696269820412</v>
       </c>
       <c r="D156">
         <v>0</v>
@@ -20103,7 +20100,7 @@
         <v>0</v>
       </c>
       <c r="AL156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM156">
         <v>0</v>
@@ -20117,13 +20114,13 @@
     </row>
     <row r="157" spans="1:41">
       <c r="A157" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B157">
         <v>1</v>
       </c>
       <c r="C157">
-        <v>1380</v>
+        <v>1338.716747746975</v>
       </c>
       <c r="D157">
         <v>0</v>
@@ -20239,13 +20236,13 @@
     </row>
     <row r="158" spans="1:41">
       <c r="A158" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B158">
         <v>0</v>
       </c>
-      <c r="C158" t="s">
-        <v>138</v>
+      <c r="C158">
+        <v>0</v>
       </c>
       <c r="D158">
         <v>0</v>
@@ -20361,13 +20358,13 @@
     </row>
     <row r="159" spans="1:41">
       <c r="A159" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B159">
         <v>1</v>
       </c>
       <c r="C159">
-        <v>690</v>
+        <v>886.4370030633224</v>
       </c>
       <c r="D159">
         <v>0</v>
@@ -20483,13 +20480,13 @@
     </row>
     <row r="160" spans="1:41">
       <c r="A160" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B160">
         <v>0</v>
       </c>
       <c r="C160">
-        <v>2960</v>
+        <v>2361.056581219794</v>
       </c>
       <c r="D160">
         <v>0</v>
@@ -20605,13 +20602,13 @@
     </row>
     <row r="161" spans="1:41">
       <c r="A161" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B161">
         <v>0</v>
       </c>
       <c r="C161">
-        <v>1440</v>
+        <v>1441.783971398429</v>
       </c>
       <c r="D161">
         <v>0</v>
@@ -20727,13 +20724,13 @@
     </row>
     <row r="162" spans="1:41">
       <c r="A162" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B162">
         <v>0</v>
       </c>
       <c r="C162">
-        <v>7330</v>
+        <v>7580.275568826287</v>
       </c>
       <c r="D162">
         <v>0</v>
@@ -20849,13 +20846,13 @@
     </row>
     <row r="163" spans="1:41">
       <c r="A163" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B163">
         <v>0</v>
       </c>
       <c r="C163">
-        <v>2410</v>
+        <v>3012.536723186288</v>
       </c>
       <c r="D163">
         <v>0</v>
@@ -20971,13 +20968,13 @@
     </row>
     <row r="164" spans="1:41">
       <c r="A164" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B164">
         <v>0</v>
       </c>
       <c r="C164">
-        <v>5970</v>
+        <v>5330.539154475424</v>
       </c>
       <c r="D164">
         <v>0</v>
@@ -21093,13 +21090,13 @@
     </row>
     <row r="165" spans="1:41">
       <c r="A165" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B165">
         <v>0</v>
       </c>
       <c r="C165">
-        <v>600</v>
+        <v>482.6390663355013</v>
       </c>
       <c r="D165">
         <v>0</v>
@@ -21215,13 +21212,13 @@
     </row>
     <row r="166" spans="1:41">
       <c r="A166" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B166">
         <v>0</v>
       </c>
       <c r="C166">
-        <v>640</v>
+        <v>754.9924336800377</v>
       </c>
       <c r="D166">
         <v>0</v>
@@ -21337,13 +21334,13 @@
     </row>
     <row r="167" spans="1:41">
       <c r="A167" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B167">
         <v>0</v>
       </c>
       <c r="C167">
-        <v>3620</v>
+        <v>3210.869677115934</v>
       </c>
       <c r="D167">
         <v>0</v>
@@ -21459,13 +21456,13 @@
     </row>
     <row r="168" spans="1:41">
       <c r="A168" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B168">
         <v>0</v>
       </c>
       <c r="C168">
-        <v>810</v>
+        <v>729.1196658666737</v>
       </c>
       <c r="D168">
         <v>0</v>
@@ -21567,7 +21564,7 @@
         <v>0</v>
       </c>
       <c r="AL168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM168">
         <v>0</v>
@@ -21581,13 +21578,13 @@
     </row>
     <row r="169" spans="1:41">
       <c r="A169" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B169">
         <v>0</v>
       </c>
       <c r="C169">
-        <v>2040</v>
+        <v>2067.29003376698</v>
       </c>
       <c r="D169">
         <v>0</v>
@@ -21703,13 +21700,13 @@
     </row>
     <row r="170" spans="1:41">
       <c r="A170" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B170">
         <v>0</v>
       </c>
       <c r="C170">
-        <v>1600</v>
+        <v>1751.664428859304</v>
       </c>
       <c r="D170">
         <v>0</v>
@@ -21825,13 +21822,13 @@
     </row>
     <row r="171" spans="1:41">
       <c r="A171" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B171">
         <v>0</v>
       </c>
       <c r="C171">
-        <v>420</v>
+        <v>469.9423670895969</v>
       </c>
       <c r="D171">
         <v>0</v>
@@ -21947,13 +21944,13 @@
     </row>
     <row r="172" spans="1:41">
       <c r="A172" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B172">
         <v>0</v>
       </c>
       <c r="C172">
-        <v>350</v>
+        <v>507.5484050163182</v>
       </c>
       <c r="D172">
         <v>0</v>
@@ -22069,13 +22066,13 @@
     </row>
     <row r="173" spans="1:41">
       <c r="A173" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B173">
         <v>0</v>
       </c>
       <c r="C173">
-        <v>3020</v>
+        <v>3222.05417836739</v>
       </c>
       <c r="D173">
         <v>0</v>
@@ -22191,13 +22188,13 @@
     </row>
     <row r="174" spans="1:41">
       <c r="A174" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B174">
         <v>0</v>
       </c>
       <c r="C174">
-        <v>10170</v>
+        <v>10037.20149040966</v>
       </c>
       <c r="D174">
         <v>0</v>
@@ -22313,13 +22310,13 @@
     </row>
     <row r="175" spans="1:41">
       <c r="A175" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B175">
         <v>0</v>
       </c>
       <c r="C175">
-        <v>600</v>
+        <v>579.0880693780265</v>
       </c>
       <c r="D175">
         <v>0</v>
@@ -22435,13 +22432,13 @@
     </row>
     <row r="176" spans="1:41">
       <c r="A176" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B176">
         <v>0</v>
       </c>
       <c r="C176">
-        <v>780</v>
+        <v>731.9993357350996</v>
       </c>
       <c r="D176">
         <v>0</v>
@@ -22557,13 +22554,13 @@
     </row>
     <row r="177" spans="1:41">
       <c r="A177" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B177">
         <v>0</v>
       </c>
       <c r="C177">
-        <v>5620</v>
+        <v>4944.191641077407</v>
       </c>
       <c r="D177">
         <v>0</v>
@@ -22679,13 +22676,13 @@
     </row>
     <row r="178" spans="1:41">
       <c r="A178" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B178">
         <v>0</v>
       </c>
       <c r="C178">
-        <v>6340</v>
+        <v>6114.227214287786</v>
       </c>
       <c r="D178">
         <v>0</v>
@@ -22801,7 +22798,7 @@
     </row>
     <row r="179" spans="1:41">
       <c r="A179" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B179">
         <v>0</v>
@@ -22923,13 +22920,13 @@
     </row>
     <row r="180" spans="1:41">
       <c r="A180" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B180">
         <v>0</v>
       </c>
       <c r="C180">
-        <v>6480</v>
+        <v>6661.86504232374</v>
       </c>
       <c r="D180">
         <v>0</v>
@@ -23031,7 +23028,7 @@
         <v>0</v>
       </c>
       <c r="AL180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM180">
         <v>0</v>
@@ -23045,13 +23042,13 @@
     </row>
     <row r="181" spans="1:41">
       <c r="A181" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B181">
         <v>0</v>
       </c>
       <c r="C181">
-        <v>1320</v>
+        <v>1384.519227335143</v>
       </c>
       <c r="D181">
         <v>0</v>
@@ -23167,13 +23164,13 @@
     </row>
     <row r="182" spans="1:41">
       <c r="A182" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B182">
         <v>0</v>
       </c>
-      <c r="C182" t="s">
-        <v>138</v>
+      <c r="C182">
+        <v>0</v>
       </c>
       <c r="D182">
         <v>0</v>
@@ -23289,13 +23286,13 @@
     </row>
     <row r="183" spans="1:41">
       <c r="A183" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B183">
         <v>0</v>
       </c>
       <c r="C183">
-        <v>700</v>
+        <v>900.3889853519216</v>
       </c>
       <c r="D183">
         <v>0</v>
@@ -23411,13 +23408,13 @@
     </row>
     <row r="184" spans="1:41">
       <c r="A184" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B184">
         <v>1</v>
       </c>
       <c r="C184">
-        <v>820</v>
+        <v>1134.924536209078</v>
       </c>
       <c r="D184">
         <v>0</v>
@@ -23533,13 +23530,13 @@
     </row>
     <row r="185" spans="1:41">
       <c r="A185" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B185">
         <v>0</v>
       </c>
       <c r="C185">
-        <v>1380</v>
+        <v>1469.192636109792</v>
       </c>
       <c r="D185">
         <v>0</v>
@@ -23655,13 +23652,13 @@
     </row>
     <row r="186" spans="1:41">
       <c r="A186" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B186">
         <v>0</v>
       </c>
       <c r="C186">
-        <v>6460</v>
+        <v>7633.969039669125</v>
       </c>
       <c r="D186">
         <v>0</v>
@@ -23777,13 +23774,13 @@
     </row>
     <row r="187" spans="1:41">
       <c r="A187" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B187">
         <v>0</v>
       </c>
-      <c r="C187" t="s">
-        <v>138</v>
+      <c r="C187">
+        <v>6550.274372976741</v>
       </c>
       <c r="D187">
         <v>0</v>
@@ -23899,13 +23896,13 @@
     </row>
     <row r="188" spans="1:41">
       <c r="A188" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B188">
         <v>0</v>
       </c>
       <c r="C188">
-        <v>5810</v>
+        <v>5176.058803160127</v>
       </c>
       <c r="D188">
         <v>0</v>
@@ -24021,13 +24018,13 @@
     </row>
     <row r="189" spans="1:41">
       <c r="A189" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B189">
         <v>0</v>
       </c>
       <c r="C189">
-        <v>3510</v>
+        <v>3382.563653843273</v>
       </c>
       <c r="D189">
         <v>0</v>
@@ -24143,13 +24140,13 @@
     </row>
     <row r="190" spans="1:41">
       <c r="A190" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B190">
         <v>0</v>
       </c>
       <c r="C190">
-        <v>3800</v>
+        <v>3242.636921959078</v>
       </c>
       <c r="D190">
         <v>0</v>
@@ -24265,13 +24262,13 @@
     </row>
     <row r="191" spans="1:41">
       <c r="A191" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B191">
         <v>1</v>
       </c>
       <c r="C191">
-        <v>780</v>
+        <v>729.8559996981501</v>
       </c>
       <c r="D191">
         <v>0</v>
@@ -24373,7 +24370,7 @@
         <v>0</v>
       </c>
       <c r="AL191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM191">
         <v>0</v>
@@ -24387,13 +24384,13 @@
     </row>
     <row r="192" spans="1:41">
       <c r="A192" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B192">
         <v>0</v>
       </c>
       <c r="C192">
-        <v>2110</v>
+        <v>2111.193164269742</v>
       </c>
       <c r="D192">
         <v>0</v>
@@ -24509,13 +24506,13 @@
     </row>
     <row r="193" spans="1:41">
       <c r="A193" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B193">
         <v>0</v>
       </c>
       <c r="C193">
-        <v>7250</v>
+        <v>6411.986543373589</v>
       </c>
       <c r="D193">
         <v>0</v>
@@ -24631,13 +24628,13 @@
     </row>
     <row r="194" spans="1:41">
       <c r="A194" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B194">
         <v>1</v>
       </c>
       <c r="C194">
-        <v>770</v>
+        <v>729.6614300490079</v>
       </c>
       <c r="D194">
         <v>0</v>
@@ -24753,7 +24750,7 @@
     </row>
     <row r="195" spans="1:41">
       <c r="A195" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B195">
         <v>0</v>
@@ -24875,13 +24872,13 @@
     </row>
     <row r="196" spans="1:41">
       <c r="A196" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B196">
         <v>0</v>
       </c>
       <c r="C196">
-        <v>6640</v>
+        <v>7026.178156858586</v>
       </c>
       <c r="D196">
         <v>0</v>
@@ -24983,7 +24980,7 @@
         <v>0</v>
       </c>
       <c r="AL196">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM196">
         <v>0</v>
@@ -24997,13 +24994,13 @@
     </row>
     <row r="197" spans="1:41">
       <c r="A197" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B197">
         <v>0</v>
       </c>
-      <c r="C197" t="s">
-        <v>138</v>
+      <c r="C197">
+        <v>0</v>
       </c>
       <c r="D197">
         <v>0</v>
@@ -25119,13 +25116,13 @@
     </row>
     <row r="198" spans="1:41">
       <c r="A198" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B198">
         <v>0</v>
       </c>
       <c r="C198">
-        <v>18890</v>
+        <v>22666.28622740736</v>
       </c>
       <c r="D198">
         <v>0</v>

--- a/output/farmaceuticos sin fronteras.xlsx
+++ b/output/farmaceuticos sin fronteras.xlsx
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>2235.045836135583</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -3650,7 +3650,7 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>914.4454289880559</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -4016,7 +4016,7 @@
         <v>1</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>322.4182544241485</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -4626,7 +4626,7 @@
         <v>1</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>334.0215725731523</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -5114,7 +5114,7 @@
         <v>0</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>937.175305459579</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -8042,7 +8042,7 @@
         <v>0</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>973.1190116235886</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -10360,7 +10360,7 @@
         <v>0</v>
       </c>
       <c r="C77">
-        <v>0</v>
+        <v>2580.369788543324</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -11702,7 +11702,7 @@
         <v>0</v>
       </c>
       <c r="C88">
-        <v>0</v>
+        <v>988.4992779375814</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -12922,7 +12922,7 @@
         <v>0</v>
       </c>
       <c r="C98">
-        <v>0</v>
+        <v>4125.78</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -14026,7 +14026,7 @@
         <v>0</v>
       </c>
       <c r="E107">
-        <v>10699.535</v>
+        <v>30781</v>
       </c>
       <c r="F107">
         <v>0</v>
@@ -14148,7 +14148,7 @@
         <v>0</v>
       </c>
       <c r="E108">
-        <v>5219.555</v>
+        <v>0</v>
       </c>
       <c r="F108">
         <v>0</v>
@@ -14270,7 +14270,7 @@
         <v>0</v>
       </c>
       <c r="E109">
-        <v>14356.13</v>
+        <v>6584</v>
       </c>
       <c r="F109">
         <v>0</v>
@@ -14392,7 +14392,7 @@
         <v>0</v>
       </c>
       <c r="E110">
-        <v>9117.905000000001</v>
+        <v>1599</v>
       </c>
       <c r="F110">
         <v>0</v>
@@ -14514,7 +14514,7 @@
         <v>0</v>
       </c>
       <c r="E111">
-        <v>13109.81</v>
+        <v>38933</v>
       </c>
       <c r="F111">
         <v>0</v>
@@ -14636,7 +14636,7 @@
         <v>0</v>
       </c>
       <c r="E112">
-        <v>1649.775</v>
+        <v>0</v>
       </c>
       <c r="F112">
         <v>0</v>
@@ -14758,7 +14758,7 @@
         <v>0</v>
       </c>
       <c r="E113">
-        <v>1874.76</v>
+        <v>753</v>
       </c>
       <c r="F113">
         <v>0</v>
@@ -14880,7 +14880,7 @@
         <v>0</v>
       </c>
       <c r="E114">
-        <v>4455.42</v>
+        <v>131335</v>
       </c>
       <c r="F114">
         <v>0</v>
@@ -15002,7 +15002,7 @@
         <v>0</v>
       </c>
       <c r="E115">
-        <v>3591.245</v>
+        <v>1106</v>
       </c>
       <c r="F115">
         <v>0</v>
@@ -15124,7 +15124,7 @@
         <v>0</v>
       </c>
       <c r="E116">
-        <v>5057.705</v>
+        <v>10246</v>
       </c>
       <c r="F116">
         <v>0</v>
@@ -15240,13 +15240,13 @@
         <v>0</v>
       </c>
       <c r="C117">
-        <v>0</v>
+        <v>1018.750753846855</v>
       </c>
       <c r="D117">
         <v>0</v>
       </c>
       <c r="E117">
-        <v>25844.88</v>
+        <v>1519</v>
       </c>
       <c r="F117">
         <v>0</v>
@@ -15368,7 +15368,7 @@
         <v>0</v>
       </c>
       <c r="E118">
-        <v>14848.025</v>
+        <v>9306</v>
       </c>
       <c r="F118">
         <v>0</v>
@@ -15490,7 +15490,7 @@
         <v>0</v>
       </c>
       <c r="E119">
-        <v>1803.55</v>
+        <v>2006</v>
       </c>
       <c r="F119">
         <v>0</v>
@@ -15612,7 +15612,7 @@
         <v>0</v>
       </c>
       <c r="E120">
-        <v>9325.684999999999</v>
+        <v>1893</v>
       </c>
       <c r="F120">
         <v>0</v>
@@ -15734,7 +15734,7 @@
         <v>0</v>
       </c>
       <c r="E121">
-        <v>14118.69</v>
+        <v>4598</v>
       </c>
       <c r="F121">
         <v>0</v>
@@ -15856,7 +15856,7 @@
         <v>0</v>
       </c>
       <c r="E122">
-        <v>11795.31</v>
+        <v>4892</v>
       </c>
       <c r="F122">
         <v>0</v>
@@ -15978,7 +15978,7 @@
         <v>0</v>
       </c>
       <c r="E123">
-        <v>1442.665</v>
+        <v>6492</v>
       </c>
       <c r="F123">
         <v>0</v>
@@ -16100,7 +16100,7 @@
         <v>0</v>
       </c>
       <c r="E124">
-        <v>1415.285</v>
+        <v>1660</v>
       </c>
       <c r="F124">
         <v>0</v>
@@ -16222,7 +16222,7 @@
         <v>0</v>
       </c>
       <c r="E125">
-        <v>8361.049999999999</v>
+        <v>5810</v>
       </c>
       <c r="F125">
         <v>0</v>
@@ -16344,7 +16344,7 @@
         <v>0</v>
       </c>
       <c r="E126">
-        <v>1306.055</v>
+        <v>1175</v>
       </c>
       <c r="F126">
         <v>0</v>
@@ -16460,13 +16460,13 @@
         <v>0</v>
       </c>
       <c r="C127">
-        <v>0</v>
+        <v>1526.54</v>
       </c>
       <c r="D127">
         <v>0</v>
       </c>
       <c r="E127">
-        <v>24985.68</v>
+        <v>0</v>
       </c>
       <c r="F127">
         <v>0</v>
@@ -16588,7 +16588,7 @@
         <v>0</v>
       </c>
       <c r="E128">
-        <v>509.885</v>
+        <v>0</v>
       </c>
       <c r="F128">
         <v>0</v>
@@ -16710,7 +16710,7 @@
         <v>0</v>
       </c>
       <c r="E129">
-        <v>1255.04</v>
+        <v>519</v>
       </c>
       <c r="F129">
         <v>0</v>
@@ -16832,7 +16832,7 @@
         <v>0</v>
       </c>
       <c r="E130">
-        <v>1541.405</v>
+        <v>1040</v>
       </c>
       <c r="F130">
         <v>0</v>
@@ -16954,7 +16954,7 @@
         <v>0</v>
       </c>
       <c r="E131">
-        <v>2055.21</v>
+        <v>0</v>
       </c>
       <c r="F131">
         <v>0</v>
@@ -17076,7 +17076,7 @@
         <v>0</v>
       </c>
       <c r="E132">
-        <v>13786.555</v>
+        <v>0</v>
       </c>
       <c r="F132">
         <v>0</v>
@@ -17198,7 +17198,7 @@
         <v>0</v>
       </c>
       <c r="E133">
-        <v>29029.81</v>
+        <v>3151</v>
       </c>
       <c r="F133">
         <v>0</v>
@@ -17320,7 +17320,7 @@
         <v>0</v>
       </c>
       <c r="E134">
-        <v>4029.15</v>
+        <v>0</v>
       </c>
       <c r="F134">
         <v>0</v>
@@ -17442,7 +17442,7 @@
         <v>0</v>
       </c>
       <c r="E135">
-        <v>974.075</v>
+        <v>0</v>
       </c>
       <c r="F135">
         <v>0</v>
@@ -19876,7 +19876,7 @@
         <v>0</v>
       </c>
       <c r="C155">
-        <v>0</v>
+        <v>1031.276228639696</v>
       </c>
       <c r="D155">
         <v>0</v>
@@ -20242,7 +20242,7 @@
         <v>0</v>
       </c>
       <c r="C158">
-        <v>0</v>
+        <v>1366.25</v>
       </c>
       <c r="D158">
         <v>0</v>
@@ -20492,7 +20492,7 @@
         <v>0</v>
       </c>
       <c r="E160">
-        <v>82.77500000000001</v>
+        <v>0</v>
       </c>
       <c r="F160">
         <v>0</v>
@@ -20614,7 +20614,7 @@
         <v>0</v>
       </c>
       <c r="E161">
-        <v>1244.655</v>
+        <v>1306.055</v>
       </c>
       <c r="F161">
         <v>0</v>
@@ -20736,7 +20736,7 @@
         <v>0</v>
       </c>
       <c r="E162">
-        <v>8958.885</v>
+        <v>0</v>
       </c>
       <c r="F162">
         <v>0</v>
@@ -20858,7 +20858,7 @@
         <v>0</v>
       </c>
       <c r="E163">
-        <v>73.79000000000001</v>
+        <v>3591.245</v>
       </c>
       <c r="F163">
         <v>0</v>
@@ -20980,7 +20980,7 @@
         <v>0</v>
       </c>
       <c r="E164">
-        <v>5657.14</v>
+        <v>4455.42</v>
       </c>
       <c r="F164">
         <v>0</v>
@@ -21093,7 +21093,7 @@
         <v>204</v>
       </c>
       <c r="B165">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C165">
         <v>482.6390663355013</v>
@@ -21102,7 +21102,7 @@
         <v>0</v>
       </c>
       <c r="E165">
-        <v>57.915</v>
+        <v>0</v>
       </c>
       <c r="F165">
         <v>0</v>
@@ -21215,7 +21215,7 @@
         <v>205</v>
       </c>
       <c r="B166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C166">
         <v>754.9924336800377</v>
@@ -21224,7 +21224,7 @@
         <v>0</v>
       </c>
       <c r="E166">
-        <v>131.965</v>
+        <v>1255.04</v>
       </c>
       <c r="F166">
         <v>0</v>
@@ -21346,7 +21346,7 @@
         <v>0</v>
       </c>
       <c r="E167">
-        <v>140.605</v>
+        <v>0</v>
       </c>
       <c r="F167">
         <v>0</v>
@@ -21459,7 +21459,7 @@
         <v>207</v>
       </c>
       <c r="B168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C168">
         <v>729.1196658666737</v>
@@ -21468,7 +21468,7 @@
         <v>0</v>
       </c>
       <c r="E168">
-        <v>13.66</v>
+        <v>13109.81</v>
       </c>
       <c r="F168">
         <v>0</v>
@@ -21590,7 +21590,7 @@
         <v>0</v>
       </c>
       <c r="E169">
-        <v>2179.62</v>
+        <v>14848.025</v>
       </c>
       <c r="F169">
         <v>0</v>
@@ -21712,7 +21712,7 @@
         <v>0</v>
       </c>
       <c r="E170">
-        <v>6816.35</v>
+        <v>9117.905000000001</v>
       </c>
       <c r="F170">
         <v>0</v>
@@ -21825,7 +21825,7 @@
         <v>210</v>
       </c>
       <c r="B171">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C171">
         <v>469.9423670895969</v>
@@ -21834,7 +21834,7 @@
         <v>0</v>
       </c>
       <c r="E171">
-        <v>446.98</v>
+        <v>11795.31</v>
       </c>
       <c r="F171">
         <v>0</v>
@@ -21947,7 +21947,7 @@
         <v>211</v>
       </c>
       <c r="B172">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C172">
         <v>507.5484050163182</v>
@@ -21956,7 +21956,7 @@
         <v>0</v>
       </c>
       <c r="E172">
-        <v>845.8150000000001</v>
+        <v>29029.81</v>
       </c>
       <c r="F172">
         <v>0</v>
@@ -22078,7 +22078,7 @@
         <v>0</v>
       </c>
       <c r="E173">
-        <v>823.1799999999999</v>
+        <v>5057.705</v>
       </c>
       <c r="F173">
         <v>0</v>
@@ -22200,7 +22200,7 @@
         <v>0</v>
       </c>
       <c r="E174">
-        <v>4713.25</v>
+        <v>509.885</v>
       </c>
       <c r="F174">
         <v>0</v>
@@ -22313,7 +22313,7 @@
         <v>214</v>
       </c>
       <c r="B175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C175">
         <v>579.0880693780265</v>
@@ -22322,7 +22322,7 @@
         <v>0</v>
       </c>
       <c r="E175">
-        <v>350.41</v>
+        <v>1874.76</v>
       </c>
       <c r="F175">
         <v>0</v>
@@ -22435,7 +22435,7 @@
         <v>215</v>
       </c>
       <c r="B176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C176">
         <v>731.9993357350996</v>
@@ -22444,7 +22444,7 @@
         <v>0</v>
       </c>
       <c r="E176">
-        <v>237.755</v>
+        <v>0</v>
       </c>
       <c r="F176">
         <v>0</v>
@@ -22566,7 +22566,7 @@
         <v>0</v>
       </c>
       <c r="E177">
-        <v>12638.8</v>
+        <v>1442.665</v>
       </c>
       <c r="F177">
         <v>0</v>
@@ -22688,7 +22688,7 @@
         <v>0</v>
       </c>
       <c r="E178">
-        <v>4669.505</v>
+        <v>14356.13</v>
       </c>
       <c r="F178">
         <v>0</v>
@@ -22804,13 +22804,13 @@
         <v>0</v>
       </c>
       <c r="C179">
-        <v>0</v>
+        <v>1063.277878861239</v>
       </c>
       <c r="D179">
         <v>0</v>
       </c>
       <c r="E179">
-        <v>14755.79</v>
+        <v>25844.88</v>
       </c>
       <c r="F179">
         <v>0</v>
@@ -22932,7 +22932,7 @@
         <v>0</v>
       </c>
       <c r="E180">
-        <v>10152.33</v>
+        <v>10699.535</v>
       </c>
       <c r="F180">
         <v>0</v>
@@ -23045,7 +23045,7 @@
         <v>220</v>
       </c>
       <c r="B181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C181">
         <v>1384.519227335143</v>
@@ -23054,7 +23054,7 @@
         <v>0</v>
       </c>
       <c r="E181">
-        <v>5859.145</v>
+        <v>9325.684999999999</v>
       </c>
       <c r="F181">
         <v>0</v>
@@ -23170,13 +23170,13 @@
         <v>0</v>
       </c>
       <c r="C182">
-        <v>0</v>
+        <v>1404.51</v>
       </c>
       <c r="D182">
         <v>0</v>
       </c>
       <c r="E182">
-        <v>1042.335</v>
+        <v>24985.68</v>
       </c>
       <c r="F182">
         <v>0</v>
@@ -23289,7 +23289,7 @@
         <v>222</v>
       </c>
       <c r="B183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C183">
         <v>900.3889853519216</v>
@@ -23298,7 +23298,7 @@
         <v>0</v>
       </c>
       <c r="E183">
-        <v>14.92</v>
+        <v>0</v>
       </c>
       <c r="F183">
         <v>0</v>
@@ -24756,7 +24756,7 @@
         <v>0</v>
       </c>
       <c r="C195">
-        <v>0</v>
+        <v>1060.229080452468</v>
       </c>
       <c r="D195">
         <v>0</v>
@@ -25000,7 +25000,7 @@
         <v>0</v>
       </c>
       <c r="C197">
-        <v>0</v>
+        <v>941.02</v>
       </c>
       <c r="D197">
         <v>0</v>
